--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -1,143 +1,193 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\ColorInterfaceRefactor\Case\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A08CC829-DE3E-4835-957C-5ED2B6CEABED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="17355" windowHeight="12225"/>
   </bookViews>
   <sheets>
     <sheet name="Color" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
   <si>
     <t>Case_ID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description</t>
   </si>
   <si>
     <t>Is_Run</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Precondition</t>
   </si>
   <si>
     <t>Url</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Method</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Expected_Result</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precondition</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Description</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExecuteResult</t>
+  </si>
+  <si>
+    <t>ResponseResult</t>
+  </si>
+  <si>
+    <t>banner安卓接口正常访问</t>
   </si>
   <si>
     <t>yes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>/normalApi/v1/getBannerConfig/</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>get</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner接口正常访问</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "20210617","game_actDay": 1, "group_id": 55}</t>
   </si>
   <si>
     <t>{"errorCode":-1}||{"data":{"bannerList":[]}}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "20210617","game_actDay": 1, "group_id": 55}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ExecuteResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ResponseResult</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>language安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getLanguage/</t>
+  </si>
+  <si>
+    <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "20210617","game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}</t>
+  </si>
+  <si>
+    <t>groupConfig安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getGroupConfig/</t>
+  </si>
+  <si>
+    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}</t>
+  </si>
+  <si>
+    <t>discount安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getDiscount/</t>
+  </si>
+  <si>
+    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"is_vip":"0"}</t>
+  </si>
+  <si>
+    <t>gallerylist安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getGalleryList/</t>
+  </si>
+  <si>
+    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}</t>
+  </si>
+  <si>
+    <t>featureconfig安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v3/getFeatureConfig/</t>
+  </si>
+  <si>
+    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"offset":"0"}</t>
+  </si>
+  <si>
+    <t>dailylist安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getDailyList/</t>
+  </si>
+  <si>
+    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}</t>
+  </si>
+  <si>
+    <t>newsconfig安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getNewsConfig/</t>
+  </si>
+  <si>
+    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63}</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>os_type</t>
+  </si>
+  <si>
+    <t>Android</t>
+  </si>
+  <si>
+    <t>game_ver</t>
+  </si>
+  <si>
+    <t>6.7.5</t>
+  </si>
+  <si>
+    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":"1","group_id":"63"}</t>
+  </si>
+  <si>
+    <t>register_ver</t>
+  </si>
+  <si>
+    <t>register_date</t>
+  </si>
+  <si>
+    <t>game_date</t>
+  </si>
+  <si>
+    <t>game_actDay</t>
+  </si>
+  <si>
+    <t>group_id</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FFD4D4D4"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -146,7 +196,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -154,12 +216,169 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFD4D4D4"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -172,8 +391,194 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -183,55 +588,349 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -280,7 +979,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -315,7 +1014,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -489,116 +1188,633 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="94" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="35.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="39" style="2"/>
+    <col min="1" max="1" width="8.55833333333333" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="7.44166666666667" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.8833333333333" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.5583333333333" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.88333333333333" style="3" customWidth="1"/>
+    <col min="7" max="7" width="94" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.5583333333333" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.8833333333333" style="3" customWidth="1"/>
+    <col min="10" max="16384" width="39" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="3" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="2" customFormat="1" ht="18.6" customHeight="1" spans="1:10">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:8">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="B2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" customHeight="1" spans="1:7">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:7">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" customHeight="1" spans="1:7">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:7">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2">
+      <c r="B7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:7">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:7">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="7:7">
+      <c r="G10" s="8"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:J28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <cols>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="24.375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="H1" t="str">
+        <f>A1&amp;F1&amp;A1&amp;B1&amp;A1&amp;G1&amp;A1</f>
+        <v>"os_type":"Android"</v>
+      </c>
+      <c r="J1" t="str">
+        <f>C1&amp;H1&amp;D1&amp;H2&amp;D1&amp;H3&amp;D1&amp;H4&amp;D1&amp;H5&amp;D1&amp;H6&amp;D1&amp;H7&amp;D1&amp;H8&amp;D1&amp;H9&amp;E1</f>
+        <v>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":"1","group_id":"63",,}</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H9" si="0">A2&amp;F2&amp;A2&amp;B2&amp;A2&amp;G2&amp;A2</f>
+        <v>"game_ver":"6.7.5"</v>
+      </c>
+      <c r="J2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" ht="28.5" spans="1:8">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>"register_ver":"6.7.5"</v>
+      </c>
+    </row>
+    <row r="4" ht="28.5" spans="1:8">
+      <c r="A4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="G4" s="1">
+        <v>20210617</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>"register_date":"20210617"</v>
+      </c>
+    </row>
+    <row r="5" ht="28.5" spans="1:8">
+      <c r="A5" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="1">
+        <v>20210617</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>"game_date":"20210617"</v>
+      </c>
+    </row>
+    <row r="6" ht="28.5" spans="1:8">
+      <c r="A6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G6" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G3" s="6"/>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="6"/>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>"game_actDay":"1"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G7" s="1">
+        <v>63</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>"group_id":"63"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>37</v>
+      </c>
+      <c r="B18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>37</v>
+      </c>
+      <c r="B25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>38</v>
+      </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -1,16 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\ColorInterfaceRefactor\Case\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED201E4-CD07-45C5-AA35-36893BAC86C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="17355" windowHeight="12225"/>
+    <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Color" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
@@ -176,14 +182,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="26">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,151 +234,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -391,194 +253,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -601,251 +277,9 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -876,61 +310,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="1">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1188,35 +578,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection/>
-      <selection pane="bottomLeft" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.55833333333333" style="3" customWidth="1"/>
-    <col min="2" max="2" width="13.75" style="3" customWidth="1"/>
-    <col min="3" max="3" width="7.44166666666667" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.8833333333333" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.5583333333333" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.88333333333333" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.5546875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.5546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" style="3" customWidth="1"/>
     <col min="7" max="7" width="94" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.5583333333333" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.8833333333333" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.5546875" style="3" customWidth="1"/>
+    <col min="9" max="9" width="14.88671875" style="3" customWidth="1"/>
     <col min="10" max="16384" width="39" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="1" ht="18.6" customHeight="1" spans="1:10">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1248,7 +637,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" customHeight="1" spans="1:8">
+    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -1271,7 +660,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" customHeight="1" spans="1:7">
+    <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -1291,7 +680,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:7">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -1311,7 +700,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" customHeight="1" spans="1:7">
+    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -1331,7 +720,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" customHeight="1" spans="1:7">
+    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -1351,7 +740,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" customHeight="1" spans="1:7">
+    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -1371,7 +760,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="1:7">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -1391,7 +780,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="1:7">
+    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -1411,32 +800,31 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="7:7">
+    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G10" s="8"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:J28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="23.5" customWidth="1"/>
-    <col min="8" max="8" width="24.375" customWidth="1"/>
+    <col min="7" max="7" width="23.44140625" customWidth="1"/>
+    <col min="8" max="8" width="24.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>37</v>
       </c>
@@ -1467,7 +855,7 @@
         <v>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":"1","group_id":"63",,}</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>37</v>
       </c>
@@ -1490,14 +878,14 @@
         <v>45</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H9" si="0">A2&amp;F2&amp;A2&amp;B2&amp;A2&amp;G2&amp;A2</f>
+        <f t="shared" ref="H2:H7" si="0">A2&amp;F2&amp;A2&amp;B2&amp;A2&amp;G2&amp;A2</f>
         <v>"game_ver":"6.7.5"</v>
       </c>
       <c r="J2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="3" ht="28.5" spans="1:8">
+    <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>37</v>
       </c>
@@ -1524,7 +912,7 @@
         <v>"register_ver":"6.7.5"</v>
       </c>
     </row>
-    <row r="4" ht="28.5" spans="1:8">
+    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -1551,7 +939,7 @@
         <v>"register_date":"20210617"</v>
       </c>
     </row>
-    <row r="5" ht="28.5" spans="1:8">
+    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>37</v>
       </c>
@@ -1578,7 +966,7 @@
         <v>"game_date":"20210617"</v>
       </c>
     </row>
-    <row r="6" ht="28.5" spans="1:8">
+    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>37</v>
       </c>
@@ -1605,7 +993,7 @@
         <v>"game_actDay":"1"</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -1632,7 +1020,7 @@
         <v>"group_id":"63"</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>37</v>
       </c>
@@ -1651,7 +1039,7 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
     </row>
-    <row r="9" spans="1:7">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>37</v>
       </c>
@@ -1661,7 +1049,7 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>37</v>
       </c>
@@ -1669,7 +1057,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>37</v>
       </c>
@@ -1677,7 +1065,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>37</v>
       </c>
@@ -1685,7 +1073,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>37</v>
       </c>
@@ -1693,7 +1081,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>37</v>
       </c>
@@ -1701,7 +1089,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>37</v>
       </c>
@@ -1709,7 +1097,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1717,7 +1105,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>37</v>
       </c>
@@ -1725,7 +1113,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>37</v>
       </c>
@@ -1733,7 +1121,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>37</v>
       </c>
@@ -1741,7 +1129,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>37</v>
       </c>
@@ -1749,7 +1137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>37</v>
       </c>
@@ -1757,7 +1145,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>37</v>
       </c>
@@ -1765,7 +1153,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>37</v>
       </c>
@@ -1773,7 +1161,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>37</v>
       </c>
@@ -1781,7 +1169,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -1789,7 +1177,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>37</v>
       </c>
@@ -1797,7 +1185,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>37</v>
       </c>
@@ -1805,7 +1193,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>37</v>
       </c>
@@ -1814,7 +1202,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\ColorInterfaceRefactor\Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED201E4-CD07-45C5-AA35-36893BAC86C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE08B0E8-9670-4562-91E9-214EA91F8D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="22932" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Color" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="72">
   <si>
     <t>Case_ID</t>
   </si>
@@ -65,9 +65,6 @@
     <t>get</t>
   </si>
   <si>
-    <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "20210617","game_actDay": 1, "group_id": 55}</t>
-  </si>
-  <si>
     <t>{"errorCode":-1}||{"data":{"bannerList":[]}}</t>
   </si>
   <si>
@@ -77,63 +74,42 @@
     <t>/normalApi/v1/getLanguage/</t>
   </si>
   <si>
-    <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "20210617","game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}</t>
-  </si>
-  <si>
     <t>groupConfig安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v1/getGroupConfig/</t>
   </si>
   <si>
-    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}</t>
-  </si>
-  <si>
     <t>discount安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v1/getDiscount/</t>
   </si>
   <si>
-    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"is_vip":"0"}</t>
-  </si>
-  <si>
     <t>gallerylist安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v1/getGalleryList/</t>
   </si>
   <si>
-    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}</t>
-  </si>
-  <si>
     <t>featureconfig安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v3/getFeatureConfig/</t>
   </si>
   <si>
-    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"offset":"0"}</t>
-  </si>
-  <si>
     <t>dailylist安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v1/getDailyList/</t>
   </si>
   <si>
-    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}</t>
-  </si>
-  <si>
     <t>newsconfig安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v1/getNewsConfig/</t>
   </si>
   <si>
-    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":1,"group_id":63}</t>
-  </si>
-  <si>
     <t>"</t>
   </si>
   <si>
@@ -149,40 +125,135 @@
     <t>}</t>
   </si>
   <si>
-    <t>os_type</t>
-  </si>
-  <si>
-    <t>Android</t>
-  </si>
-  <si>
-    <t>game_ver</t>
-  </si>
-  <si>
-    <t>6.7.5</t>
-  </si>
-  <si>
-    <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":"1","group_id":"63"}</t>
-  </si>
-  <si>
-    <t>register_ver</t>
-  </si>
-  <si>
-    <t>register_date</t>
-  </si>
-  <si>
-    <t>game_date</t>
-  </si>
-  <si>
-    <t>game_actDay</t>
-  </si>
-  <si>
-    <t>group_id</t>
+    <t>app_version</t>
+  </si>
+  <si>
+    <t>2.9.1</t>
+  </si>
+  <si>
+    <t>package_name</t>
+  </si>
+  <si>
+    <t>com.pixel.art.coloring.color.number</t>
+  </si>
+  <si>
+    <t>os_name</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>os_version</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>c6c9feb7-d8ea-4d8f-a943-379cb34ee6f1</t>
+  </si>
+  <si>
+    <t>limit_tracking</t>
+  </si>
+  <si>
+    <t>api_content_version</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>utc</t>
+  </si>
+  <si>
+    <t>level_quality</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>ChineseSimplified</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>icon_quality</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>app_layout</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>install_date</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>solve_page_treasure_status</t>
+  </si>
+  <si>
+    <t>auto_select_color_status</t>
+  </si>
+  <si>
+    <t>palette_color_progress_status</t>
+  </si>
+  <si>
+    <t>reward_lock_pictures_status</t>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": {},"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"is_vip":"0"}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"offset":"0"}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="177" formatCode="yyyymmdd"/>
+  </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -208,20 +279,7 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -236,6 +294,21 @@
     <font>
       <sz val="9"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -281,7 +354,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -298,15 +371,16 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -586,9 +660,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -653,11 +727,11 @@
       <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H2" s="5" t="s">
         <v>14</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
@@ -665,19 +739,19 @@
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>18</v>
+      <c r="G3" s="9" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
@@ -685,19 +759,19 @@
         <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -705,19 +779,19 @@
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>24</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,19 +799,19 @@
         <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>27</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -745,19 +819,19 @@
         <v>6</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>30</v>
+        <v>68</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -765,19 +839,19 @@
         <v>7</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>33</v>
+        <v>69</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -785,424 +859,656 @@
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="8"/>
+      <c r="G10" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" customWidth="1"/>
+    <col min="8" max="8" width="51.21875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B1" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="C1" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="H1" t="str">
         <f>A1&amp;F1&amp;A1&amp;B1&amp;A1&amp;G1&amp;A1</f>
-        <v>"os_type":"Android"</v>
-      </c>
-      <c r="J1" t="str">
-        <f>C1&amp;H1&amp;D1&amp;H2&amp;D1&amp;H3&amp;D1&amp;H4&amp;D1&amp;H5&amp;D1&amp;H6&amp;D1&amp;H7&amp;D1&amp;H8&amp;D1&amp;H9&amp;E1</f>
-        <v>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date":"20210617","game_actDay":"1","group_id":"63",,}</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>"app_version":"2.9.1"</v>
+      </c>
+      <c r="N1" s="8">
+        <v>43849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B2" t="s">
+      <c r="H2" t="str">
+        <f t="shared" ref="H2:H20" si="0">A2&amp;F2&amp;A2&amp;B2&amp;A2&amp;G2&amp;A2</f>
+        <v>"package_name":"com.pixel.art.coloring.color.number"</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G3" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H3" t="str">
+        <f t="shared" si="0"/>
+        <v>"os_name":"android"</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G4" s="1">
+        <v>22</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="0"/>
+        <v>"os_version":"22"</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="0"/>
+        <v>"user_id":"c6c9feb7-d8ea-4d8f-a943-379cb34ee6f1"</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="0"/>
+        <v>"limit_tracking":"0"</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="H2" t="str">
-        <f t="shared" ref="H2:H7" si="0">A2&amp;F2&amp;A2&amp;B2&amp;A2&amp;G2&amp;A2</f>
-        <v>"game_ver":"6.7.5"</v>
-      </c>
-      <c r="J2" t="s">
+      <c r="H7" t="str">
+        <f t="shared" si="0"/>
+        <v>"api_content_version":"4.3.1"</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>29</v>
+      </c>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B3" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G8" s="1">
+        <v>8</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="0"/>
+        <v>"utc":"8"</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="H3" t="str">
-        <f t="shared" si="0"/>
-        <v>"register_ver":"6.7.5"</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="G4" s="1">
-        <v>20210617</v>
-      </c>
-      <c r="H4" t="str">
-        <f t="shared" si="0"/>
-        <v>"register_date":"20210617"</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="1" t="s">
+      <c r="H9" t="str">
+        <f t="shared" si="0"/>
+        <v>"level_quality":"high"</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="1">
-        <v>20210617</v>
-      </c>
-      <c r="H5" t="str">
-        <f t="shared" si="0"/>
-        <v>"game_date":"20210617"</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" t="s">
-        <v>39</v>
-      </c>
-      <c r="D6" t="s">
-        <v>40</v>
-      </c>
-      <c r="E6" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="1" t="s">
+      <c r="G10" t="s">
         <v>50</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H10" t="str">
+        <f t="shared" si="0"/>
+        <v>"lang":"ChineseSimplified"</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" t="s">
+        <v>32</v>
+      </c>
+      <c r="E11" t="s">
+        <v>33</v>
+      </c>
+      <c r="F11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="0"/>
+        <v>"country":"CN"</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12" t="s">
+        <v>32</v>
+      </c>
+      <c r="E12" t="s">
+        <v>33</v>
+      </c>
+      <c r="F12" t="s">
+        <v>53</v>
+      </c>
+      <c r="G12" t="s">
+        <v>54</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="0"/>
+        <v>"icon_quality":"low"</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
+        <v>33</v>
+      </c>
+      <c r="F13" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="0"/>
+        <v>"app_layout":"phone"</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E14" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" t="s">
+        <v>57</v>
+      </c>
+      <c r="G14">
+        <v>1624285846</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="0"/>
+        <v>"time":"1624285846"</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F15" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15">
+        <v>1623750414</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="0"/>
+        <v>"install_date":"1623750414"</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>59</v>
+      </c>
+      <c r="G16">
         <v>1</v>
       </c>
-      <c r="H6" t="str">
-        <f t="shared" si="0"/>
-        <v>"game_actDay":"1"</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-      <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G7" s="1">
+      <c r="H16" t="str">
+        <f t="shared" si="0"/>
+        <v>"page":"1"</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+      <c r="C17" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E17" t="s">
+        <v>33</v>
+      </c>
+      <c r="F17" t="s">
+        <v>60</v>
+      </c>
+      <c r="G17">
+        <v>2</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="0"/>
+        <v>"solve_page_treasure_status":"2"</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18">
+        <v>2</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="0"/>
+        <v>"auto_select_color_status":"2"</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" t="s">
+        <v>62</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="0"/>
+        <v>"palette_color_progress_status":"1"</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+      <c r="B20" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" t="s">
+        <v>31</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" t="s">
         <v>63</v>
       </c>
-      <c r="H7" t="str">
-        <f t="shared" si="0"/>
-        <v>"group_id":"63"</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>37</v>
-      </c>
-      <c r="B13" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>37</v>
-      </c>
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B15" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>37</v>
-      </c>
-      <c r="B16" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>37</v>
-      </c>
-      <c r="B18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>37</v>
-      </c>
-      <c r="B19" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>37</v>
-      </c>
-      <c r="B20" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="0"/>
+        <v>"reward_lock_pictures_status":"2"</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="7" type="noConversion"/>
+  <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\ColorInterfaceRefactor\Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE08B0E8-9670-4562-91E9-214EA91F8D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8011140B-1BD0-4EEE-8253-52288BDE8249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
   <si>
     <t>Case_ID</t>
   </si>
@@ -32,219 +32,280 @@
     <t>Is_Run</t>
   </si>
   <si>
+    <t>Url</t>
+  </si>
+  <si>
+    <t>Method</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Expected_Result</t>
+  </si>
+  <si>
+    <t>ExecuteResult</t>
+  </si>
+  <si>
+    <t>ResponseResult</t>
+  </si>
+  <si>
+    <t>banner安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getBannerConfig/</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>language安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getLanguage/</t>
+  </si>
+  <si>
+    <t>groupConfig安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getGroupConfig/</t>
+  </si>
+  <si>
+    <t>discount安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getDiscount/</t>
+  </si>
+  <si>
+    <t>gallerylist安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getGalleryList/</t>
+  </si>
+  <si>
+    <t>featureconfig安卓接口正常访问</t>
+  </si>
+  <si>
+    <t>/normalApi/v3/getFeatureConfig/</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getDailyList/</t>
+  </si>
+  <si>
+    <t>/normalApi/v1/getNewsConfig/</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>:</t>
+  </si>
+  <si>
+    <t>{</t>
+  </si>
+  <si>
+    <t>,</t>
+  </si>
+  <si>
+    <t>}</t>
+  </si>
+  <si>
+    <t>app_version</t>
+  </si>
+  <si>
+    <t>2.9.1</t>
+  </si>
+  <si>
+    <t>package_name</t>
+  </si>
+  <si>
+    <t>com.pixel.art.coloring.color.number</t>
+  </si>
+  <si>
+    <t>os_name</t>
+  </si>
+  <si>
+    <t>android</t>
+  </si>
+  <si>
+    <t>os_version</t>
+  </si>
+  <si>
+    <t>user_id</t>
+  </si>
+  <si>
+    <t>c6c9feb7-d8ea-4d8f-a943-379cb34ee6f1</t>
+  </si>
+  <si>
+    <t>limit_tracking</t>
+  </si>
+  <si>
+    <t>api_content_version</t>
+  </si>
+  <si>
+    <t>4.3.1</t>
+  </si>
+  <si>
+    <t>utc</t>
+  </si>
+  <si>
+    <t>level_quality</t>
+  </si>
+  <si>
+    <t>high</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>ChineseSimplified</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>CN</t>
+  </si>
+  <si>
+    <t>icon_quality</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>app_layout</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>install_date</t>
+  </si>
+  <si>
+    <t>page</t>
+  </si>
+  <si>
+    <t>solve_page_treasure_status</t>
+  </si>
+  <si>
+    <t>auto_select_color_status</t>
+  </si>
+  <si>
+    <t>palette_color_progress_status</t>
+  </si>
+  <si>
+    <t>reward_lock_pictures_status</t>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": {},"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"is_vip":"0"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"offset":"0"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"errorCode":-1}||{"data":{"bannerList":[]}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>Precondition</t>
-  </si>
-  <si>
-    <t>Url</t>
-  </si>
-  <si>
-    <t>Method</t>
-  </si>
-  <si>
-    <t>Data</t>
-  </si>
-  <si>
-    <t>Expected_Result</t>
-  </si>
-  <si>
-    <t>ExecuteResult</t>
-  </si>
-  <si>
-    <t>ResponseResult</t>
-  </si>
-  <si>
-    <t>banner安卓接口正常访问</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>newsconfig安卓接口正常访问</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>dailylist安卓接口正常访问</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>no</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>yes</t>
-  </si>
-  <si>
-    <t>/normalApi/v1/getBannerConfig/</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>{"errorCode":-1}||{"data":{"bannerList":[]}}</t>
-  </si>
-  <si>
-    <t>language安卓接口正常访问</t>
-  </si>
-  <si>
-    <t>/normalApi/v1/getLanguage/</t>
-  </si>
-  <si>
-    <t>groupConfig安卓接口正常访问</t>
-  </si>
-  <si>
-    <t>/normalApi/v1/getGroupConfig/</t>
-  </si>
-  <si>
-    <t>discount安卓接口正常访问</t>
-  </si>
-  <si>
-    <t>/normalApi/v1/getDiscount/</t>
-  </si>
-  <si>
-    <t>gallerylist安卓接口正常访问</t>
-  </si>
-  <si>
-    <t>/normalApi/v1/getGalleryList/</t>
-  </si>
-  <si>
-    <t>featureconfig安卓接口正常访问</t>
-  </si>
-  <si>
-    <t>/normalApi/v3/getFeatureConfig/</t>
-  </si>
-  <si>
-    <t>dailylist安卓接口正常访问</t>
-  </si>
-  <si>
-    <t>/normalApi/v1/getDailyList/</t>
-  </si>
-  <si>
-    <t>newsconfig安卓接口正常访问</t>
-  </si>
-  <si>
-    <t>/normalApi/v1/getNewsConfig/</t>
-  </si>
-  <si>
-    <t>"</t>
-  </si>
-  <si>
-    <t>:</t>
-  </si>
-  <si>
-    <t>{</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t>}</t>
-  </si>
-  <si>
-    <t>app_version</t>
-  </si>
-  <si>
-    <t>2.9.1</t>
-  </si>
-  <si>
-    <t>package_name</t>
-  </si>
-  <si>
-    <t>com.pixel.art.coloring.color.number</t>
-  </si>
-  <si>
-    <t>os_name</t>
-  </si>
-  <si>
-    <t>android</t>
-  </si>
-  <si>
-    <t>os_version</t>
-  </si>
-  <si>
-    <t>user_id</t>
-  </si>
-  <si>
-    <t>c6c9feb7-d8ea-4d8f-a943-379cb34ee6f1</t>
-  </si>
-  <si>
-    <t>limit_tracking</t>
-  </si>
-  <si>
-    <t>api_content_version</t>
-  </si>
-  <si>
-    <t>4.3.1</t>
-  </si>
-  <si>
-    <t>utc</t>
-  </si>
-  <si>
-    <t>level_quality</t>
-  </si>
-  <si>
-    <t>high</t>
-  </si>
-  <si>
-    <t>lang</t>
-  </si>
-  <si>
-    <t>ChineseSimplified</t>
-  </si>
-  <si>
-    <t>country</t>
-  </si>
-  <si>
-    <t>CN</t>
-  </si>
-  <si>
-    <t>icon_quality</t>
-  </si>
-  <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>app_layout</t>
-  </si>
-  <si>
-    <t>phone</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>install_date</t>
-  </si>
-  <si>
-    <t>page</t>
-  </si>
-  <si>
-    <t>solve_page_treasure_status</t>
-  </si>
-  <si>
-    <t>auto_select_color_status</t>
-  </si>
-  <si>
-    <t>palette_color_progress_status</t>
-  </si>
-  <si>
-    <t>reward_lock_pictures_status</t>
-  </si>
-  <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": {},"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"is_vip":"0"}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"offset":"0"}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner安卓接口game_ver参数异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner安卓接口os_type参数异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner安卓接口register_date参数异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner安卓接口game_date参数异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner安卓接口game_actDay参数异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>banner安卓接口group_id参数异常</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 12345}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "2021-06-17","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type": "An", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "12","game_actDay": 1, "group_id": 55}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay":"" , "group_id": 55}}</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected_Method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -252,9 +313,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="yyyymmdd"/>
+    <numFmt numFmtId="176" formatCode="yyyymmdd"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -273,13 +334,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -307,6 +361,39 @@
     </font>
     <font>
       <sz val="10"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -354,7 +441,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -371,17 +458,28 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -658,28 +756,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J10"/>
+  <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.5546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="16.109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.44140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.88671875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.5546875" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
+    <col min="2" max="2" width="16.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
+    <col min="4" max="4" width="13.875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="8.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="94" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.5546875" style="3" customWidth="1"/>
-    <col min="9" max="9" width="14.88671875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="35.5" style="3" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="3" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="39" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,196 +787,325 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="J1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>71</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="G2" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="3" t="s">
+      <c r="B3" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="27.6" x14ac:dyDescent="0.25">
+      <c r="G3" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="3" t="s">
+      <c r="B4" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G4" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="3" t="s">
+      <c r="B5" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="3" t="s">
+      <c r="B6" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="3" t="s">
+      <c r="B7" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="B8" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="3" t="s">
+      <c r="G9" s="8" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="6" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="G9" s="7" t="s">
+      <c r="B14" s="11" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="10" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G10" s="6"/>
+      <c r="C14" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G16" s="5"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -892,115 +1119,115 @@
       <selection activeCell="N1" sqref="N1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="7" max="7" width="23.44140625" customWidth="1"/>
-    <col min="8" max="8" width="51.21875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5" customWidth="1"/>
+    <col min="8" max="8" width="51.25" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B1" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="C1" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="H1" t="str">
         <f>A1&amp;F1&amp;A1&amp;B1&amp;A1&amp;G1&amp;A1</f>
         <v>"app_version":"2.9.1"</v>
       </c>
-      <c r="N1" s="8">
+      <c r="N1" s="7">
         <v>43849</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" t="s">
+        <v>28</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="E2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>37</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" ref="H2:H20" si="0">A2&amp;F2&amp;A2&amp;B2&amp;A2&amp;G2&amp;A2</f>
         <v>"package_name":"com.pixel.art.coloring.color.number"</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B3" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="G3" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
         <v>"os_name":"android"</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="G4" s="1">
         <v>22</v>
@@ -1010,51 +1237,51 @@
         <v>"os_version":"22"</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B5" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>"user_id":"c6c9feb7-d8ea-4d8f-a943-379cb34ee6f1"</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E6" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1064,51 +1291,51 @@
         <v>"limit_tracking":"0"</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="41.4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E7" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
         <v>"api_content_version":"4.3.1"</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="G8" s="1">
         <v>8</v>
@@ -1118,159 +1345,159 @@
         <v>"utc":"8"</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="27.6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
         <v>"level_quality":"high"</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="G10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
         <v>"lang":"ChineseSimplified"</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
         <v>"country":"CN"</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F12" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="G12" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
         <v>"icon_quality":"low"</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E13" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F13" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
         <v>"app_layout":"phone"</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E14" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F14" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="G14">
         <v>1624285846</v>
@@ -1280,24 +1507,24 @@
         <v>"time":"1624285846"</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E15" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F15" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="G15">
         <v>1623750414</v>
@@ -1307,24 +1534,24 @@
         <v>"install_date":"1623750414"</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1334,24 +1561,24 @@
         <v>"page":"1"</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E17" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1361,24 +1588,24 @@
         <v>"solve_page_treasure_status":"2"</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E18" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1388,24 +1615,24 @@
         <v>"auto_select_color_status":"2"</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E19" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1415,24 +1642,24 @@
         <v>"palette_color_progress_status":"1"</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D20" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E20" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F20" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1442,72 +1669,72 @@
         <v>"reward_lock_pictures_status":"2"</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B23" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\ColorInterfaceRefactor\Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8011140B-1BD0-4EEE-8253-52288BDE8249}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198AA399-7E07-4CFB-8A53-BA756DE35BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
   <si>
     <t>Case_ID</t>
   </si>
@@ -232,10 +232,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>{"errorCode":-1}||{"data":{"bannerList":[]}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>Precondition</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -305,6 +301,18 @@
   </si>
   <si>
     <t>Expected_Method</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorMsg</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>errorCode</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>-1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -441,7 +449,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -452,10 +460,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -480,6 +484,16 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -760,7 +774,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -773,7 +787,7 @@
     <col min="6" max="6" width="8.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="94" style="3" customWidth="1"/>
     <col min="8" max="8" width="35.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="12" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="39" style="3"/>
   </cols>
   <sheetData>
@@ -787,8 +801,8 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="10" t="s">
-        <v>68</v>
+      <c r="D1" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
         <v>3</v>
@@ -799,10 +813,10 @@
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="H1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
       <c r="J1" s="2" t="s">
@@ -819,8 +833,8 @@
       <c r="B2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="11" t="s">
-        <v>72</v>
+      <c r="C2" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E2" s="3" t="s">
         <v>10</v>
@@ -828,22 +842,25 @@
       <c r="F2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>67</v>
+      <c r="H2" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="14" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>72</v>
+      <c r="B3" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E3" s="3" t="s">
         <v>10</v>
@@ -851,20 +868,22 @@
       <c r="F3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>73</v>
-      </c>
-      <c r="H3" s="9"/>
+      <c r="G3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>72</v>
+      <c r="B4" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
@@ -872,20 +891,22 @@
       <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="9"/>
+      <c r="G4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>72</v>
+      <c r="B5" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -893,20 +914,22 @@
       <c r="F5" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="H5" s="9"/>
+      <c r="G5" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>72</v>
+      <c r="B6" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
@@ -914,20 +937,22 @@
       <c r="F6" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G6" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="H6" s="9"/>
+      <c r="G6" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>72</v>
+      <c r="B7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -935,20 +960,22 @@
       <c r="F7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="H7" s="9"/>
+      <c r="G7" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>72</v>
+      <c r="B8" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -956,10 +983,12 @@
       <c r="F8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="8" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="9"/>
+      <c r="G8" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="8" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
@@ -968,8 +997,8 @@
       <c r="B9" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="11" t="s">
-        <v>71</v>
+      <c r="C9" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>13</v>
@@ -977,7 +1006,7 @@
       <c r="F9" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="8" t="s">
+      <c r="G9" s="7" t="s">
         <v>59</v>
       </c>
     </row>
@@ -988,8 +1017,8 @@
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="11" t="s">
-        <v>71</v>
+      <c r="C10" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>15</v>
@@ -997,7 +1026,7 @@
       <c r="F10" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>60</v>
       </c>
     </row>
@@ -1008,8 +1037,8 @@
       <c r="B11" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>71</v>
+      <c r="C11" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>17</v>
@@ -1017,7 +1046,7 @@
       <c r="F11" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="5" t="s">
         <v>61</v>
       </c>
     </row>
@@ -1028,8 +1057,8 @@
       <c r="B12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="11" t="s">
-        <v>71</v>
+      <c r="C12" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>19</v>
@@ -1037,7 +1066,7 @@
       <c r="F12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G12" s="6" t="s">
+      <c r="G12" s="5" t="s">
         <v>62</v>
       </c>
     </row>
@@ -1048,8 +1077,8 @@
       <c r="B13" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>71</v>
+      <c r="C13" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>21</v>
@@ -1057,7 +1086,7 @@
       <c r="F13" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="5" t="s">
         <v>63</v>
       </c>
     </row>
@@ -1065,11 +1094,11 @@
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>71</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>22</v>
@@ -1077,7 +1106,7 @@
       <c r="F14" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="5" t="s">
         <v>64</v>
       </c>
     </row>
@@ -1085,11 +1114,11 @@
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>71</v>
+      <c r="B15" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>70</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>23</v>
@@ -1097,12 +1126,12 @@
       <c r="F15" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="5" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="5"/>
+      <c r="G16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1152,7 +1181,7 @@
         <f>A1&amp;F1&amp;A1&amp;B1&amp;A1&amp;G1&amp;A1</f>
         <v>"app_version":"2.9.1"</v>
       </c>
-      <c r="N1" s="7">
+      <c r="N1" s="6">
         <v>43849</v>
       </c>
     </row>

--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\ColorInterfaceRefactor\Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{198AA399-7E07-4CFB-8A53-BA756DE35BF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8805B-E616-47B5-95F2-7A13216A7D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="102">
   <si>
     <t>Case_ID</t>
   </si>
@@ -32,6 +32,9 @@
     <t>Is_Run</t>
   </si>
   <si>
+    <t>Precondition</t>
+  </si>
+  <si>
     <t>Url</t>
   </si>
   <si>
@@ -41,6 +44,9 @@
     <t>Data</t>
   </si>
   <si>
+    <t>Expected_Method</t>
+  </si>
+  <si>
     <t>Expected_Result</t>
   </si>
   <si>
@@ -53,48 +59,171 @@
     <t>banner安卓接口正常访问</t>
   </si>
   <si>
+    <t>yes</t>
+  </si>
+  <si>
     <t>/normalApi/v1/getBannerConfig/</t>
   </si>
   <si>
     <t>get</t>
   </si>
   <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+  </si>
+  <si>
+    <t>errorCode</t>
+  </si>
+  <si>
+    <t>-1</t>
+  </si>
+  <si>
+    <t>通过</t>
+  </si>
+  <si>
+    <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625050271', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]'}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]'}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}]}}</t>
+  </si>
+  <si>
+    <t>banner安卓接口game_ver参数异常</t>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+  </si>
+  <si>
+    <t>errorMsg</t>
+  </si>
+  <si>
+    <t>{'error_code': 666, 'error_msg': 'path: game_ver, error: game_ver must have a length between 3 and 9.'}</t>
+  </si>
+  <si>
+    <t>banner安卓接口os_type参数异常</t>
+  </si>
+  <si>
+    <t>{{"os_type": "An", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+  </si>
+  <si>
+    <t>{'error_code': 666, 'error_msg': 'path: os_type, error: os_type must be either Android, Ios, Mac or Windows.'}</t>
+  </si>
+  <si>
+    <t>banner安卓接口register_date参数异常</t>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "2021-06-17","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+  </si>
+  <si>
+    <t>{'error_code': 666, 'error_msg': 'path: register_date, error: register_date must have a length between 8 and 8.'}</t>
+  </si>
+  <si>
+    <t>banner安卓接口game_actDay参数异常</t>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay":"" , "group_id": 55}}</t>
+  </si>
+  <si>
+    <t>{'error_code': 666, 'error_msg': 'path: game_actDay, error: game_actDay is required.'}</t>
+  </si>
+  <si>
+    <t>banner安卓接口group_id参数异常</t>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 12345}}</t>
+  </si>
+  <si>
+    <t>{'error_code': 666, 'error_msg': 'path: group_id, error: group_id must have a length between 1 and 3.'}</t>
+  </si>
+  <si>
+    <t>banner安卓接口game_date参数异常</t>
+  </si>
+  <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "12","game_actDay": 1, "group_id": 55}}</t>
+  </si>
+  <si>
+    <t>{'error_code': 666, 'error_msg': 'path: game_date, error: game_date must have a length between 8 and 8.'}</t>
+  </si>
+  <si>
     <t>language安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v1/getLanguage/</t>
   </si>
   <si>
+    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": {},"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}}</t>
+  </si>
+  <si>
+    <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625050276', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不'}, 'version': '1624629399'}, 'apiName': 'getLanguage'}</t>
+  </si>
+  <si>
     <t>groupConfig安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v1/getGroupConfig/</t>
   </si>
   <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}}</t>
+  </si>
+  <si>
+    <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625050276', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B"}'}</t>
+  </si>
+  <si>
     <t>discount安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v1/getDiscount/</t>
   </si>
   <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"is_vip":"0"}}</t>
+  </si>
+  <si>
+    <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625050277', 'apiName': 'getDiscount', 'data': []}</t>
+  </si>
+  <si>
     <t>gallerylist安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v1/getGalleryList/</t>
   </si>
   <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}}</t>
+  </si>
+  <si>
+    <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625050277', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
+  </si>
+  <si>
     <t>featureconfig安卓接口正常访问</t>
   </si>
   <si>
     <t>/normalApi/v3/getFeatureConfig/</t>
   </si>
   <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"offset":"0"}}</t>
+  </si>
+  <si>
+    <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625050278', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F1ZlrSsZyI', 'picType': 1, 'picUnlockDate': 20210502, 'picVipUnlockDate': 20210426, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'INxP6NAqXGgPoxlB9PYo7Q==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI.npic?ver=INxP6NAqXGgPoxlB9PYo7Q=='}, 'picThumbnail': {'md5': '33KzG3ujN2Aq8cq+/xmbPw==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_thumbnail.png?ver=33KzG3ujN2Aq8cq+/xmbPw=='}, 'picColorImg': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ=='}, 'picFrameImg': {'md5': 'QL48JDe3qvw7WaFAZNyOmg==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_frame.png?ver=QL48JDe3qvw7WaFAZNyOmg=='}, 'picColorfulThumbnail': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DT8muj2m4t', 'picType': 1, 'picUnlockDate': 20210429, 'picVipUnlockDate': 20210423, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'G9YieephuTfXtzb0pDpOsw==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t.npic?ver=G9YieephuTfXtzb0pDpOsw=='}, 'picThumbnail': {'md5': 'Lp7x4FRVVVW1oQj9Pbpo4g==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_thumbnail.png?ver=Lp7x4FRVVVW1oQj9Pbpo4g=='}, 'picColorImg': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug=='}, 'picFrameImg': {'md5': 'Vj3t1S8EfA2Cjs8qgI1ImQ==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_frame.png?ver=Vj3t1S8EfA2Cjs8qgI1ImQ=='}, 'picColorfulThumbnail': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dL9IEu5mdA', 'picType': 1, 'picUnlockDate': 20210426, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iPUQH/c5Q8fSjL0yuoDJHw==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA.npic?ver=iPUQH/c5Q8fSjL0yuoDJHw=='}, 'picThumbnail': {'md5': '8xEHTCxBG+E2XZx1BOS6MA==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_thumbnail.png?ver=8xEHTCxBG+E2XZx1BOS6MA=='}, 'picColorImg': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ=='}, 'picFrameImg': {'md5': 'MtDf1hTSa8V8fnB6cY/w/Q==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_frame.png?ver=MtDf1hTSa8V8fnB6cY/w/Q=='}, 'picColorfulThumbnail': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4QztVd0nhZ', 'picType': 1, 'picUnlockDate': 20210423, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'ft8l3lmsL/i0yZIE8GISiQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ.npic?ver=ft8l3lmsL/i0yZIE8GISiQ=='}, 'picThumbnail': {'md5': '6X5t3W2HjfzVkW9DHB/NdA==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_thumbnail.png?ver=6X5t3W2HjfzVkW9DHB/NdA=='}, 'picColorImg': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg=='}, 'picFrameImg': {'md5': 'LUKinE29fhTLCnr0rswLYQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_frame.png?ver=LUKinE29fhTLCnr0rswLYQ=='}, 'picColorfulThumbnail': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__Vzeku00wK', 'picType': 1, 'picUnlockDate': 20210420, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000101, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'jelsk6RoyOJDdVsNHzZpKw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK.npic?ver=jelsk6RoyOJDdVsNHzZpKw=='}, 'picThumbnail': {'md5': '8ChlbKPC7IsFhUB6H93WbQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_thumbnail.png?ver=8ChlbKPC7IsFhUB6H93WbQ=='}, 'picColorImg': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw=='}, 'picFrameImg': {'md5': '9m5PNNoKQA7yywy5cLAZpQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_frame.png?ver=9m5PNNoKQA7yywy5cLAZpQ=='}, 'picColorfulThumbnail': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 13395, 'rowType': 'Books', 'titleKey': 'Happy Easter', 'descKey': 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!', 'rowOrder': 2100, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-13395/featrue-13395_WEp-5r9nMr.png?ver=2CFm7RT/kCVWe/bvn+vQWw==', 'detailPicMd5': '2CFm7RT/kCVWe/bvn+vQWw==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210329, 'expireDate': 23000430, 'authorHeadPicPath': 'color/1.0/feature/-13395/featrue-13395_VSEUPnrNX_.png?ver=8vSV7bHXXvE0H1YzQvBRxQ==', 'authorHeadPicMd5': '8vSV7bHXXvE0H1YzQvBRxQ==', 'authorName': 'Billie Leigh', 'showPicRow': 1, 'pics': [{'picName': 'pic_mKpXRwF4jS', 'picType': 1, 'picUnlockDate': 20210416, 'picVipUnlockDate': 20210410, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'xz/azZkvApB/a24OtnwifA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS.npic?ver=xz/azZkvApB/a24OtnwifA=='}, 'picThumbnail': {'md5': 'Pw8hRNxIkcHVZcxgqcOOfA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_thumbnail.png?ver=Pw8hRNxIkcHVZcxgqcOOfA=='}, 'picColorImg': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw=='}, 'picFrameImg': {'md5': 'XzhSdYrqC3Xe3n9L3bHkxw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_frame.png?ver=XzhSdYrqC3Xe3n9L3bHkxw=='}, 'picColorfulThumbnail': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_6VlkHuoN18', 'picType': 1, 'picUnlockDate': 20210414, 'picVipUnlockDate': 20210408, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': 'abtzIJMY/evj7mSGptO3sg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18.npic?ver=abtzIJMY/evj7mSGptO3sg=='}, 'picThumbnail': {'md5': 'PLoZqcIG15syIo3rC+qhKg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_thumbnail.png?ver=PLoZqcIG15syIo3rC+qhKg=='}, 'picColorImg': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g=='}, 'picFrameImg': {'md5': 'cHB6rz3n408AXTLmaD4sKA==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_frame.png?ver=cHB6rz3n408AXTLmaD4sKA=='}, 'picColorfulThumbnail': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_TIiNi44HLK', 'picType': 1, 'picUnlockDate': 20210412, 'picVipUnlockDate': 20210406, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'ss+EexaJUQUx8MeMCxsDeA==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK.npic?ver=ss+EexaJUQUx8MeMCxsDeA=='}, 'picThumbnail': {'md5': '3PlF4kwnyLJIeRlOkNYC9g==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_thumbnail.png?ver=3PlF4kwnyLJIeRlOkNYC9g=='}, 'picColorImg': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ=='}, 'picFrameImg': {'md5': 'w021gtl+Nn2hTkj1tvWW4w==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_frame.png?ver=w021gtl+Nn2hTkj1tvWW4w=='}, 'picColorfulThumbnail': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xkkCGhtY9K', 'picType': 1, 'picUnlockDate': 20210410, 'picVipUnlockDate': 20210404, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'F0RAaLoRyR3UJmWWyeXPoQ==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K.npic?ver=F0RAaLoRyR3UJmWWyeXPoQ=='}, 'picThumbnail': {'md5': 'rj+J13HmtkcN0fPNmyMVcw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_thumbnail.png?ver=rj+J13HmtkcN0fPNmyMVcw=='}, 'picColorImg': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw=='}, 'picFrameImg': {'md5': '3tZ04i3Kie6bVzLLfEMYJw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_frame.png?ver=3tZ04i3Kie6bVzLLfEMYJw=='}, 'picColorfulThumbnail': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_j3pk2DXXJi', 'picType': 1, 'picUnlockDate': 20210408, 'picVipUnlockDate': 20210402, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '9x7BWiq3Rg/moxIna24QGQ==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi.npic?ver=9x7BWiq3Rg/moxIna24QGQ=='}, 'picThumbnail': {'md5': '20CH0X9h31kxrAXeSv3L9g==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_thumbnail.png?ver=20CH0X9h31kxrAXeSv3L9g=='}, 'picColorImg': {'md5': 'e1yJB/X8l7taf2APcjx61A==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_color.jpg?ver=e1yJB/X8l7taf2APcjx61A=='}, 'picFrameImg': {'md5': 'LdqgPI2k2XOzYrLB7mdbvA==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_frame.png?ver=LdqgPI2k2XOzYrLB7mdbvA=='}, 'picColorfulThumbnail'</t>
+  </si>
+  <si>
+    <t>dailylist安卓接口正常访问</t>
+  </si>
+  <si>
     <t>/normalApi/v1/getDailyList/</t>
   </si>
   <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}}</t>
+  </si>
+  <si>
+    <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625050279', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
+  </si>
+  <si>
+    <t>newsconfig安卓接口正常访问</t>
+  </si>
+  <si>
     <t>/normalApi/v1/getNewsConfig/</t>
   </si>
   <si>
+    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63}}</t>
+  </si>
+  <si>
+    <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625050280', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 289567, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210629, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 289968, 'picId': '210629-XBujjYqhn.jpg', 'filePath': 'color/1.0/banners/210629/210629-XBujjYqhn.jpg', 'fileMd5': '6ENBaZWVtBgV4KoHt3YYDQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210629, 'expireDate': 20220629, 'deepLink': '989889275148348|tapcolor|https://www.facebook.com/329700151167267/posts/989889275148348/'}, {'eventId': 289967, 'picId': '210628-qyr_0KmCc.png', 'filePath': 'color/1.0/banners/210628/210628-qyr_0KmCc.png', 'fileMd5': 'ccX6/PPhJmoQRDmK1gA0/g==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210628, 'expireDate': 20220628, 'deepLink': '989236978546911|tapcolor|https://www.facebook.com/329700151167267/posts/989236978546911/'}, {'eventId': 289966, 'picId': '210625-CU3wURQlU.png', 'filePath': 'color/1.0/banners/210625/210625-CU3wURQlU.png', 'fileMd5': 'c1m4A0W8kDmC23NmGrSsBA==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '987338545403421|tapcolor|https://www.facebook.com/329700151167267/posts/987338545403421/'}, {'eventId': 289965, 'picId': '210625-G_nd8oCnG.jpg', 'filePath': 'color/1.0/banners/210625/210625-G_nd8oCnG.jpg', 'fileMd5': 'iPAvLJKmEdYTfJEYyDjJ3Q==', 'title': 'Vote For The Best', 'desc': 'Which one is the winner for you?', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '352863272922064|tapcolor|https://www.facebook.com/329700151167267/posts/352863272922064/'}, {'eventId': 289964, 'picId': '210625-zgjlpn39J.png', 'filePath': 'color/1.0/banners/210625/210625-zgjlpn39J.png', 'fileMd5': '6xeyugg1ETB9fmvtLq070A==', 'title': 'Count And Share', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210625, 'expireDate': 20220625, 'deepLink': '4781544051860809|tapcolor|https://www.facebook.com/329700151167267/posts/4781544051860809/'}, {'eventId': 289963, 'picId': '210624-wi6BHP2Yl.png', 'filePath': 'color/1.0/banners/210624/210624-wi6BHP2Yl.png', 'fileMd5': 'Wa3xuF0iA3VDsqAIGfwpzw==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210624, 'expireDate': 20220624, 'deepLink': '986839128786696|tapcolor|https://www.facebook.com/329700151167267/posts/986839128786696/'}]}}</t>
+  </si>
+  <si>
     <t>"</t>
   </si>
   <si>
@@ -198,122 +327,6 @@
   </si>
   <si>
     <t>reward_lock_pictures_status</t>
-  </si>
-  <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": {},"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"is_vip":"0"}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"offset":"0"}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": {},"game_actDay":1,"group_id":63}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Precondition</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>newsconfig安卓接口正常访问</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>dailylist安卓接口正常访问</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>no</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>yes</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type": "Android", "game_ver": "6", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner安卓接口game_ver参数异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner安卓接口os_type参数异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner安卓接口register_date参数异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner安卓接口game_date参数异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner安卓接口game_actDay参数异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>banner安卓接口group_id参数异常</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 12345}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "2021-06-17","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type": "An", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "12","game_actDay": 1, "group_id": 55}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay":"" , "group_id": 55}}</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>Expected_Method</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorMsg</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>errorCode</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>-1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -449,7 +462,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -458,7 +471,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -467,7 +480,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -485,7 +497,7 @@
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -495,6 +507,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -772,9 +788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -787,8 +803,11 @@
     <col min="6" max="6" width="8.875" style="3" customWidth="1"/>
     <col min="7" max="7" width="94" style="3" customWidth="1"/>
     <col min="8" max="8" width="35.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="39" style="3"/>
+    <col min="9" max="9" width="15.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="39" style="3" customWidth="1"/>
+    <col min="11" max="11" width="44.75" style="3" customWidth="1"/>
+    <col min="12" max="13" width="39" style="3" customWidth="1"/>
+    <col min="14" max="16384" width="39" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -801,233 +820,305 @@
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="9" t="s">
-        <v>67</v>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I1" s="13" t="s">
         <v>6</v>
       </c>
+      <c r="H1" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>71</v>
+        <v>11</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="H2" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="I2" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>71</v>
+      <c r="B3" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="7" t="s">
-        <v>72</v>
-      </c>
-      <c r="H3" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="14"/>
+      <c r="J3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="10" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>71</v>
+      <c r="B4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="H4" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="14"/>
+      <c r="J4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>71</v>
+      <c r="B5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" s="14"/>
+      <c r="J5" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" s="10" t="s">
-        <v>71</v>
+      <c r="B6" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="14"/>
+      <c r="J6" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>71</v>
+      <c r="B7" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="H7" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="42.75" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" s="14"/>
+      <c r="J7" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>71</v>
+      <c r="B8" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H8" s="8" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G8" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="14"/>
+      <c r="J8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="E9" s="3" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.5" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="G9" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K9" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C10" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="G10" s="5" t="s">
-        <v>60</v>
+        <v>45</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K10" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1035,19 +1126,31 @@
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="H11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E11" s="3" t="s">
+      <c r="I11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G11" s="5" t="s">
-        <v>61</v>
+      <c r="J11" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K11" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1055,19 +1158,31 @@
         <v>11</v>
       </c>
       <c r="B12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C12" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" s="5" t="s">
-        <v>62</v>
+      <c r="K12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1075,59 +1190,95 @@
         <v>12</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>21</v>
+        <v>56</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>63</v>
+        <v>57</v>
+      </c>
+      <c r="H13" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>70</v>
+      <c r="B14" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>22</v>
+        <v>60</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="H14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K14" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>70</v>
+      <c r="B15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>23</v>
+        <v>64</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>65</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
@@ -1136,7 +1287,7 @@
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
@@ -1155,84 +1306,84 @@
     <col min="14" max="14" width="10.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="H1" t="str">
-        <f>A1&amp;F1&amp;A1&amp;B1&amp;A1&amp;G1&amp;A1</f>
+        <f t="shared" ref="H1:H20" si="0">A1&amp;F1&amp;A1&amp;B1&amp;A1&amp;G1&amp;A1</f>
         <v>"app_version":"2.9.1"</v>
       </c>
-      <c r="N1" s="6">
+      <c r="N1" s="15">
         <v>43849</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="H2" t="str">
-        <f t="shared" ref="H2:H20" si="0">A2&amp;F2&amp;A2&amp;B2&amp;A2&amp;G2&amp;A2</f>
+        <f t="shared" si="0"/>
         <v>"package_name":"com.pixel.art.coloring.color.number"</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B3" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E3" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
@@ -1241,22 +1392,22 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E4" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
       <c r="G4" s="1">
         <v>22</v>
@@ -1266,51 +1417,51 @@
         <v>"os_version":"22"</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D5" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
         <v>"user_id":"c6c9feb7-d8ea-4d8f-a943-379cb34ee6f1"</v>
       </c>
     </row>
-    <row r="6" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>38</v>
+        <v>81</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1320,27 +1471,27 @@
         <v>"limit_tracking":"0"</v>
       </c>
     </row>
-    <row r="7" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D7" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E7" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>39</v>
+        <v>82</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>83</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -1349,22 +1500,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E8" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="G8" s="1">
         <v>8</v>
@@ -1374,27 +1525,27 @@
         <v>"utc":"8"</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C9" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E9" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1403,25 +1554,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C10" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D10" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1430,25 +1581,25 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C11" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D11" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E11" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>89</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1457,25 +1608,25 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E12" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="G12" t="s">
-        <v>49</v>
+        <v>92</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1484,25 +1635,25 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D13" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E13" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="G13" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1511,22 +1662,22 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C14" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D14" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F14" t="s">
-        <v>52</v>
+        <v>95</v>
       </c>
       <c r="G14">
         <v>1624285846</v>
@@ -1538,22 +1689,22 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B15" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C15" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>96</v>
       </c>
       <c r="G15">
         <v>1623750414</v>
@@ -1565,22 +1716,22 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C16" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D16" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>97</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1592,22 +1743,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B17" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E17" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>98</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1619,22 +1770,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C18" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D18" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E18" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>99</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1646,22 +1797,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E19" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F19" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1673,22 +1824,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="D20" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1700,71 +1851,71 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B24" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B25" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B27" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xt875\Documents\ToolSuit\ColorInterfaceRefactor\Case\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D8805B-E616-47B5-95F2-7A13216A7D36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C62BFBC3-33ED-42E8-AEB9-9E828E84201E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="118">
   <si>
     <t>Case_ID</t>
   </si>
@@ -86,9 +86,6 @@
     <t>banner安卓接口game_ver参数异常</t>
   </si>
   <si>
-    <t>{{"os_type": "Android", "game_ver": "6", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
-  </si>
-  <si>
     <t>errorMsg</t>
   </si>
   <si>
@@ -98,45 +95,30 @@
     <t>banner安卓接口os_type参数异常</t>
   </si>
   <si>
-    <t>{{"os_type": "An", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
-  </si>
-  <si>
     <t>{'error_code': 666, 'error_msg': 'path: os_type, error: os_type must be either Android, Ios, Mac or Windows.'}</t>
   </si>
   <si>
     <t>banner安卓接口register_date参数异常</t>
   </si>
   <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "2021-06-17","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
-  </si>
-  <si>
     <t>{'error_code': 666, 'error_msg': 'path: register_date, error: register_date must have a length between 8 and 8.'}</t>
   </si>
   <si>
     <t>banner安卓接口game_actDay参数异常</t>
   </si>
   <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay":"" , "group_id": 55}}</t>
-  </si>
-  <si>
     <t>{'error_code': 666, 'error_msg': 'path: game_actDay, error: game_actDay is required.'}</t>
   </si>
   <si>
     <t>banner安卓接口group_id参数异常</t>
   </si>
   <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 12345}}</t>
-  </si>
-  <si>
     <t>{'error_code': 666, 'error_msg': 'path: group_id, error: group_id must have a length between 1 and 3.'}</t>
   </si>
   <si>
     <t>banner安卓接口game_date参数异常</t>
   </si>
   <si>
-    <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "12","game_actDay": 1, "group_id": 55}}</t>
-  </si>
-  <si>
     <t>{'error_code': 666, 'error_msg': 'path: game_date, error: game_date must have a length between 8 and 8.'}</t>
   </si>
   <si>
@@ -327,6 +309,219 @@
   </si>
   <si>
     <t>reward_lock_pictures_status</t>
+  </si>
+  <si>
+    <t>color_1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>color_2</t>
+  </si>
+  <si>
+    <t>color_3</t>
+  </si>
+  <si>
+    <t>color_4</t>
+  </si>
+  <si>
+    <t>color_5</t>
+  </si>
+  <si>
+    <t>color_6</t>
+  </si>
+  <si>
+    <t>color_7</t>
+  </si>
+  <si>
+    <t>color_8</t>
+  </si>
+  <si>
+    <t>color_9</t>
+  </si>
+  <si>
+    <t>color_10</t>
+  </si>
+  <si>
+    <t>color_11</t>
+  </si>
+  <si>
+    <t>color_12</t>
+  </si>
+  <si>
+    <t>color_13</t>
+  </si>
+  <si>
+    <t>color_14</t>
+  </si>
+  <si>
+    <t>color_1&gt;data.bannerList.[0].bannerType</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{{"os_type": "Android", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"game_ver": "6"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>os_type": "An"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"register_date": "2021-06-17"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"game_date": "{}","game_actDay": 1, "group_id": 55}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"game_actDay":""</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> , "group_id": 55}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "{}","game_actDay": 1, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"group_id": 12345</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>{{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617",</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>"game_date": "12"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,"game_actDay": 1, "group_id": 55}}</t>
+    </r>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>Depend_key</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -336,7 +531,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyymmdd"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -415,6 +610,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -786,11 +989,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J13" sqref="J13"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -798,19 +1001,19 @@
     <col min="1" max="1" width="8.5" style="3" customWidth="1"/>
     <col min="2" max="2" width="16.125" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5" style="3" customWidth="1"/>
-    <col min="4" max="4" width="13.875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="31.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="94" style="3" customWidth="1"/>
-    <col min="8" max="8" width="35.5" style="3" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="39" style="3" customWidth="1"/>
-    <col min="11" max="11" width="44.75" style="3" customWidth="1"/>
-    <col min="12" max="13" width="39" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="39" style="3"/>
+    <col min="4" max="5" width="13.875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="31.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="8.875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="94" style="3" customWidth="1"/>
+    <col min="9" max="9" width="35.5" style="3" customWidth="1"/>
+    <col min="10" max="10" width="15.625" style="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39" style="3" customWidth="1"/>
+    <col min="12" max="12" width="44.75" style="3" customWidth="1"/>
+    <col min="13" max="14" width="39" style="3" customWidth="1"/>
+    <col min="15" max="16384" width="39" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -823,31 +1026,34 @@
       <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
+    <row r="2" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>11</v>
@@ -855,439 +1061,443 @@
       <c r="C2" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="I2" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="J2" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="3">
-        <v>2</v>
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>97</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="3" t="s">
+      <c r="C3" s="9">
+        <v>0</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="H3" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="3" t="s">
+    </row>
+    <row r="4" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>23</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>24</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="H4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="I4" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="14"/>
+      <c r="K4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>25</v>
-      </c>
-      <c r="H4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" s="14"/>
-      <c r="J4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>27</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="G5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="14"/>
-      <c r="J5" s="3" t="s">
+      <c r="H5" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="14"/>
+      <c r="K5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K5" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
-        <v>5</v>
+      <c r="L5" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>100</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="G6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I6" s="14"/>
-      <c r="J6" s="3" t="s">
+      <c r="H6" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="14"/>
+      <c r="K6" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K6" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
-        <v>6</v>
+      <c r="L6" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>101</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="G7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G7" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="H7" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I7" s="14"/>
-      <c r="J7" s="3" t="s">
+      <c r="H7" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="14"/>
+      <c r="K7" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
-        <v>7</v>
+      <c r="L7" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="42.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>102</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="G8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G8" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" s="14"/>
-      <c r="J8" s="3" t="s">
+      <c r="H8" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="J8" s="14"/>
+      <c r="K8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
-        <v>8</v>
+      <c r="L8" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>103</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="F9" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="H9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="13" t="s">
+      <c r="J9" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="K9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K9" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
-        <v>9</v>
+      <c r="L9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>104</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C10" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>44</v>
-      </c>
       <c r="F10" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="G10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="13" t="s">
+      <c r="J10" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="K10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
-        <v>10</v>
+      <c r="L10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>105</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C11" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>48</v>
-      </c>
       <c r="F11" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="G11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I11" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="13" t="s">
+      <c r="J11" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="K11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
-        <v>11</v>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>106</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C12" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
       <c r="F12" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="H12" s="7" t="s">
+      <c r="H12" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I12" s="13" t="s">
+      <c r="J12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
-        <v>12</v>
+      <c r="L12" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>107</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C13" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E13" s="3" t="s">
-        <v>56</v>
-      </c>
       <c r="F13" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="G13" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="7" t="s">
+      <c r="H13" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="13" t="s">
+      <c r="J13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K13" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
+      <c r="L13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>108</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C14" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>60</v>
-      </c>
       <c r="F14" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G14" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="H14" s="7" t="s">
+      <c r="H14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I14" s="13" t="s">
+      <c r="J14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K14" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
-        <v>14</v>
+      <c r="L14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>109</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C15" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="E15" s="3" t="s">
-        <v>64</v>
-      </c>
       <c r="F15" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H15" s="7" t="s">
+      <c r="H15" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="I15" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="I15" s="13" t="s">
+      <c r="J15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="J15" s="3" t="s">
+      <c r="K15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="K15" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="G16" s="4"/>
+      <c r="L15" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1308,25 +1518,25 @@
   <sheetData>
     <row r="1" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="B1" t="s">
-        <v>68</v>
-      </c>
-      <c r="C1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E1" t="s">
-        <v>71</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="H1" t="str">
         <f t="shared" ref="H1:H20" si="0">A1&amp;F1&amp;A1&amp;B1&amp;A1&amp;G1&amp;A1</f>
@@ -1338,25 +1548,25 @@
     </row>
     <row r="2" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="C2" t="s">
+      <c r="G2" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="D2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" t="s">
-        <v>71</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="H2" t="str">
         <f t="shared" si="0"/>
@@ -1365,25 +1575,25 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C3" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="H3" t="str">
         <f t="shared" si="0"/>
@@ -1392,22 +1602,22 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="G4" s="1">
         <v>22</v>
@@ -1419,25 +1629,25 @@
     </row>
     <row r="5" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C5" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="0"/>
@@ -1446,22 +1656,22 @@
     </row>
     <row r="6" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C6" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -1473,25 +1683,25 @@
     </row>
     <row r="7" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B7" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="0"/>
@@ -1500,22 +1710,22 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="G8" s="1">
         <v>8</v>
@@ -1527,25 +1737,25 @@
     </row>
     <row r="9" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B9" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E9" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="0"/>
@@ -1554,25 +1764,25 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B10" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C10" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D10" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G10" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="0"/>
@@ -1581,25 +1791,25 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F11" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="G11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="0"/>
@@ -1608,25 +1818,25 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C12" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="G12" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="0"/>
@@ -1635,25 +1845,25 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C13" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D13" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E13" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F13" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="0"/>
@@ -1662,22 +1872,22 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C14" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E14" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="G14">
         <v>1624285846</v>
@@ -1689,22 +1899,22 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B15" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C15" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E15" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="G15">
         <v>1623750414</v>
@@ -1716,22 +1926,22 @@
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B16" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C16" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D16" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E16" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="G16">
         <v>1</v>
@@ -1743,22 +1953,22 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B17" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D17" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E17" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="G17">
         <v>2</v>
@@ -1770,22 +1980,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G18">
         <v>2</v>
@@ -1797,22 +2007,22 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C19" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E19" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1824,22 +2034,22 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="C20" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="G20">
         <v>2</v>
@@ -1851,66 +2061,66 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B25" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -681,7 +681,7 @@
       </c>
       <c r="L2" s="3" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625139066', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]'}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]'}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}]}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140848', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': '991242701679672|tapcolor|https://www.facebook.com/329700151167267/posts/991242701679672/', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210701-nhfrSVPOy.png', 'picUrl': 'color/1.0/banners/210701/210701-nhfrSVPOy.png?ver=nkADiUScy9kHCCHGR2e9Zg==', 'picMd5': 'nkADiUScy9kHCCHGR2e9Zg==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20210701, 'expireDate': 20210703, 'minVersion': 40000, 'platform': '["Android", "Ios"]'}, {'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]'}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]'}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}]}}</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1021,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625139070', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不'}, 'version': '1624629399'}, 'apiName': 'getLanguage'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140852', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不'}, 'version': '1624629399'}, 'apiName': 'getLanguage'}</t>
         </is>
       </c>
     </row>
@@ -1073,7 +1073,7 @@
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625139071', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B"}'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140852', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B"}'}</t>
         </is>
       </c>
     </row>
@@ -1125,7 +1125,7 @@
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625139072', 'apiName': 'getDiscount', 'data': []}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140853', 'apiName': 'getDiscount', 'data': []}</t>
         </is>
       </c>
     </row>
@@ -1177,7 +1177,7 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625139072', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140854', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
         </is>
       </c>
     </row>
@@ -1229,7 +1229,7 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625139073', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F1ZlrSsZyI', 'picType': 1, 'picUnlockDate': 20210502, 'picVipUnlockDate': 20210426, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'INxP6NAqXGgPoxlB9PYo7Q==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI.npic?ver=INxP6NAqXGgPoxlB9PYo7Q=='}, 'picThumbnail': {'md5': '33KzG3ujN2Aq8cq+/xmbPw==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_thumbnail.png?ver=33KzG3ujN2Aq8cq+/xmbPw=='}, 'picColorImg': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ=='}, 'picFrameImg': {'md5': 'QL48JDe3qvw7WaFAZNyOmg==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_frame.png?ver=QL48JDe3qvw7WaFAZNyOmg=='}, 'picColorfulThumbnail': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DT8muj2m4t', 'picType': 1, 'picUnlockDate': 20210429, 'picVipUnlockDate': 20210423, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'G9YieephuTfXtzb0pDpOsw==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t.npic?ver=G9YieephuTfXtzb0pDpOsw=='}, 'picThumbnail': {'md5': 'Lp7x4FRVVVW1oQj9Pbpo4g==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_thumbnail.png?ver=Lp7x4FRVVVW1oQj9Pbpo4g=='}, 'picColorImg': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug=='}, 'picFrameImg': {'md5': 'Vj3t1S8EfA2Cjs8qgI1ImQ==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_frame.png?ver=Vj3t1S8EfA2Cjs8qgI1ImQ=='}, 'picColorfulThumbnail': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dL9IEu5mdA', 'picType': 1, 'picUnlockDate': 20210426, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iPUQH/c5Q8fSjL0yuoDJHw==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA.npic?ver=iPUQH/c5Q8fSjL0yuoDJHw=='}, 'picThumbnail': {'md5': '8xEHTCxBG+E2XZx1BOS6MA==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_thumbnail.png?ver=8xEHTCxBG+E2XZx1BOS6MA=='}, 'picColorImg': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ=='}, 'picFrameImg': {'md5': 'MtDf1hTSa8V8fnB6cY/w/Q==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_frame.png?ver=MtDf1hTSa8V8fnB6cY/w/Q=='}, 'picColorfulThumbnail': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4QztVd0nhZ', 'picType': 1, 'picUnlockDate': 20210423, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'ft8l3lmsL/i0yZIE8GISiQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ.npic?ver=ft8l3lmsL/i0yZIE8GISiQ=='}, 'picThumbnail': {'md5': '6X5t3W2HjfzVkW9DHB/NdA==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_thumbnail.png?ver=6X5t3W2HjfzVkW9DHB/NdA=='}, 'picColorImg': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg=='}, 'picFrameImg': {'md5': 'LUKinE29fhTLCnr0rswLYQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_frame.png?ver=LUKinE29fhTLCnr0rswLYQ=='}, 'picColorfulThumbnail': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__Vzeku00wK', 'picType': 1, 'picUnlockDate': 20210420, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000101, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'jelsk6RoyOJDdVsNHzZpKw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK.npic?ver=jelsk6RoyOJDdVsNHzZpKw=='}, 'picThumbnail': {'md5': '8ChlbKPC7IsFhUB6H93WbQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_thumbnail.png?ver=8ChlbKPC7IsFhUB6H93WbQ=='}, 'picColorImg': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw=='}, 'picFrameImg': {'md5': '9m5PNNoKQA7yywy5cLAZpQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_frame.png?ver=9m5PNNoKQA7yywy5cLAZpQ=='}, 'picColorfulThumbnail': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 13395, 'rowType': 'Books', 'titleKey': 'Happy Easter', 'descKey': 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!', 'rowOrder': 2100, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-13395/featrue-13395_WEp-5r9nMr.png?ver=2CFm7RT/kCVWe/bvn+vQWw==', 'detailPicMd5': '2CFm7RT/kCVWe/bvn+vQWw==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210329, 'expireDate': 23000430, 'authorHeadPicPath': 'color/1.0/feature/-13395/featrue-13395_VSEUPnrNX_.png?ver=8vSV7bHXXvE0H1YzQvBRxQ==', 'authorHeadPicMd5': '8vSV7bHXXvE0H1YzQvBRxQ==', 'authorName': 'Billie Leigh', 'showPicRow': 1, 'pics': [{'picName': 'pic_mKpXRwF4jS', 'picType': 1, 'picUnlockDate': 20210416, 'picVipUnlockDate': 20210410, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'xz/azZkvApB/a24OtnwifA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS.npic?ver=xz/azZkvApB/a24OtnwifA=='}, 'picThumbnail': {'md5': 'Pw8hRNxIkcHVZcxgqcOOfA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_thumbnail.png?ver=Pw8hRNxIkcHVZcxgqcOOfA=='}, 'picColorImg': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw=='}, 'picFrameImg': {'md5': 'XzhSdYrqC3Xe3n9L3bHkxw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_frame.png?ver=XzhSdYrqC3Xe3n9L3bHkxw=='}, 'picColorfulThumbnail': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_6VlkHuoN18', 'picType': 1, 'picUnlockDate': 20210414, 'picVipUnlockDate': 20210408, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': 'abtzIJMY/evj7mSGptO3sg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18.npic?ver=abtzIJMY/evj7mSGptO3sg=='}, 'picThumbnail': {'md5': 'PLoZqcIG15syIo3rC+qhKg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_thumbnail.png?ver=PLoZqcIG15syIo3rC+qhKg=='}, 'picColorImg': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g=='}, 'picFrameImg': {'md5': 'cHB6rz3n408AXTLmaD4sKA==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_frame.png?ver=cHB6rz3n408AXTLmaD4sKA=='}, 'picColorfulThumbnail': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_TIiNi44HLK', 'picType': 1, 'picUnlockDate': 20210412, 'picVipUnlockDate': 20210406, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'ss+EexaJUQUx8MeMCxsDeA==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK.npic?ver=ss+EexaJUQUx8MeMCxsDeA=='}, 'picThumbnail': {'md5': '3PlF4kwnyLJIeRlOkNYC9g==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_thumbnail.png?ver=3PlF4kwnyLJIeRlOkNYC9g=='}, 'picColorImg': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ=='}, 'picFrameImg': {'md5': 'w021gtl+Nn2hTkj1tvWW4w==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_frame.png?ver=w021gtl+Nn2hTkj1tvWW4w=='}, 'picColorfulThumbnail': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xkkCGhtY9K', 'picType': 1, 'picUnlockDate': 20210410, 'picVipUnlockDate': 20210404, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'F0RAaLoRyR3UJmWWyeXPoQ==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K.npic?ver=F0RAaLoRyR3UJmWWyeXPoQ=='}, 'picThumbnail': {'md5': 'rj+J13HmtkcN0fPNmyMVcw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_thumbnail.png?ver=rj+J13HmtkcN0fPNmyMVcw=='}, 'picColorImg': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw=='}, 'picFrameImg': {'md5': '3tZ04i3Kie6bVzLLfEMYJw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_frame.png?ver=3tZ04i3Kie6bVzLLfEMYJw=='}, 'picColorfulThumbnail': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_j3pk2DXXJi', 'picType': 1, 'picUnlockDate': 20210408, 'picVipUnlockDate': 20210402, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '9x7BWiq3Rg/moxIna24QGQ==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi.npic?ver=9x7BWiq3Rg/moxIna24QGQ=='}, 'picThumbnail': {'md5': '20CH0X9h31kxrAXeSv3L9g==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_thumbnail.png?ver=20CH0X9h31kxrAXeSv3L9g=='}, 'picColorImg': {'md5': 'e1yJB/X8l7taf2APcjx61A==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_color.jpg?ver=e1yJB/X8l7taf2APcjx61A=='}, 'picFrameImg': {'md5': 'LdqgPI2k2XOzYrLB7mdbvA==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_frame.png?ver=LdqgPI2k2XOzYrLB7mdbvA=='}, 'picColorfulThumbnail'</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140854', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F1ZlrSsZyI', 'picType': 1, 'picUnlockDate': 20210502, 'picVipUnlockDate': 20210426, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'INxP6NAqXGgPoxlB9PYo7Q==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI.npic?ver=INxP6NAqXGgPoxlB9PYo7Q=='}, 'picThumbnail': {'md5': '33KzG3ujN2Aq8cq+/xmbPw==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_thumbnail.png?ver=33KzG3ujN2Aq8cq+/xmbPw=='}, 'picColorImg': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ=='}, 'picFrameImg': {'md5': 'QL48JDe3qvw7WaFAZNyOmg==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_frame.png?ver=QL48JDe3qvw7WaFAZNyOmg=='}, 'picColorfulThumbnail': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DT8muj2m4t', 'picType': 1, 'picUnlockDate': 20210429, 'picVipUnlockDate': 20210423, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'G9YieephuTfXtzb0pDpOsw==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t.npic?ver=G9YieephuTfXtzb0pDpOsw=='}, 'picThumbnail': {'md5': 'Lp7x4FRVVVW1oQj9Pbpo4g==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_thumbnail.png?ver=Lp7x4FRVVVW1oQj9Pbpo4g=='}, 'picColorImg': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug=='}, 'picFrameImg': {'md5': 'Vj3t1S8EfA2Cjs8qgI1ImQ==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_frame.png?ver=Vj3t1S8EfA2Cjs8qgI1ImQ=='}, 'picColorfulThumbnail': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dL9IEu5mdA', 'picType': 1, 'picUnlockDate': 20210426, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iPUQH/c5Q8fSjL0yuoDJHw==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA.npic?ver=iPUQH/c5Q8fSjL0yuoDJHw=='}, 'picThumbnail': {'md5': '8xEHTCxBG+E2XZx1BOS6MA==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_thumbnail.png?ver=8xEHTCxBG+E2XZx1BOS6MA=='}, 'picColorImg': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ=='}, 'picFrameImg': {'md5': 'MtDf1hTSa8V8fnB6cY/w/Q==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_frame.png?ver=MtDf1hTSa8V8fnB6cY/w/Q=='}, 'picColorfulThumbnail': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4QztVd0nhZ', 'picType': 1, 'picUnlockDate': 20210423, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'ft8l3lmsL/i0yZIE8GISiQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ.npic?ver=ft8l3lmsL/i0yZIE8GISiQ=='}, 'picThumbnail': {'md5': '6X5t3W2HjfzVkW9DHB/NdA==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_thumbnail.png?ver=6X5t3W2HjfzVkW9DHB/NdA=='}, 'picColorImg': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg=='}, 'picFrameImg': {'md5': 'LUKinE29fhTLCnr0rswLYQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_frame.png?ver=LUKinE29fhTLCnr0rswLYQ=='}, 'picColorfulThumbnail': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__Vzeku00wK', 'picType': 1, 'picUnlockDate': 20210420, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000101, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'jelsk6RoyOJDdVsNHzZpKw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK.npic?ver=jelsk6RoyOJDdVsNHzZpKw=='}, 'picThumbnail': {'md5': '8ChlbKPC7IsFhUB6H93WbQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_thumbnail.png?ver=8ChlbKPC7IsFhUB6H93WbQ=='}, 'picColorImg': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw=='}, 'picFrameImg': {'md5': '9m5PNNoKQA7yywy5cLAZpQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_frame.png?ver=9m5PNNoKQA7yywy5cLAZpQ=='}, 'picColorfulThumbnail': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 13395, 'rowType': 'Books', 'titleKey': 'Happy Easter', 'descKey': 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!', 'rowOrder': 2100, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-13395/featrue-13395_WEp-5r9nMr.png?ver=2CFm7RT/kCVWe/bvn+vQWw==', 'detailPicMd5': '2CFm7RT/kCVWe/bvn+vQWw==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210329, 'expireDate': 23000430, 'authorHeadPicPath': 'color/1.0/feature/-13395/featrue-13395_VSEUPnrNX_.png?ver=8vSV7bHXXvE0H1YzQvBRxQ==', 'authorHeadPicMd5': '8vSV7bHXXvE0H1YzQvBRxQ==', 'authorName': 'Billie Leigh', 'showPicRow': 1, 'pics': [{'picName': 'pic_mKpXRwF4jS', 'picType': 1, 'picUnlockDate': 20210416, 'picVipUnlockDate': 20210410, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'xz/azZkvApB/a24OtnwifA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS.npic?ver=xz/azZkvApB/a24OtnwifA=='}, 'picThumbnail': {'md5': 'Pw8hRNxIkcHVZcxgqcOOfA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_thumbnail.png?ver=Pw8hRNxIkcHVZcxgqcOOfA=='}, 'picColorImg': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw=='}, 'picFrameImg': {'md5': 'XzhSdYrqC3Xe3n9L3bHkxw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_frame.png?ver=XzhSdYrqC3Xe3n9L3bHkxw=='}, 'picColorfulThumbnail': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_6VlkHuoN18', 'picType': 1, 'picUnlockDate': 20210414, 'picVipUnlockDate': 20210408, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': 'abtzIJMY/evj7mSGptO3sg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18.npic?ver=abtzIJMY/evj7mSGptO3sg=='}, 'picThumbnail': {'md5': 'PLoZqcIG15syIo3rC+qhKg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_thumbnail.png?ver=PLoZqcIG15syIo3rC+qhKg=='}, 'picColorImg': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g=='}, 'picFrameImg': {'md5': 'cHB6rz3n408AXTLmaD4sKA==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_frame.png?ver=cHB6rz3n408AXTLmaD4sKA=='}, 'picColorfulThumbnail': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_TIiNi44HLK', 'picType': 1, 'picUnlockDate': 20210412, 'picVipUnlockDate': 20210406, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'ss+EexaJUQUx8MeMCxsDeA==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK.npic?ver=ss+EexaJUQUx8MeMCxsDeA=='}, 'picThumbnail': {'md5': '3PlF4kwnyLJIeRlOkNYC9g==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_thumbnail.png?ver=3PlF4kwnyLJIeRlOkNYC9g=='}, 'picColorImg': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ=='}, 'picFrameImg': {'md5': 'w021gtl+Nn2hTkj1tvWW4w==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_frame.png?ver=w021gtl+Nn2hTkj1tvWW4w=='}, 'picColorfulThumbnail': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xkkCGhtY9K', 'picType': 1, 'picUnlockDate': 20210410, 'picVipUnlockDate': 20210404, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'F0RAaLoRyR3UJmWWyeXPoQ==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K.npic?ver=F0RAaLoRyR3UJmWWyeXPoQ=='}, 'picThumbnail': {'md5': 'rj+J13HmtkcN0fPNmyMVcw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_thumbnail.png?ver=rj+J13HmtkcN0fPNmyMVcw=='}, 'picColorImg': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw=='}, 'picFrameImg': {'md5': '3tZ04i3Kie6bVzLLfEMYJw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_frame.png?ver=3tZ04i3Kie6bVzLLfEMYJw=='}, 'picColorfulThumbnail': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_j3pk2DXXJi', 'picType': 1, 'picUnlockDate': 20210408, 'picVipUnlockDate': 20210402, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '9x7BWiq3Rg/moxIna24QGQ==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi.npic?ver=9x7BWiq3Rg/moxIna24QGQ=='}, 'picThumbnail': {'md5': '20CH0X9h31kxrAXeSv3L9g==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_thumbnail.png?ver=20CH0X9h31kxrAXeSv3L9g=='}, 'picColorImg': {'md5': 'e1yJB/X8l7taf2APcjx61A==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_color.jpg?ver=e1yJB/X8l7taf2APcjx61A=='}, 'picFrameImg': {'md5': 'LdqgPI2k2XOzYrLB7mdbvA==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_frame.png?ver=LdqgPI2k2XOzYrLB7mdbvA=='}, 'picColorfulThumbnail'</t>
         </is>
       </c>
     </row>
@@ -1281,7 +1281,7 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625139074', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140855', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
         </is>
       </c>
     </row>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625139075', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 290591, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210630, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 290993, 'picId': '210630-X21kphz3e.png', 'filePath': 'color/1.0/banners/210630/210630-X21kphz3e.png', 'fileMd5': 'PVLKPfywLlnM2uUa4PHSwA==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210630, 'expireDate': 20220630, 'deepLink': '990601145077161|tapcolor|https://www.facebook.com/329700151167267/posts/990601145077161/'}, {'eventId': 290992, 'picId': '210629-XBujjYqhn.jpg', 'filePath': 'color/1.0/banners/210629/210629-XBujjYqhn.jpg', 'fileMd5': '6ENBaZWVtBgV4KoHt3YYDQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210629, 'expireDate': 20220629, 'deepLink': '989889275148348|tapcolor|https://www.facebook.com/329700151167267/posts/989889275148348/'}, {'eventId': 290991, 'picId': '210628-qyr_0KmCc.png', 'filePath': 'color/1.0/banners/210628/210628-qyr_0KmCc.png', 'fileMd5': 'ccX6/PPhJmoQRDmK1gA0/g==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210628, 'expireDate': 20220628, 'deepLink': '989236978546911|tapcolor|https://www.facebook.com/329700151167267/posts/989236978546911/'}, {'eventId': 290990, 'picId': '210625-CU3wURQlU.png', 'filePath': 'color/1.0/banners/210625/210625-CU3wURQlU.png', 'fileMd5': 'c1m4A0W8kDmC23NmGrSsBA==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '987338545403421|tapcolor|https://www.facebook.com/329700151167267/posts/987338545403421/'}, {'eventId': 290989, 'picId': '210625-G_nd8oCnG.jpg', 'filePath': 'color/1.0/banners/210625/210625-G_nd8oCnG.jpg', 'fileMd5': 'iPAvLJKmEdYTfJEYyDjJ3Q==', 'title': 'Vote For The Best', 'desc': 'Which one is the winner for you?', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '352863272922064|tapcolor|https://www.facebook.com/329700151167267/posts/352863272922064/'}, {'eventId': 290988, 'picId': '210625-zgjlpn39J.png', 'filePath': 'color/1.0/banners/210625/210625-zgjlpn39J.png', 'fileMd5': '6xeyugg1ETB9fmvtLq070A==', 'title': 'Count And Share', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210625, 'expireDate': 20220625, 'deepLink': '4781544051860809|tapcolor|https://www.facebook.com/329700151167267/posts/4781544051860809/'}]}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140856', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 291615, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210701, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 292018, 'picId': '210701-f7nyRV70T.png', 'filePath': 'color/1.0/banners/210701/210701-f7nyRV70T.png', 'fileMd5': 'lUzmHaRU1WAE5GJ2KmuFGg==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210701, 'expireDate': 20220701, 'deepLink': '991242701679672|tapcolor|https://www.facebook.com/329700151167267/posts/991242701679672/'}, {'eventId': 292017, 'picId': '210630-X21kphz3e.png', 'filePath': 'color/1.0/banners/210630/210630-X21kphz3e.png', 'fileMd5': 'PVLKPfywLlnM2uUa4PHSwA==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210630, 'expireDate': 20220630, 'deepLink': '990601145077161|tapcolor|https://www.facebook.com/329700151167267/posts/990601145077161/'}, {'eventId': 292016, 'picId': '210629-XBujjYqhn.jpg', 'filePath': 'color/1.0/banners/210629/210629-XBujjYqhn.jpg', 'fileMd5': '6ENBaZWVtBgV4KoHt3YYDQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210629, 'expireDate': 20220629, 'deepLink': '989889275148348|tapcolor|https://www.facebook.com/329700151167267/posts/989889275148348/'}, {'eventId': 292015, 'picId': '210628-qyr_0KmCc.png', 'filePath': 'color/1.0/banners/210628/210628-qyr_0KmCc.png', 'fileMd5': 'ccX6/PPhJmoQRDmK1gA0/g==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210628, 'expireDate': 20220628, 'deepLink': '989236978546911|tapcolor|https://www.facebook.com/329700151167267/posts/989236978546911/'}, {'eventId': 292014, 'picId': '210625-CU3wURQlU.png', 'filePath': 'color/1.0/banners/210625/210625-CU3wURQlU.png', 'fileMd5': 'c1m4A0W8kDmC23NmGrSsBA==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '987338545403421|tapcolor|https://www.facebook.com/329700151167267/posts/987338545403421/'}, {'eventId': 292013, 'picId': '210625-G_nd8oCnG.jpg', 'filePath': 'color/1.0/banners/210625/210625-G_nd8oCnG.jpg', 'fileMd5': 'iPAvLJKmEdYTfJEYyDjJ3Q==', 'title': 'Vote For The Best', 'desc': 'Which one is the winner for you?', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '352863272922064|tapcolor|https://www.facebook.com/329700151167267/posts/352863272922064/'}]}}</t>
         </is>
       </c>
     </row>

--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="28680" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color" sheetId="1" state="visible" r:id="rId1"/>
@@ -549,9 +549,9 @@
   </sheetPr>
   <dimension ref="A1:L16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H7" sqref="H7"/>
+      <selection pane="bottomLeft" activeCell="K2" sqref="K2:L15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="39" defaultRowHeight="30" customHeight="1"/>
@@ -567,8 +567,8 @@
     <col width="15.625" bestFit="1" customWidth="1" style="11" min="10" max="10"/>
     <col width="39" customWidth="1" style="3" min="11" max="11"/>
     <col width="44.75" customWidth="1" style="3" min="12" max="12"/>
-    <col width="39" customWidth="1" style="3" min="13" max="23"/>
-    <col width="39" customWidth="1" style="3" min="24" max="16384"/>
+    <col width="39" customWidth="1" style="3" min="13" max="25"/>
+    <col width="39" customWidth="1" style="3" min="26" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.6" customFormat="1" customHeight="1" s="2">
@@ -674,14 +674,14 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140848', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': '991242701679672|tapcolor|https://www.facebook.com/329700151167267/posts/991242701679672/', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210701-nhfrSVPOy.png', 'picUrl': 'color/1.0/banners/210701/210701-nhfrSVPOy.png?ver=nkADiUScy9kHCCHGR2e9Zg==', 'picMd5': 'nkADiUScy9kHCCHGR2e9Zg==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20210701, 'expireDate': 20210703, 'minVersion': 40000, 'platform': '["Android", "Ios"]'}, {'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]'}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]'}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}]}}</t>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625214293', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': '991242701679672|tapcolor|https://www.facebook.com/329700151167267/posts/991242701679672/', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210701-nhfrSVPOy.png', 'picUrl': 'color/1.0/banners/210701/210701-nhfrSVPOy.png?ver=nkADiUScy9kHCCHGR2e9Zg==', 'picMd5': 'nkADiUScy9kHCCHGR2e9Zg==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20210701, 'expireDate': 20210703, 'minVersion': 40000, 'platform': '["Android", "Ios"]'}, {'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]'}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]'}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}]}}</t>
         </is>
       </c>
     </row>
@@ -696,8 +696,10 @@
           <t>banner安卓接口game_ver参数异常</t>
         </is>
       </c>
-      <c r="C3" s="9" t="n">
-        <v>0</v>
+      <c r="C3" s="9" t="inlineStr">
+        <is>
+          <t>yes</t>
+        </is>
       </c>
       <c r="D3" s="9" t="n"/>
       <c r="E3" s="9" t="n"/>
@@ -722,12 +724,12 @@
         </is>
       </c>
       <c r="J3" s="14" t="n"/>
-      <c r="K3" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="L3" s="3" t="inlineStr">
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>{'error_code': 666, 'error_msg': 'path: game_ver, error: game_ver must have a length between 3 and 9.'}</t>
         </is>
@@ -770,12 +772,12 @@
         </is>
       </c>
       <c r="J4" s="14" t="n"/>
-      <c r="K4" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="L4" s="3" t="inlineStr">
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
         <is>
           <t>{'error_code': 666, 'error_msg': 'path: os_type, error: os_type must be either Android, Ios, Mac or Windows.'}</t>
         </is>
@@ -818,12 +820,12 @@
         </is>
       </c>
       <c r="J5" s="14" t="n"/>
-      <c r="K5" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="L5" s="3" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>{'error_code': 666, 'error_msg': 'path: register_date, error: register_date must have a length between 8 and 8.'}</t>
         </is>
@@ -866,12 +868,12 @@
         </is>
       </c>
       <c r="J6" s="14" t="n"/>
-      <c r="K6" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="L6" s="3" t="inlineStr">
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
         <is>
           <t>{'error_code': 666, 'error_msg': 'path: game_actDay, error: game_actDay is required.'}</t>
         </is>
@@ -914,12 +916,12 @@
         </is>
       </c>
       <c r="J7" s="14" t="n"/>
-      <c r="K7" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="L7" s="3" t="inlineStr">
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
         <is>
           <t>{'error_code': 666, 'error_msg': 'path: group_id, error: group_id must have a length between 1 and 3.'}</t>
         </is>
@@ -962,12 +964,12 @@
         </is>
       </c>
       <c r="J8" s="14" t="n"/>
-      <c r="K8" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
-        </is>
-      </c>
-      <c r="L8" s="3" t="inlineStr">
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
         <is>
           <t>{'error_code': 666, 'error_msg': 'path: game_date, error: game_date must have a length between 8 and 8.'}</t>
         </is>
@@ -1014,14 +1016,14 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="K9" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140852', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不'}, 'version': '1624629399'}, 'apiName': 'getLanguage'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625214298', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不'}, 'version': '1624629399'}, 'apiName': 'getLanguage'}</t>
         </is>
       </c>
     </row>
@@ -1066,14 +1068,14 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="K10" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140852', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B"}'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625214299', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B"}'}</t>
         </is>
       </c>
     </row>
@@ -1118,14 +1120,14 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="K11" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140853', 'apiName': 'getDiscount', 'data': []}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625214300', 'apiName': 'getDiscount', 'data': []}</t>
         </is>
       </c>
     </row>
@@ -1170,14 +1172,14 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="K12" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140854', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625214301', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
         </is>
       </c>
     </row>
@@ -1222,14 +1224,14 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="K13" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140854', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F1ZlrSsZyI', 'picType': 1, 'picUnlockDate': 20210502, 'picVipUnlockDate': 20210426, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'INxP6NAqXGgPoxlB9PYo7Q==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI.npic?ver=INxP6NAqXGgPoxlB9PYo7Q=='}, 'picThumbnail': {'md5': '33KzG3ujN2Aq8cq+/xmbPw==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_thumbnail.png?ver=33KzG3ujN2Aq8cq+/xmbPw=='}, 'picColorImg': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ=='}, 'picFrameImg': {'md5': 'QL48JDe3qvw7WaFAZNyOmg==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_frame.png?ver=QL48JDe3qvw7WaFAZNyOmg=='}, 'picColorfulThumbnail': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DT8muj2m4t', 'picType': 1, 'picUnlockDate': 20210429, 'picVipUnlockDate': 20210423, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'G9YieephuTfXtzb0pDpOsw==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t.npic?ver=G9YieephuTfXtzb0pDpOsw=='}, 'picThumbnail': {'md5': 'Lp7x4FRVVVW1oQj9Pbpo4g==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_thumbnail.png?ver=Lp7x4FRVVVW1oQj9Pbpo4g=='}, 'picColorImg': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug=='}, 'picFrameImg': {'md5': 'Vj3t1S8EfA2Cjs8qgI1ImQ==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_frame.png?ver=Vj3t1S8EfA2Cjs8qgI1ImQ=='}, 'picColorfulThumbnail': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dL9IEu5mdA', 'picType': 1, 'picUnlockDate': 20210426, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iPUQH/c5Q8fSjL0yuoDJHw==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA.npic?ver=iPUQH/c5Q8fSjL0yuoDJHw=='}, 'picThumbnail': {'md5': '8xEHTCxBG+E2XZx1BOS6MA==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_thumbnail.png?ver=8xEHTCxBG+E2XZx1BOS6MA=='}, 'picColorImg': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ=='}, 'picFrameImg': {'md5': 'MtDf1hTSa8V8fnB6cY/w/Q==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_frame.png?ver=MtDf1hTSa8V8fnB6cY/w/Q=='}, 'picColorfulThumbnail': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4QztVd0nhZ', 'picType': 1, 'picUnlockDate': 20210423, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'ft8l3lmsL/i0yZIE8GISiQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ.npic?ver=ft8l3lmsL/i0yZIE8GISiQ=='}, 'picThumbnail': {'md5': '6X5t3W2HjfzVkW9DHB/NdA==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_thumbnail.png?ver=6X5t3W2HjfzVkW9DHB/NdA=='}, 'picColorImg': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg=='}, 'picFrameImg': {'md5': 'LUKinE29fhTLCnr0rswLYQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_frame.png?ver=LUKinE29fhTLCnr0rswLYQ=='}, 'picColorfulThumbnail': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__Vzeku00wK', 'picType': 1, 'picUnlockDate': 20210420, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000101, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'jelsk6RoyOJDdVsNHzZpKw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK.npic?ver=jelsk6RoyOJDdVsNHzZpKw=='}, 'picThumbnail': {'md5': '8ChlbKPC7IsFhUB6H93WbQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_thumbnail.png?ver=8ChlbKPC7IsFhUB6H93WbQ=='}, 'picColorImg': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw=='}, 'picFrameImg': {'md5': '9m5PNNoKQA7yywy5cLAZpQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_frame.png?ver=9m5PNNoKQA7yywy5cLAZpQ=='}, 'picColorfulThumbnail': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 13395, 'rowType': 'Books', 'titleKey': 'Happy Easter', 'descKey': 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!', 'rowOrder': 2100, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-13395/featrue-13395_WEp-5r9nMr.png?ver=2CFm7RT/kCVWe/bvn+vQWw==', 'detailPicMd5': '2CFm7RT/kCVWe/bvn+vQWw==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210329, 'expireDate': 23000430, 'authorHeadPicPath': 'color/1.0/feature/-13395/featrue-13395_VSEUPnrNX_.png?ver=8vSV7bHXXvE0H1YzQvBRxQ==', 'authorHeadPicMd5': '8vSV7bHXXvE0H1YzQvBRxQ==', 'authorName': 'Billie Leigh', 'showPicRow': 1, 'pics': [{'picName': 'pic_mKpXRwF4jS', 'picType': 1, 'picUnlockDate': 20210416, 'picVipUnlockDate': 20210410, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'xz/azZkvApB/a24OtnwifA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS.npic?ver=xz/azZkvApB/a24OtnwifA=='}, 'picThumbnail': {'md5': 'Pw8hRNxIkcHVZcxgqcOOfA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_thumbnail.png?ver=Pw8hRNxIkcHVZcxgqcOOfA=='}, 'picColorImg': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw=='}, 'picFrameImg': {'md5': 'XzhSdYrqC3Xe3n9L3bHkxw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_frame.png?ver=XzhSdYrqC3Xe3n9L3bHkxw=='}, 'picColorfulThumbnail': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_6VlkHuoN18', 'picType': 1, 'picUnlockDate': 20210414, 'picVipUnlockDate': 20210408, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': 'abtzIJMY/evj7mSGptO3sg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18.npic?ver=abtzIJMY/evj7mSGptO3sg=='}, 'picThumbnail': {'md5': 'PLoZqcIG15syIo3rC+qhKg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_thumbnail.png?ver=PLoZqcIG15syIo3rC+qhKg=='}, 'picColorImg': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g=='}, 'picFrameImg': {'md5': 'cHB6rz3n408AXTLmaD4sKA==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_frame.png?ver=cHB6rz3n408AXTLmaD4sKA=='}, 'picColorfulThumbnail': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_TIiNi44HLK', 'picType': 1, 'picUnlockDate': 20210412, 'picVipUnlockDate': 20210406, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'ss+EexaJUQUx8MeMCxsDeA==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK.npic?ver=ss+EexaJUQUx8MeMCxsDeA=='}, 'picThumbnail': {'md5': '3PlF4kwnyLJIeRlOkNYC9g==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_thumbnail.png?ver=3PlF4kwnyLJIeRlOkNYC9g=='}, 'picColorImg': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ=='}, 'picFrameImg': {'md5': 'w021gtl+Nn2hTkj1tvWW4w==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_frame.png?ver=w021gtl+Nn2hTkj1tvWW4w=='}, 'picColorfulThumbnail': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xkkCGhtY9K', 'picType': 1, 'picUnlockDate': 20210410, 'picVipUnlockDate': 20210404, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'F0RAaLoRyR3UJmWWyeXPoQ==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K.npic?ver=F0RAaLoRyR3UJmWWyeXPoQ=='}, 'picThumbnail': {'md5': 'rj+J13HmtkcN0fPNmyMVcw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_thumbnail.png?ver=rj+J13HmtkcN0fPNmyMVcw=='}, 'picColorImg': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw=='}, 'picFrameImg': {'md5': '3tZ04i3Kie6bVzLLfEMYJw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_frame.png?ver=3tZ04i3Kie6bVzLLfEMYJw=='}, 'picColorfulThumbnail': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_j3pk2DXXJi', 'picType': 1, 'picUnlockDate': 20210408, 'picVipUnlockDate': 20210402, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '9x7BWiq3Rg/moxIna24QGQ==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi.npic?ver=9x7BWiq3Rg/moxIna24QGQ=='}, 'picThumbnail': {'md5': '20CH0X9h31kxrAXeSv3L9g==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_thumbnail.png?ver=20CH0X9h31kxrAXeSv3L9g=='}, 'picColorImg': {'md5': 'e1yJB/X8l7taf2APcjx61A==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_color.jpg?ver=e1yJB/X8l7taf2APcjx61A=='}, 'picFrameImg': {'md5': 'LdqgPI2k2XOzYrLB7mdbvA==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_frame.png?ver=LdqgPI2k2XOzYrLB7mdbvA=='}, 'picColorfulThumbnail'</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625214302', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F1ZlrSsZyI', 'picType': 1, 'picUnlockDate': 20210502, 'picVipUnlockDate': 20210426, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'INxP6NAqXGgPoxlB9PYo7Q==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI.npic?ver=INxP6NAqXGgPoxlB9PYo7Q=='}, 'picThumbnail': {'md5': '33KzG3ujN2Aq8cq+/xmbPw==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_thumbnail.png?ver=33KzG3ujN2Aq8cq+/xmbPw=='}, 'picColorImg': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ=='}, 'picFrameImg': {'md5': 'QL48JDe3qvw7WaFAZNyOmg==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_frame.png?ver=QL48JDe3qvw7WaFAZNyOmg=='}, 'picColorfulThumbnail': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DT8muj2m4t', 'picType': 1, 'picUnlockDate': 20210429, 'picVipUnlockDate': 20210423, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'G9YieephuTfXtzb0pDpOsw==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t.npic?ver=G9YieephuTfXtzb0pDpOsw=='}, 'picThumbnail': {'md5': 'Lp7x4FRVVVW1oQj9Pbpo4g==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_thumbnail.png?ver=Lp7x4FRVVVW1oQj9Pbpo4g=='}, 'picColorImg': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug=='}, 'picFrameImg': {'md5': 'Vj3t1S8EfA2Cjs8qgI1ImQ==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_frame.png?ver=Vj3t1S8EfA2Cjs8qgI1ImQ=='}, 'picColorfulThumbnail': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dL9IEu5mdA', 'picType': 1, 'picUnlockDate': 20210426, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iPUQH/c5Q8fSjL0yuoDJHw==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA.npic?ver=iPUQH/c5Q8fSjL0yuoDJHw=='}, 'picThumbnail': {'md5': '8xEHTCxBG+E2XZx1BOS6MA==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_thumbnail.png?ver=8xEHTCxBG+E2XZx1BOS6MA=='}, 'picColorImg': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ=='}, 'picFrameImg': {'md5': 'MtDf1hTSa8V8fnB6cY/w/Q==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_frame.png?ver=MtDf1hTSa8V8fnB6cY/w/Q=='}, 'picColorfulThumbnail': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4QztVd0nhZ', 'picType': 1, 'picUnlockDate': 20210423, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'ft8l3lmsL/i0yZIE8GISiQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ.npic?ver=ft8l3lmsL/i0yZIE8GISiQ=='}, 'picThumbnail': {'md5': '6X5t3W2HjfzVkW9DHB/NdA==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_thumbnail.png?ver=6X5t3W2HjfzVkW9DHB/NdA=='}, 'picColorImg': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg=='}, 'picFrameImg': {'md5': 'LUKinE29fhTLCnr0rswLYQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_frame.png?ver=LUKinE29fhTLCnr0rswLYQ=='}, 'picColorfulThumbnail': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__Vzeku00wK', 'picType': 1, 'picUnlockDate': 20210420, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000101, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'jelsk6RoyOJDdVsNHzZpKw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK.npic?ver=jelsk6RoyOJDdVsNHzZpKw=='}, 'picThumbnail': {'md5': '8ChlbKPC7IsFhUB6H93WbQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_thumbnail.png?ver=8ChlbKPC7IsFhUB6H93WbQ=='}, 'picColorImg': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw=='}, 'picFrameImg': {'md5': '9m5PNNoKQA7yywy5cLAZpQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_frame.png?ver=9m5PNNoKQA7yywy5cLAZpQ=='}, 'picColorfulThumbnail': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 13395, 'rowType': 'Books', 'titleKey': 'Happy Easter', 'descKey': 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!', 'rowOrder': 2100, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-13395/featrue-13395_WEp-5r9nMr.png?ver=2CFm7RT/kCVWe/bvn+vQWw==', 'detailPicMd5': '2CFm7RT/kCVWe/bvn+vQWw==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210329, 'expireDate': 23000430, 'authorHeadPicPath': 'color/1.0/feature/-13395/featrue-13395_VSEUPnrNX_.png?ver=8vSV7bHXXvE0H1YzQvBRxQ==', 'authorHeadPicMd5': '8vSV7bHXXvE0H1YzQvBRxQ==', 'authorName': 'Billie Leigh', 'showPicRow': 1, 'pics': [{'picName': 'pic_mKpXRwF4jS', 'picType': 1, 'picUnlockDate': 20210416, 'picVipUnlockDate': 20210410, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'xz/azZkvApB/a24OtnwifA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS.npic?ver=xz/azZkvApB/a24OtnwifA=='}, 'picThumbnail': {'md5': 'Pw8hRNxIkcHVZcxgqcOOfA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_thumbnail.png?ver=Pw8hRNxIkcHVZcxgqcOOfA=='}, 'picColorImg': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw=='}, 'picFrameImg': {'md5': 'XzhSdYrqC3Xe3n9L3bHkxw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_frame.png?ver=XzhSdYrqC3Xe3n9L3bHkxw=='}, 'picColorfulThumbnail': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_6VlkHuoN18', 'picType': 1, 'picUnlockDate': 20210414, 'picVipUnlockDate': 20210408, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': 'abtzIJMY/evj7mSGptO3sg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18.npic?ver=abtzIJMY/evj7mSGptO3sg=='}, 'picThumbnail': {'md5': 'PLoZqcIG15syIo3rC+qhKg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_thumbnail.png?ver=PLoZqcIG15syIo3rC+qhKg=='}, 'picColorImg': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g=='}, 'picFrameImg': {'md5': 'cHB6rz3n408AXTLmaD4sKA==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_frame.png?ver=cHB6rz3n408AXTLmaD4sKA=='}, 'picColorfulThumbnail': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_TIiNi44HLK', 'picType': 1, 'picUnlockDate': 20210412, 'picVipUnlockDate': 20210406, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'ss+EexaJUQUx8MeMCxsDeA==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK.npic?ver=ss+EexaJUQUx8MeMCxsDeA=='}, 'picThumbnail': {'md5': '3PlF4kwnyLJIeRlOkNYC9g==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_thumbnail.png?ver=3PlF4kwnyLJIeRlOkNYC9g=='}, 'picColorImg': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ=='}, 'picFrameImg': {'md5': 'w021gtl+Nn2hTkj1tvWW4w==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_frame.png?ver=w021gtl+Nn2hTkj1tvWW4w=='}, 'picColorfulThumbnail': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xkkCGhtY9K', 'picType': 1, 'picUnlockDate': 20210410, 'picVipUnlockDate': 20210404, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'F0RAaLoRyR3UJmWWyeXPoQ==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K.npic?ver=F0RAaLoRyR3UJmWWyeXPoQ=='}, 'picThumbnail': {'md5': 'rj+J13HmtkcN0fPNmyMVcw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_thumbnail.png?ver=rj+J13HmtkcN0fPNmyMVcw=='}, 'picColorImg': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw=='}, 'picFrameImg': {'md5': '3tZ04i3Kie6bVzLLfEMYJw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_frame.png?ver=3tZ04i3Kie6bVzLLfEMYJw=='}, 'picColorfulThumbnail': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_j3pk2DXXJi', 'picType': 1, 'picUnlockDate': 20210408, 'picVipUnlockDate': 20210402, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '9x7BWiq3Rg/moxIna24QGQ==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi.npic?ver=9x7BWiq3Rg/moxIna24QGQ=='}, 'picThumbnail': {'md5': '20CH0X9h31kxrAXeSv3L9g==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_thumbnail.png?ver=20CH0X9h31kxrAXeSv3L9g=='}, 'picColorImg': {'md5': 'e1yJB/X8l7taf2APcjx61A==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_color.jpg?ver=e1yJB/X8l7taf2APcjx61A=='}, 'picFrameImg': {'md5': 'LdqgPI2k2XOzYrLB7mdbvA==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_frame.png?ver=LdqgPI2k2XOzYrLB7mdbvA=='}, 'picColorfulThumbnail'</t>
         </is>
       </c>
     </row>
@@ -1274,14 +1276,14 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="K14" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140855', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625214303', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
         </is>
       </c>
     </row>
@@ -1326,14 +1328,14 @@
           <t>-1</t>
         </is>
       </c>
-      <c r="K15" s="3" t="inlineStr">
-        <is>
-          <t>通过</t>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625140856', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 291615, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210701, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 292018, 'picId': '210701-f7nyRV70T.png', 'filePath': 'color/1.0/banners/210701/210701-f7nyRV70T.png', 'fileMd5': 'lUzmHaRU1WAE5GJ2KmuFGg==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210701, 'expireDate': 20220701, 'deepLink': '991242701679672|tapcolor|https://www.facebook.com/329700151167267/posts/991242701679672/'}, {'eventId': 292017, 'picId': '210630-X21kphz3e.png', 'filePath': 'color/1.0/banners/210630/210630-X21kphz3e.png', 'fileMd5': 'PVLKPfywLlnM2uUa4PHSwA==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210630, 'expireDate': 20220630, 'deepLink': '990601145077161|tapcolor|https://www.facebook.com/329700151167267/posts/990601145077161/'}, {'eventId': 292016, 'picId': '210629-XBujjYqhn.jpg', 'filePath': 'color/1.0/banners/210629/210629-XBujjYqhn.jpg', 'fileMd5': '6ENBaZWVtBgV4KoHt3YYDQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210629, 'expireDate': 20220629, 'deepLink': '989889275148348|tapcolor|https://www.facebook.com/329700151167267/posts/989889275148348/'}, {'eventId': 292015, 'picId': '210628-qyr_0KmCc.png', 'filePath': 'color/1.0/banners/210628/210628-qyr_0KmCc.png', 'fileMd5': 'ccX6/PPhJmoQRDmK1gA0/g==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210628, 'expireDate': 20220628, 'deepLink': '989236978546911|tapcolor|https://www.facebook.com/329700151167267/posts/989236978546911/'}, {'eventId': 292014, 'picId': '210625-CU3wURQlU.png', 'filePath': 'color/1.0/banners/210625/210625-CU3wURQlU.png', 'fileMd5': 'c1m4A0W8kDmC23NmGrSsBA==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '987338545403421|tapcolor|https://www.facebook.com/329700151167267/posts/987338545403421/'}, {'eventId': 292013, 'picId': '210625-G_nd8oCnG.jpg', 'filePath': 'color/1.0/banners/210625/210625-G_nd8oCnG.jpg', 'fileMd5': 'iPAvLJKmEdYTfJEYyDjJ3Q==', 'title': 'Vote For The Best', 'desc': 'Which one is the winner for you?', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '352863272922064|tapcolor|https://www.facebook.com/329700151167267/posts/352863272922064/'}]}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625214304', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 291615, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210701, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 292018, 'picId': '210701-f7nyRV70T.png', 'filePath': 'color/1.0/banners/210701/210701-f7nyRV70T.png', 'fileMd5': 'lUzmHaRU1WAE5GJ2KmuFGg==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210701, 'expireDate': 20220701, 'deepLink': '991242701679672|tapcolor|https://www.facebook.com/329700151167267/posts/991242701679672/'}, {'eventId': 292017, 'picId': '210630-X21kphz3e.png', 'filePath': 'color/1.0/banners/210630/210630-X21kphz3e.png', 'fileMd5': 'PVLKPfywLlnM2uUa4PHSwA==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210630, 'expireDate': 20220630, 'deepLink': '990601145077161|tapcolor|https://www.facebook.com/329700151167267/posts/990601145077161/'}, {'eventId': 292016, 'picId': '210629-XBujjYqhn.jpg', 'filePath': 'color/1.0/banners/210629/210629-XBujjYqhn.jpg', 'fileMd5': '6ENBaZWVtBgV4KoHt3YYDQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210629, 'expireDate': 20220629, 'deepLink': '989889275148348|tapcolor|https://www.facebook.com/329700151167267/posts/989889275148348/'}, {'eventId': 292015, 'picId': '210628-qyr_0KmCc.png', 'filePath': 'color/1.0/banners/210628/210628-qyr_0KmCc.png', 'fileMd5': 'ccX6/PPhJmoQRDmK1gA0/g==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210628, 'expireDate': 20220628, 'deepLink': '989236978546911|tapcolor|https://www.facebook.com/329700151167267/posts/989236978546911/'}, {'eventId': 292014, 'picId': '210625-CU3wURQlU.png', 'filePath': 'color/1.0/banners/210625/210625-CU3wURQlU.png', 'fileMd5': 'c1m4A0W8kDmC23NmGrSsBA==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '987338545403421|tapcolor|https://www.facebook.com/329700151167267/posts/987338545403421/'}, {'eventId': 292013, 'picId': '210625-G_nd8oCnG.jpg', 'filePath': 'color/1.0/banners/210625/210625-G_nd8oCnG.jpg', 'fileMd5': 'iPAvLJKmEdYTfJEYyDjJ3Q==', 'title': 'Vote For The Best', 'desc': 'Which one is the winner for you?', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '352863272922064|tapcolor|https://www.facebook.com/329700151167267/posts/352863272922064/'}]}}</t>
         </is>
       </c>
     </row>
@@ -1350,7 +1352,7 @@
       </c>
       <c r="C16" s="9" t="inlineStr">
         <is>
-          <t>yes</t>
+          <t>no</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
@@ -1396,7 +1398,7 @@
   <dimension ref="A1:N28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N1" sqref="N1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -1249,12 +1249,12 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625811612', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]'}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]'}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]'}]}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081967', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}]}}</t>
         </is>
       </c>
     </row>
@@ -1297,7 +1297,7 @@
       <c r="J3" s="14" t="n"/>
       <c r="K3" t="inlineStr">
         <is>
-          <t>通过</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -1594,7 +1594,7 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625386115', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不'}, 'version': '1624629399'}, 'apiName': 'getLanguage'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081972', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不', 'skip': '跳过动画', 'Restore': '恢复订阅', 'purchased items': '已购商品', 'Subscription FAQ': '内购问题FAQ', 'Daily Challenge title': '每日挑战', 'Daily Challenge description': '快来开启每日挑战！', 'Get stuck? Use hints': '找不到小色块？用用提示～', 'Available storage space of your device is less than 25M. Clear Cache for a better experience.': '可用存储空间不足25M，清理缓存以获得更多存储空间。', 'Clearing the cache will not affect normal use': '清理缓存不影响正常填色'}, 'version': '1625722553'}, 'apiName': 'getLanguage'}</t>
         </is>
       </c>
     </row>
@@ -1928,7 +1928,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625386126', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B"}'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081977', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B"}'}</t>
         </is>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625386138', 'apiName': 'getDiscount', 'data': []}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081981', 'apiName': 'getDiscount', 'data': []}</t>
         </is>
       </c>
     </row>
@@ -2596,7 +2596,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625386148', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081986', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
         </is>
       </c>
     </row>
@@ -2777,6 +2777,16 @@
           <t>errorMsg</t>
         </is>
       </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>PASS</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>{'error_code': 666, 'error_msg': 'path: game_actDay, error: game_actDay is required.'}</t>
+        </is>
+      </c>
     </row>
     <row r="35" ht="28.5" customHeight="1">
       <c r="A35" s="4" t="inlineStr">
@@ -2920,7 +2930,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625386158', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F1ZlrSsZyI', 'picType': 1, 'picUnlockDate': 20210502, 'picVipUnlockDate': 20210426, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'INxP6NAqXGgPoxlB9PYo7Q==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI.npic?ver=INxP6NAqXGgPoxlB9PYo7Q=='}, 'picThumbnail': {'md5': '33KzG3ujN2Aq8cq+/xmbPw==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_thumbnail.png?ver=33KzG3ujN2Aq8cq+/xmbPw=='}, 'picColorImg': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ=='}, 'picFrameImg': {'md5': 'QL48JDe3qvw7WaFAZNyOmg==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_frame.png?ver=QL48JDe3qvw7WaFAZNyOmg=='}, 'picColorfulThumbnail': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DT8muj2m4t', 'picType': 1, 'picUnlockDate': 20210429, 'picVipUnlockDate': 20210423, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'G9YieephuTfXtzb0pDpOsw==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t.npic?ver=G9YieephuTfXtzb0pDpOsw=='}, 'picThumbnail': {'md5': 'Lp7x4FRVVVW1oQj9Pbpo4g==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_thumbnail.png?ver=Lp7x4FRVVVW1oQj9Pbpo4g=='}, 'picColorImg': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug=='}, 'picFrameImg': {'md5': 'Vj3t1S8EfA2Cjs8qgI1ImQ==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_frame.png?ver=Vj3t1S8EfA2Cjs8qgI1ImQ=='}, 'picColorfulThumbnail': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dL9IEu5mdA', 'picType': 1, 'picUnlockDate': 20210426, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iPUQH/c5Q8fSjL0yuoDJHw==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA.npic?ver=iPUQH/c5Q8fSjL0yuoDJHw=='}, 'picThumbnail': {'md5': '8xEHTCxBG+E2XZx1BOS6MA==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_thumbnail.png?ver=8xEHTCxBG+E2XZx1BOS6MA=='}, 'picColorImg': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ=='}, 'picFrameImg': {'md5': 'MtDf1hTSa8V8fnB6cY/w/Q==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_frame.png?ver=MtDf1hTSa8V8fnB6cY/w/Q=='}, 'picColorfulThumbnail': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4QztVd0nhZ', 'picType': 1, 'picUnlockDate': 20210423, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'ft8l3lmsL/i0yZIE8GISiQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ.npic?ver=ft8l3lmsL/i0yZIE8GISiQ=='}, 'picThumbnail': {'md5': '6X5t3W2HjfzVkW9DHB/NdA==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_thumbnail.png?ver=6X5t3W2HjfzVkW9DHB/NdA=='}, 'picColorImg': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg=='}, 'picFrameImg': {'md5': 'LUKinE29fhTLCnr0rswLYQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_frame.png?ver=LUKinE29fhTLCnr0rswLYQ=='}, 'picColorfulThumbnail': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__Vzeku00wK', 'picType': 1, 'picUnlockDate': 20210420, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000101, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'jelsk6RoyOJDdVsNHzZpKw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK.npic?ver=jelsk6RoyOJDdVsNHzZpKw=='}, 'picThumbnail': {'md5': '8ChlbKPC7IsFhUB6H93WbQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_thumbnail.png?ver=8ChlbKPC7IsFhUB6H93WbQ=='}, 'picColorImg': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw=='}, 'picFrameImg': {'md5': '9m5PNNoKQA7yywy5cLAZpQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_frame.png?ver=9m5PNNoKQA7yywy5cLAZpQ=='}, 'picColorfulThumbnail': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 13395, 'rowType': 'Books', 'titleKey': 'Happy Easter', 'descKey': 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!', 'rowOrder': 2100, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-13395/featrue-13395_WEp-5r9nMr.png?ver=2CFm7RT/kCVWe/bvn+vQWw==', 'detailPicMd5': '2CFm7RT/kCVWe/bvn+vQWw==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210329, 'expireDate': 23000430, 'authorHeadPicPath': 'color/1.0/feature/-13395/featrue-13395_VSEUPnrNX_.png?ver=8vSV7bHXXvE0H1YzQvBRxQ==', 'authorHeadPicMd5': '8vSV7bHXXvE0H1YzQvBRxQ==', 'authorName': 'Billie Leigh', 'showPicRow': 1, 'pics': [{'picName': 'pic_mKpXRwF4jS', 'picType': 1, 'picUnlockDate': 20210416, 'picVipUnlockDate': 20210410, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'xz/azZkvApB/a24OtnwifA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS.npic?ver=xz/azZkvApB/a24OtnwifA=='}, 'picThumbnail': {'md5': 'Pw8hRNxIkcHVZcxgqcOOfA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_thumbnail.png?ver=Pw8hRNxIkcHVZcxgqcOOfA=='}, 'picColorImg': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw=='}, 'picFrameImg': {'md5': 'XzhSdYrqC3Xe3n9L3bHkxw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_frame.png?ver=XzhSdYrqC3Xe3n9L3bHkxw=='}, 'picColorfulThumbnail': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_6VlkHuoN18', 'picType': 1, 'picUnlockDate': 20210414, 'picVipUnlockDate': 20210408, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': 'abtzIJMY/evj7mSGptO3sg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18.npic?ver=abtzIJMY/evj7mSGptO3sg=='}, 'picThumbnail': {'md5': 'PLoZqcIG15syIo3rC+qhKg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_thumbnail.png?ver=PLoZqcIG15syIo3rC+qhKg=='}, 'picColorImg': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g=='}, 'picFrameImg': {'md5': 'cHB6rz3n408AXTLmaD4sKA==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_frame.png?ver=cHB6rz3n408AXTLmaD4sKA=='}, 'picColorfulThumbnail': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_TIiNi44HLK', 'picType': 1, 'picUnlockDate': 20210412, 'picVipUnlockDate': 20210406, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'ss+EexaJUQUx8MeMCxsDeA==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK.npic?ver=ss+EexaJUQUx8MeMCxsDeA=='}, 'picThumbnail': {'md5': '3PlF4kwnyLJIeRlOkNYC9g==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_thumbnail.png?ver=3PlF4kwnyLJIeRlOkNYC9g=='}, 'picColorImg': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ=='}, 'picFrameImg': {'md5': 'w021gtl+Nn2hTkj1tvWW4w==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_frame.png?ver=w021gtl+Nn2hTkj1tvWW4w=='}, 'picColorfulThumbnail': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xkkCGhtY9K', 'picType': 1, 'picUnlockDate': 20210410, 'picVipUnlockDate': 20210404, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'F0RAaLoRyR3UJmWWyeXPoQ==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K.npic?ver=F0RAaLoRyR3UJmWWyeXPoQ=='}, 'picThumbnail': {'md5': 'rj+J13HmtkcN0fPNmyMVcw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_thumbnail.png?ver=rj+J13HmtkcN0fPNmyMVcw=='}, 'picColorImg': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw=='}, 'picFrameImg': {'md5': '3tZ04i3Kie6bVzLLfEMYJw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_frame.png?ver=3tZ04i3Kie6bVzLLfEMYJw=='}, 'picColorfulThumbnail': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_j3pk2DXXJi', 'picType': 1, 'picUnlockDate': 20210408, 'picVipUnlockDate': 20210402, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '9x7BWiq3Rg/moxIna24QGQ==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi.npic?ver=9x7BWiq3Rg/moxIna24QGQ=='}, 'picThumbnail': {'md5': '20CH0X9h31kxrAXeSv3L9g==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_thumbnail.png?ver=20CH0X9h31kxrAXeSv3L9g=='}, 'picColorImg': {'md5': 'e1yJB/X8l7taf2APcjx61A==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_color.jpg?ver=e1yJB/X8l7taf2APcjx61A=='}, 'picFrameImg': {'md5': 'LdqgPI2k2XOzYrLB7mdbvA==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_frame.png?ver=LdqgPI2k2XOzYrLB7mdbvA=='}, 'picColorfulThumbnail'</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081993', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F1ZlrSsZyI', 'picType': 1, 'picUnlockDate': 20210502, 'picVipUnlockDate': 20210426, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'INxP6NAqXGgPoxlB9PYo7Q==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI.npic?ver=INxP6NAqXGgPoxlB9PYo7Q=='}, 'picThumbnail': {'md5': '33KzG3ujN2Aq8cq+/xmbPw==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_thumbnail.png?ver=33KzG3ujN2Aq8cq+/xmbPw=='}, 'picColorImg': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ=='}, 'picFrameImg': {'md5': 'QL48JDe3qvw7WaFAZNyOmg==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_frame.png?ver=QL48JDe3qvw7WaFAZNyOmg=='}, 'picColorfulThumbnail': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DT8muj2m4t', 'picType': 1, 'picUnlockDate': 20210429, 'picVipUnlockDate': 20210423, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'G9YieephuTfXtzb0pDpOsw==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t.npic?ver=G9YieephuTfXtzb0pDpOsw=='}, 'picThumbnail': {'md5': 'Lp7x4FRVVVW1oQj9Pbpo4g==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_thumbnail.png?ver=Lp7x4FRVVVW1oQj9Pbpo4g=='}, 'picColorImg': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug=='}, 'picFrameImg': {'md5': 'Vj3t1S8EfA2Cjs8qgI1ImQ==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_frame.png?ver=Vj3t1S8EfA2Cjs8qgI1ImQ=='}, 'picColorfulThumbnail': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dL9IEu5mdA', 'picType': 1, 'picUnlockDate': 20210426, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iPUQH/c5Q8fSjL0yuoDJHw==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA.npic?ver=iPUQH/c5Q8fSjL0yuoDJHw=='}, 'picThumbnail': {'md5': '8xEHTCxBG+E2XZx1BOS6MA==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_thumbnail.png?ver=8xEHTCxBG+E2XZx1BOS6MA=='}, 'picColorImg': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ=='}, 'picFrameImg': {'md5': 'MtDf1hTSa8V8fnB6cY/w/Q==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_frame.png?ver=MtDf1hTSa8V8fnB6cY/w/Q=='}, 'picColorfulThumbnail': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4QztVd0nhZ', 'picType': 1, 'picUnlockDate': 20210423, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'ft8l3lmsL/i0yZIE8GISiQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ.npic?ver=ft8l3lmsL/i0yZIE8GISiQ=='}, 'picThumbnail': {'md5': '6X5t3W2HjfzVkW9DHB/NdA==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_thumbnail.png?ver=6X5t3W2HjfzVkW9DHB/NdA=='}, 'picColorImg': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg=='}, 'picFrameImg': {'md5': 'LUKinE29fhTLCnr0rswLYQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_frame.png?ver=LUKinE29fhTLCnr0rswLYQ=='}, 'picColorfulThumbnail': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__Vzeku00wK', 'picType': 1, 'picUnlockDate': 20210420, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000101, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'jelsk6RoyOJDdVsNHzZpKw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK.npic?ver=jelsk6RoyOJDdVsNHzZpKw=='}, 'picThumbnail': {'md5': '8ChlbKPC7IsFhUB6H93WbQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_thumbnail.png?ver=8ChlbKPC7IsFhUB6H93WbQ=='}, 'picColorImg': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw=='}, 'picFrameImg': {'md5': '9m5PNNoKQA7yywy5cLAZpQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_frame.png?ver=9m5PNNoKQA7yywy5cLAZpQ=='}, 'picColorfulThumbnail': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 13395, 'rowType': 'Books', 'titleKey': 'Happy Easter', 'descKey': 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!', 'rowOrder': 2100, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-13395/featrue-13395_WEp-5r9nMr.png?ver=2CFm7RT/kCVWe/bvn+vQWw==', 'detailPicMd5': '2CFm7RT/kCVWe/bvn+vQWw==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210329, 'expireDate': 23000430, 'authorHeadPicPath': 'color/1.0/feature/-13395/featrue-13395_VSEUPnrNX_.png?ver=8vSV7bHXXvE0H1YzQvBRxQ==', 'authorHeadPicMd5': '8vSV7bHXXvE0H1YzQvBRxQ==', 'authorName': 'Billie Leigh', 'showPicRow': 1, 'pics': [{'picName': 'pic_mKpXRwF4jS', 'picType': 1, 'picUnlockDate': 20210416, 'picVipUnlockDate': 20210410, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'xz/azZkvApB/a24OtnwifA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS.npic?ver=xz/azZkvApB/a24OtnwifA=='}, 'picThumbnail': {'md5': 'Pw8hRNxIkcHVZcxgqcOOfA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_thumbnail.png?ver=Pw8hRNxIkcHVZcxgqcOOfA=='}, 'picColorImg': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw=='}, 'picFrameImg': {'md5': 'XzhSdYrqC3Xe3n9L3bHkxw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_frame.png?ver=XzhSdYrqC3Xe3n9L3bHkxw=='}, 'picColorfulThumbnail': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_6VlkHuoN18', 'picType': 1, 'picUnlockDate': 20210414, 'picVipUnlockDate': 20210408, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': 'abtzIJMY/evj7mSGptO3sg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18.npic?ver=abtzIJMY/evj7mSGptO3sg=='}, 'picThumbnail': {'md5': 'PLoZqcIG15syIo3rC+qhKg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_thumbnail.png?ver=PLoZqcIG15syIo3rC+qhKg=='}, 'picColorImg': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g=='}, 'picFrameImg': {'md5': 'cHB6rz3n408AXTLmaD4sKA==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_frame.png?ver=cHB6rz3n408AXTLmaD4sKA=='}, 'picColorfulThumbnail': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_TIiNi44HLK', 'picType': 1, 'picUnlockDate': 20210412, 'picVipUnlockDate': 20210406, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'ss+EexaJUQUx8MeMCxsDeA==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK.npic?ver=ss+EexaJUQUx8MeMCxsDeA=='}, 'picThumbnail': {'md5': '3PlF4kwnyLJIeRlOkNYC9g==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_thumbnail.png?ver=3PlF4kwnyLJIeRlOkNYC9g=='}, 'picColorImg': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ=='}, 'picFrameImg': {'md5': 'w021gtl+Nn2hTkj1tvWW4w==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_frame.png?ver=w021gtl+Nn2hTkj1tvWW4w=='}, 'picColorfulThumbnail': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xkkCGhtY9K', 'picType': 1, 'picUnlockDate': 20210410, 'picVipUnlockDate': 20210404, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'F0RAaLoRyR3UJmWWyeXPoQ==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K.npic?ver=F0RAaLoRyR3UJmWWyeXPoQ=='}, 'picThumbnail': {'md5': 'rj+J13HmtkcN0fPNmyMVcw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_thumbnail.png?ver=rj+J13HmtkcN0fPNmyMVcw=='}, 'picColorImg': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw=='}, 'picFrameImg': {'md5': '3tZ04i3Kie6bVzLLfEMYJw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_frame.png?ver=3tZ04i3Kie6bVzLLfEMYJw=='}, 'picColorfulThumbnail': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_j3pk2DXXJi', 'picType': 1, 'picUnlockDate': 20210408, 'picVipUnlockDate': 20210402, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '9x7BWiq3Rg/moxIna24QGQ==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi.npic?ver=9x7BWiq3Rg/moxIna24QGQ=='}, 'picThumbnail': {'md5': '20CH0X9h31kxrAXeSv3L9g==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_thumbnail.png?ver=20CH0X9h31kxrAXeSv3L9g=='}, 'picColorImg': {'md5': 'e1yJB/X8l7taf2APcjx61A==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_color.jpg?ver=e1yJB/X8l7taf2APcjx61A=='}, 'picFrameImg': {'md5': 'LdqgPI2k2XOzYrLB7mdbvA==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_frame.png?ver=LdqgPI2k2XOzYrLB7mdbvA=='}, 'picColorfulThumbnail'</t>
         </is>
       </c>
     </row>
@@ -3254,7 +3264,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625386169', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081999', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
         </is>
       </c>
     </row>
@@ -3588,7 +3598,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625386180', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 292545, 'picId': '210702-NjWuU8eeR.png', 'filePath': 'color/1.0/banners/210702/210702-NjWuU8eeR.png', 'fileMd5': 'HYyjJW9w0+56H0qWbC953Q==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210704, 'expireDate': 20220702, 'deepLink': '991816091622333|tapcolor|https://www.facebook.com/329700151167267/posts/991816091622333/'}, {'eventId': 292544, 'picId': '210702-0hCeISgUH.jpg', 'filePath': 'color/1.0/banners/210702/210702-0hCeISgUH.jpg', 'fileMd5': 'mks+FI2zzGx15KPBSF9U1w==', 'title': 'Vote For The Best', 'desc': 'Time to vote for your favorite pic!', 'buttonText': 'Go', 'unlockDate': 20210703, 'expireDate': 20220702, 'deepLink': '973347266758636|tapcolor|https://www.facebook.com/329700151167267/posts/973347266758636/'}, {'eventId': 292139, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210702, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 292543, 'picId': '210702-LsrzvU1r-.png', 'filePath': 'color/1.0/banners/210702/210702-LsrzvU1r-.png', 'fileMd5': 'RRJe38fNg6CNL4INgvqP5A==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210702, 'expireDate': 20220702, 'deepLink': '991800044957271|tapcolor|https://www.facebook.com/329700151167267/posts/991800044957271/'}, {'eventId': 292542, 'picId': '210701-f7nyRV70T.png', 'filePath': 'color/1.0/banners/210701/210701-f7nyRV70T.png', 'fileMd5': 'lUzmHaRU1WAE5GJ2KmuFGg==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210701, 'expireDate': 20220701, 'deepLink': '991242701679672|tapcolor|https://www.facebook.com/329700151167267/posts/991242701679672/'}, {'eventId': 292541, 'picId': '210630-X21kphz3e.png', 'filePath': 'color/1.0/banners/210630/210630-X21kphz3e.png', 'fileMd5': 'PVLKPfywLlnM2uUa4PHSwA==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210630, 'expireDate': 20220630, 'deepLink': '990601145077161|tapcolor|https://www.facebook.com/329700151167267/posts/990601145077161/'}, {'eventId': 292540, 'picId': '210629-XBujjYqhn.jpg', 'filePath': 'color/1.0/banners/210629/210629-XBujjYqhn.jpg', 'fileMd5': '6ENBaZWVtBgV4KoHt3YYDQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210629, 'expireDate': 20220629, 'deepLink': '989889275148348|tapcolor|https://www.facebook.com/329700151167267/posts/989889275148348/'}, {'eventId': 292539, 'picId': '210628-qyr_0KmCc.png', 'filePath': 'color/1.0/banners/210628/210628-qyr_0KmCc.png', 'fileMd5': 'ccX6/PPhJmoQRDmK1gA0/g==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210628, 'expireDate': 20220628, 'deepLink': '989236978546911|tapcolor|https://www.facebook.com/329700151167267/posts/989236978546911/'}, {'eventId': 292538, 'picId': '210625-CU3wURQlU.png', 'filePath': 'color/1.0/banners/210625/210625-CU3wURQlU.png', 'fileMd5': 'c1m4A0W8kDmC23NmGrSsBA==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '987338545403421|tapcolor|https://www.facebook.com/329700151167267/posts/987338545403421/'}]}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626082004', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 299765, 'picId': '210709-ybd3V3_8k.jpg', 'filePath': 'color/1.0/banners/210709/210709-ybd3V3_8k.jpg', 'fileMd5': 'QshAyr9HhzrCrfF6QKslsw==', 'title': 'Vote For The Best', 'desc': 'Which one is the winner for you?', 'buttonText': 'Go', 'unlockDate': 20210710, 'expireDate': 20220709, 'deepLink': '570107627701590|tapcolor|https://www.facebook.com/329700151167267/posts/570107627701590/'}, {'eventId': 299764, 'picId': '210709-ombiGa5gJ.png', 'filePath': 'color/1.0/banners/210709/210709-ombiGa5gJ.png', 'fileMd5': 'kin4EYPuxwP3Q+cAMxv11g==', 'title': "It's Time to SHARE!", 'desc': 'Share in the comments!', 'buttonText': 'Go', 'unlockDate': 20210710, 'expireDate': 20220709, 'deepLink': '996121071191835|tapcolor|https://www.facebook.com/329700151167267/posts/996121071191835/'}, {'eventId': 299352, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210709, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 299763, 'picId': '210709-j8TLMa_5V.png', 'filePath': 'color/1.0/banners/210709/210709-j8TLMa_5V.png', 'fileMd5': 'WaBaFKLYUuY+vy+B3LhM7A==', 'title': 'Count And Share', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210709, 'expireDate': 20220709, 'deepLink': '239085627803803|tapcolor|https://www.facebook.com/329700151167267/posts/239085627803803/'}, {'eventId': 299762, 'picId': '210708-eRKTD0fTO.png', 'filePath': 'color/1.0/banners/210708/210708-eRKTD0fTO.png', 'fileMd5': '1oJcaHJiyxW0s93QRlagVQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210708, 'expireDate': 20220708, 'deepLink': '995568767913732|tapcolor|https://www.facebook.com/329700151167267/posts/995568767913732/'}, {'eventId': 299761, 'picId': '210707-ku-0wIX7H.png', 'filePath': 'color/1.0/banners/210707/210707-ku-0wIX7H.png', 'fileMd5': 'UOgaheI/t424JW6aVudG/g==', 'title': 'Puzzle Game', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210707, 'expireDate': 20220707, 'deepLink': '994945451309397|tapcolor|https://www.facebook.com/329700151167267/posts/994945451309397/'}, {'eventId': 299760, 'picId': '210706-Eh7L6rbu1.png', 'filePath': 'color/1.0/banners/210706/210706-Eh7L6rbu1.png', 'fileMd5': 'HdavDpDcgp/leaRon7MOlw==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210706, 'expireDate': 20220706, 'deepLink': '994261241377818|tapcolor|https://www.facebook.com/329700151167267/posts/994261241377818/'}, {'eventId': 299759, 'picId': '210705-pwNPp4Thh.jpg', 'filePath': 'color/1.0/banners/210705/210705-pwNPp4Thh.jpg', 'fileMd5': 'x2Hz0VjwZ7ZbbYBQ50R/Qg==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210705, 'expireDate': 20220705, 'deepLink': '993663031437639|tapcolor|https://www.facebook.com/329700151167267/posts/993663031437639/'}, {'eventId': 299758, 'picId': '210702-NjWuU8eeR.png', 'filePath': 'color/1.0/banners/210702/210702-NjWuU8eeR.png', 'fileMd5': 'HYyjJW9w0+56H0qWbC953Q==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210704, 'expireDate': 20220702, 'deepLink': '991816091622333|tapcolor|https://www.facebook.com/329700151167267/posts/991816091622333/'}]}}</t>
         </is>
       </c>
     </row>
@@ -3630,12 +3640,12 @@
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>FAIL</t>
+          <t>PASS</t>
         </is>
       </c>
       <c r="L52" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1625386182', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 292545, 'picId': '210702-NjWuU8eeR.png', 'filePath': 'color/1.0/banners/210702/210702-NjWuU8eeR.png', 'fileMd5': 'HYyjJW9w0+56H0qWbC953Q==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210704, 'expireDate': 20220702, 'deepLink': '991816091622333|tapcolor|https://www.facebook.com/329700151167267/posts/991816091622333/'}, {'eventId': 292544, 'picId': '210702-0hCeISgUH.jpg', 'filePath': 'color/1.0/banners/210702/210702-0hCeISgUH.jpg', 'fileMd5': 'mks+FI2zzGx15KPBSF9U1w==', 'title': 'Vote For The Best', 'desc': 'Time to vote for your favorite pic!', 'buttonText': 'Go', 'unlockDate': 20210703, 'expireDate': 20220702, 'deepLink': '973347266758636|tapcolor|https://www.facebook.com/329700151167267/posts/973347266758636/'}, {'eventId': 292139, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210702, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 292543, 'picId': '210702-LsrzvU1r-.png', 'filePath': 'color/1.0/banners/210702/210702-LsrzvU1r-.png', 'fileMd5': 'RRJe38fNg6CNL4INgvqP5A==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210702, 'expireDate': 20220702, 'deepLink': '991800044957271|tapcolor|https://www.facebook.com/329700151167267/posts/991800044957271/'}, {'eventId': 292542, 'picId': '210701-f7nyRV70T.png', 'filePath': 'color/1.0/banners/210701/210701-f7nyRV70T.png', 'fileMd5': 'lUzmHaRU1WAE5GJ2KmuFGg==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210701, 'expireDate': 20220701, 'deepLink': '991242701679672|tapcolor|https://www.facebook.com/329700151167267/posts/991242701679672/'}, {'eventId': 292541, 'picId': '210630-X21kphz3e.png', 'filePath': 'color/1.0/banners/210630/210630-X21kphz3e.png', 'fileMd5': 'PVLKPfywLlnM2uUa4PHSwA==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210630, 'expireDate': 20220630, 'deepLink': '990601145077161|tapcolor|https://www.facebook.com/329700151167267/posts/990601145077161/'}, {'eventId': 292540, 'picId': '210629-XBujjYqhn.jpg', 'filePath': 'color/1.0/banners/210629/210629-XBujjYqhn.jpg', 'fileMd5': '6ENBaZWVtBgV4KoHt3YYDQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210629, 'expireDate': 20220629, 'deepLink': '989889275148348|tapcolor|https://www.facebook.com/329700151167267/posts/989889275148348/'}, {'eventId': 292539, 'picId': '210628-qyr_0KmCc.png', 'filePath': 'color/1.0/banners/210628/210628-qyr_0KmCc.png', 'fileMd5': 'ccX6/PPhJmoQRDmK1gA0/g==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210628, 'expireDate': 20220628, 'deepLink': '989236978546911|tapcolor|https://www.facebook.com/329700151167267/posts/989236978546911/'}, {'eventId': 292538, 'picId': '210625-CU3wURQlU.png', 'filePath': 'color/1.0/banners/210625/210625-CU3wURQlU.png', 'fileMd5': 'c1m4A0W8kDmC23NmGrSsBA==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210626, 'expireDate': 20220625, 'deepLink': '987338545403421|tapcolor|https://www.facebook.com/329700151167267/posts/987338545403421/'}]}}</t>
+          <t>{'error_code': 666, 'error_msg': 'path: game_ver, error: game_ver must have a length between 3 and 9.'}</t>
         </is>
       </c>
     </row>

--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -3,14 +3,14 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" windowWidth="28125" windowHeight="14940" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="480" windowWidth="29040" windowHeight="15840" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Color" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="144525" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -19,7 +19,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyymmdd"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="12">
     <font>
       <name val="等线"/>
       <charset val="134"/>
@@ -87,22 +87,8 @@
     </font>
     <font>
       <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFFFFFF"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF3F3F76"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
+      <charset val="134"/>
+      <family val="3"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -110,119 +96,18 @@
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="13"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color theme="0"/>
-      <sz val="11"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
     <font>
       <name val="等线"/>
       <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C0006"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF800080"/>
-      <sz val="11"/>
-      <u val="single"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFF0000"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="18"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <i val="1"/>
-      <color rgb="FF7F7F7F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="134"/>
-      <b val="1"/>
-      <color theme="3"/>
-      <sz val="15"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF9C6500"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FF3F3F3F"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <b val="1"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FFFA7D00"/>
-      <sz val="11"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="等线"/>
-      <charset val="0"/>
-      <color rgb="FF006100"/>
-      <sz val="11"/>
+      <family val="3"/>
+      <sz val="9"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="3">
     <fill>
       <patternFill/>
     </fill>
@@ -235,194 +120,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -445,256 +144,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="7" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="8" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="3" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="2" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="0"/>
@@ -705,13 +164,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="10">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -734,58 +193,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="2">
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="超連結" xfId="1" builtinId="8"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -1111,6 +528,7 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -1122,127 +540,127 @@
   </sheetPr>
   <dimension ref="A1:L58"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="A1" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L2" sqref="L2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="39" defaultRowHeight="30" customHeight="1"/>
   <cols>
-    <col width="8.5" customWidth="1" style="4" min="1" max="1"/>
-    <col width="16.125" customWidth="1" style="4" min="2" max="2"/>
-    <col width="7.5" customWidth="1" style="4" min="3" max="3"/>
-    <col width="13.875" customWidth="1" style="4" min="4" max="5"/>
-    <col width="31.5" customWidth="1" style="4" min="6" max="6"/>
-    <col width="8.875" customWidth="1" style="4" min="7" max="7"/>
-    <col width="94" customWidth="1" style="4" min="8" max="8"/>
-    <col width="35.5" customWidth="1" style="4" min="9" max="9"/>
-    <col width="15.625" customWidth="1" style="5" min="10" max="10"/>
-    <col width="39" customWidth="1" style="4" min="11" max="11"/>
-    <col width="44.75" customWidth="1" style="4" min="12" max="12"/>
-    <col width="39" customWidth="1" style="4" min="13" max="16384"/>
+    <col width="8.5" customWidth="1" style="3" min="1" max="1"/>
+    <col width="16.125" customWidth="1" style="3" min="2" max="2"/>
+    <col width="7.5" customWidth="1" style="3" min="3" max="3"/>
+    <col width="13.875" customWidth="1" style="3" min="4" max="5"/>
+    <col width="31.5" customWidth="1" style="3" min="6" max="6"/>
+    <col width="8.875" customWidth="1" style="3" min="7" max="7"/>
+    <col width="94" customWidth="1" style="3" min="8" max="8"/>
+    <col width="35.5" customWidth="1" style="3" min="9" max="9"/>
+    <col width="15.625" customWidth="1" style="4" min="10" max="10"/>
+    <col width="39" customWidth="1" style="3" min="11" max="11"/>
+    <col width="44.75" customWidth="1" style="3" min="12" max="12"/>
+    <col width="39" customWidth="1" style="3" min="13" max="19"/>
+    <col width="39" customWidth="1" style="3" min="20" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.6" customFormat="1" customHeight="1" s="3">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="18.6" customFormat="1" customHeight="1" s="2">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>Case_ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Is_Run</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Precondition</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Depend_key</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Url</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>Method</t>
         </is>
       </c>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Data</t>
         </is>
       </c>
-      <c r="I1" s="11" t="inlineStr">
+      <c r="I1" s="10" t="inlineStr">
         <is>
           <t>Expected_Method</t>
         </is>
       </c>
-      <c r="J1" s="12" t="inlineStr">
+      <c r="J1" s="11" t="inlineStr">
         <is>
           <t>Expected_Result</t>
         </is>
       </c>
-      <c r="K1" s="3" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>ExecuteResult</t>
         </is>
       </c>
-      <c r="L1" s="3" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>ResponseResult</t>
         </is>
       </c>
     </row>
     <row r="2" ht="28.5" customHeight="1">
-      <c r="A2" s="4" t="inlineStr">
+      <c r="A2" s="3" t="inlineStr">
         <is>
           <t>color_1</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>banner安卓接口正常访问</t>
         </is>
       </c>
-      <c r="C2" s="4" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="F2" s="6" t="inlineStr">
+      <c r="F2" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/</t>
         </is>
       </c>
-      <c r="G2" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H2" s="7" t="inlineStr">
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H2" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "","game_actDay": 1, "group_id": 55}</t>
         </is>
       </c>
-      <c r="I2" s="13" t="inlineStr">
+      <c r="I2" s="12" t="inlineStr">
         <is>
           <t>errorCode</t>
         </is>
       </c>
-      <c r="J2" s="5" t="inlineStr">
+      <c r="J2" s="4" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
@@ -1252,49 +670,59 @@
           <t>PASS</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081967', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}]}}</t>
+      <c r="L2" s="15" t="inlineStr">
+        <is>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626684078', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': '930939901043286|tapcolor|https://www.facebook.com/329700151167267/posts/930939901043286/', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210713-dNR0ARPZc.png', 'picUrl': 'color/1.0/banners/210713/210713-dNR0ARPZc.png?ver=+mx4D+oT3mc39rQCzAv65Q==', 'picMd5': '+mx4D+oT3mc39rQCzAv65Q==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20210713, 'expireDate': 20220713, 'minVersion': 40000, 'platform': '["Android"]', 'minPlayDays': 0}, {'action': 'page:feature:20036', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '210714-4x75lo0gj.png', 'picUrl': 'color/1.0/banners/210714/210714-4x75lo0gj.png?ver=2f3zFfLmYjRI3dDgRu9pbA==', 'picMd5': '2f3zFfLmYjRI3dDgRu9pbA==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20210715, 'expireDate': 20210725, 'minVersion': 40000, 'platform': '["Android", "Ios"]', 'minPlayDays': 0}, {'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}]}}</t>
         </is>
       </c>
     </row>
     <row r="3" ht="28.5" customHeight="1">
-      <c r="A3" s="4" t="inlineStr">
+      <c r="A3" s="3" t="inlineStr">
         <is>
           <t>color_2</t>
         </is>
       </c>
-      <c r="B3" s="4" t="inlineStr">
+      <c r="B3" s="3" t="inlineStr">
         <is>
           <t>banner安卓接口game_ver参数异常</t>
         </is>
       </c>
-      <c r="C3" s="4" t="inlineStr">
+      <c r="C3" s="3" t="inlineStr">
         <is>
           <t>yes</t>
         </is>
       </c>
-      <c r="F3" s="6" t="inlineStr">
+      <c r="D3" s="14" t="inlineStr">
+        <is>
+          <t>color_1&gt;data.bannerList[0].action</t>
+        </is>
+      </c>
+      <c r="E3" s="14" t="inlineStr">
+        <is>
+          <t>game_ver</t>
+        </is>
+      </c>
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/</t>
         </is>
       </c>
-      <c r="G3" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H3" s="7" t="inlineStr">
+      <c r="G3" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H3" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6", "register_ver": "6.7.4", "register_date": "20210617","game_date": "","game_actDay": 1, "group_id": 55}</t>
         </is>
       </c>
-      <c r="I3" s="13" t="inlineStr">
-        <is>
-          <t>errorMsg</t>
-        </is>
-      </c>
-      <c r="J3" s="14" t="n"/>
+      <c r="I3" s="12" t="inlineStr">
+        <is>
+          <t>errorMsg</t>
+        </is>
+      </c>
+      <c r="J3" s="13" t="n"/>
       <c r="K3" t="inlineStr">
         <is>
           <t>PASS</t>
@@ -1307,42 +735,42 @@
       </c>
     </row>
     <row r="4" ht="28.5" customHeight="1">
-      <c r="A4" s="4" t="inlineStr">
+      <c r="A4" s="3" t="inlineStr">
         <is>
           <t>color_3</t>
         </is>
       </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B4" s="3" t="inlineStr">
         <is>
           <t>banner安卓接口os_type参数异常</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F4" s="6" t="inlineStr">
+      <c r="C4" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/</t>
         </is>
       </c>
-      <c r="G4" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H4" s="7" t="inlineStr">
+      <c r="G4" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H4" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "An", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "","game_actDay": 1, "group_id": 55}</t>
         </is>
       </c>
-      <c r="I4" s="13" t="inlineStr">
-        <is>
-          <t>errorMsg</t>
-        </is>
-      </c>
-      <c r="J4" s="14" t="n"/>
+      <c r="I4" s="12" t="inlineStr">
+        <is>
+          <t>errorMsg</t>
+        </is>
+      </c>
+      <c r="J4" s="13" t="n"/>
       <c r="K4" t="inlineStr">
         <is>
           <t>PASS</t>
@@ -1355,42 +783,42 @@
       </c>
     </row>
     <row r="5" ht="42.75" customHeight="1">
-      <c r="A5" s="4" t="inlineStr">
+      <c r="A5" s="3" t="inlineStr">
         <is>
           <t>color_4</t>
         </is>
       </c>
-      <c r="B5" s="4" t="inlineStr">
+      <c r="B5" s="3" t="inlineStr">
         <is>
           <t>banner安卓接口register_date参数异常</t>
         </is>
       </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F5" s="6" t="inlineStr">
+      <c r="C5" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/</t>
         </is>
       </c>
-      <c r="G5" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="inlineStr">
+      <c r="G5" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H5" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "2021-06-17","game_date": "","game_actDay": 1, "group_id": 55}</t>
         </is>
       </c>
-      <c r="I5" s="13" t="inlineStr">
-        <is>
-          <t>errorMsg</t>
-        </is>
-      </c>
-      <c r="J5" s="14" t="n"/>
+      <c r="I5" s="12" t="inlineStr">
+        <is>
+          <t>errorMsg</t>
+        </is>
+      </c>
+      <c r="J5" s="13" t="n"/>
       <c r="K5" t="inlineStr">
         <is>
           <t>PASS</t>
@@ -1403,42 +831,44 @@
       </c>
     </row>
     <row r="6" ht="42.75" customHeight="1">
-      <c r="A6" s="4" t="inlineStr">
+      <c r="A6" s="3" t="inlineStr">
         <is>
           <t>color_5</t>
         </is>
       </c>
-      <c r="B6" s="4" t="inlineStr">
+      <c r="B6" s="3" t="inlineStr">
         <is>
           <t>banner安卓接口game_actDay参数异常</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F6" s="6" t="inlineStr">
+      <c r="C6" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D6" s="14" t="n"/>
+      <c r="E6" s="14" t="n"/>
+      <c r="F6" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/</t>
         </is>
       </c>
-      <c r="G6" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H6" s="7" t="inlineStr">
+      <c r="G6" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H6" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "","game_actDay":"", "group_id": 55}</t>
         </is>
       </c>
-      <c r="I6" s="13" t="inlineStr">
-        <is>
-          <t>errorMsg</t>
-        </is>
-      </c>
-      <c r="J6" s="14" t="n"/>
+      <c r="I6" s="12" t="inlineStr">
+        <is>
+          <t>errorMsg</t>
+        </is>
+      </c>
+      <c r="J6" s="13" t="n"/>
       <c r="K6" t="inlineStr">
         <is>
           <t>PASS</t>
@@ -1451,42 +881,42 @@
       </c>
     </row>
     <row r="7" ht="28.5" customHeight="1">
-      <c r="A7" s="4" t="inlineStr">
+      <c r="A7" s="3" t="inlineStr">
         <is>
           <t>color_6</t>
         </is>
       </c>
-      <c r="B7" s="4" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>banner安卓接口group_id参数异常</t>
         </is>
       </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F7" s="6" t="inlineStr">
+      <c r="C7" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/</t>
         </is>
       </c>
-      <c r="G7" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H7" s="7" t="inlineStr">
+      <c r="G7" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H7" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "","game_actDay": 1, "group_id": 12344}</t>
         </is>
       </c>
-      <c r="I7" s="13" t="inlineStr">
-        <is>
-          <t>errorMsg</t>
-        </is>
-      </c>
-      <c r="J7" s="14" t="n"/>
+      <c r="I7" s="12" t="inlineStr">
+        <is>
+          <t>errorMsg</t>
+        </is>
+      </c>
+      <c r="J7" s="13" t="n"/>
       <c r="K7" t="inlineStr">
         <is>
           <t>PASS</t>
@@ -1499,42 +929,42 @@
       </c>
     </row>
     <row r="8" ht="42.75" customHeight="1">
-      <c r="A8" s="4" t="inlineStr">
+      <c r="A8" s="3" t="inlineStr">
         <is>
           <t>color_7</t>
         </is>
       </c>
-      <c r="B8" s="4" t="inlineStr">
+      <c r="B8" s="3" t="inlineStr">
         <is>
           <t>banner安卓接口game_date参数异常</t>
         </is>
       </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F8" s="6" t="inlineStr">
+      <c r="C8" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F8" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/</t>
         </is>
       </c>
-      <c r="G8" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H8" s="7" t="inlineStr">
+      <c r="G8" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H8" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date": "12","game_actDay": 1, "group_id": 55}</t>
         </is>
       </c>
-      <c r="I8" s="13" t="inlineStr">
-        <is>
-          <t>errorMsg</t>
-        </is>
-      </c>
-      <c r="J8" s="14" t="n"/>
+      <c r="I8" s="12" t="inlineStr">
+        <is>
+          <t>errorMsg</t>
+        </is>
+      </c>
+      <c r="J8" s="13" t="n"/>
       <c r="K8" t="inlineStr">
         <is>
           <t>PASS</t>
@@ -1547,42 +977,42 @@
       </c>
     </row>
     <row r="9" ht="28.5" customHeight="1">
-      <c r="A9" s="4" t="inlineStr">
+      <c r="A9" s="3" t="inlineStr">
         <is>
           <t>color_8</t>
         </is>
       </c>
-      <c r="B9" s="4" t="inlineStr">
+      <c r="B9" s="3" t="inlineStr">
         <is>
           <t>language安卓接口正常访问</t>
         </is>
       </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F9" s="8" t="inlineStr">
+      <c r="C9" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F9" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/</t>
         </is>
       </c>
-      <c r="G9" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H9" s="7" t="inlineStr">
+      <c r="G9" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H9" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date":"" ,"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}</t>
         </is>
       </c>
-      <c r="I9" s="13" t="inlineStr">
+      <c r="I9" s="12" t="inlineStr">
         <is>
           <t>errorCode</t>
         </is>
       </c>
-      <c r="J9" s="5" t="inlineStr">
+      <c r="J9" s="4" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
@@ -1594,42 +1024,42 @@
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081972', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不', 'skip': '跳过动画', 'Restore': '恢复订阅', 'purchased items': '已购商品', 'Subscription FAQ': '内购问题FAQ', 'Daily Challenge title': '每日挑战', 'Daily Challenge description': '快来开启每日挑战！', 'Get stuck? Use hints': '找不到小色块？用用提示～', 'Available storage space of your device is less than 25M. Clear Cache for a better experience.': '可用存储空间不足25M，清理缓存以获得更多存储空间。', 'Clearing the cache will not affect normal use': '清理缓存不影响正常填色'}, 'version': '1625722553'}, 'apiName': 'getLanguage'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626683871', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不', 'skip': '跳过动画', 'Restore': '恢复订阅', 'purchased items': '已购商品', 'Subscription FAQ': '内购问题FAQ', 'Daily Challenge title': '每日挑战', 'Daily Challenge description': '快来开启每日挑战！', 'Get stuck? Use hints': '找不到小色块？用用提示～', 'Available storage space of your device is less than 25M. Clear Cache for a better experience.': '可用存储空间不足25M，清理缓存以获得更多存储空间。', 'Clearing the cache will not affect normal use': '清理缓存不影响正常填色', 'color1F1F1F Daily Challenge title': '&lt;color=#1F1F1F&gt;每日挑战&lt;/color&gt;', 'color3B3B3B Daily Challenge description': '&lt;color=#3B3B3B&gt;快来开启每日挑战！&lt;/color&gt;', 'color1E70DB Sign in with facebook': '&lt;color=#1E70DB&gt;通过Facebook登录&lt;/color&gt;', 'colorFFFFFF Facebook group title': 'Facebook社区', 'colorFEFEFF Facebook group description': '加入社区获取每日奖励图片！', 'colorF06895 sync data &amp; get hints': '同步数据+获取免费hint！', 'Gothic Queens': '哥特皇后', 'The Fantasy Art of Anne Stokes.': 'Anne Stokes的奇幻艺术'}, 'version': '1626260147'}, 'apiName': 'getLanguage'}</t>
         </is>
       </c>
     </row>
     <row r="10" ht="28.5" customHeight="1">
-      <c r="A10" s="4" t="inlineStr">
+      <c r="A10" s="3" t="inlineStr">
         <is>
           <t>color_9</t>
         </is>
       </c>
-      <c r="B10" s="4" t="inlineStr">
+      <c r="B10" s="3" t="inlineStr">
         <is>
           <t>language安卓接口game_ver参数异常</t>
         </is>
       </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F10" s="8" t="inlineStr">
+      <c r="C10" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F10" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/</t>
         </is>
       </c>
-      <c r="G10" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H10" s="7" t="inlineStr">
+      <c r="G10" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "5", "register_ver": "6.7.4", "register_date": "20210617","game_date":"" ,"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}</t>
         </is>
       </c>
-      <c r="I10" s="13" t="inlineStr">
+      <c r="I10" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -1646,37 +1076,37 @@
       </c>
     </row>
     <row r="11" ht="28.5" customHeight="1">
-      <c r="A11" s="4" t="inlineStr">
+      <c r="A11" s="3" t="inlineStr">
         <is>
           <t>color_10</t>
         </is>
       </c>
-      <c r="B11" s="4" t="inlineStr">
+      <c r="B11" s="3" t="inlineStr">
         <is>
           <t>language安卓接口os_type参数异常</t>
         </is>
       </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F11" s="8" t="inlineStr">
+      <c r="C11" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F11" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/</t>
         </is>
       </c>
-      <c r="G11" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H11" s="7" t="inlineStr">
+      <c r="G11" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H11" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "A", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date":"" ,"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}</t>
         </is>
       </c>
-      <c r="I11" s="13" t="inlineStr">
+      <c r="I11" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -1693,37 +1123,37 @@
       </c>
     </row>
     <row r="12" ht="28.5" customHeight="1">
-      <c r="A12" s="4" t="inlineStr">
+      <c r="A12" s="3" t="inlineStr">
         <is>
           <t>color_11</t>
         </is>
       </c>
-      <c r="B12" s="4" t="inlineStr">
+      <c r="B12" s="3" t="inlineStr">
         <is>
           <t>language安卓接口register_date参数异常</t>
         </is>
       </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F12" s="8" t="inlineStr">
+      <c r="C12" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F12" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/</t>
         </is>
       </c>
-      <c r="G12" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H12" s="7" t="inlineStr">
+      <c r="G12" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H12" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "2021-06-17","game_date":"" ,"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}</t>
         </is>
       </c>
-      <c r="I12" s="13" t="inlineStr">
+      <c r="I12" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -1740,37 +1170,37 @@
       </c>
     </row>
     <row r="13" ht="28.5" customHeight="1">
-      <c r="A13" s="4" t="inlineStr">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>color_12</t>
         </is>
       </c>
-      <c r="B13" s="4" t="inlineStr">
+      <c r="B13" s="3" t="inlineStr">
         <is>
           <t>language安卓接口game_actDay参数异常</t>
         </is>
       </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F13" s="8" t="inlineStr">
+      <c r="C13" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F13" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/</t>
         </is>
       </c>
-      <c r="G13" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H13" s="7" t="inlineStr">
+      <c r="G13" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H13" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date":"" ,"game_actDay": "", "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}</t>
         </is>
       </c>
-      <c r="I13" s="13" t="inlineStr">
+      <c r="I13" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -1787,37 +1217,37 @@
       </c>
     </row>
     <row r="14" ht="28.5" customHeight="1">
-      <c r="A14" s="4" t="inlineStr">
+      <c r="A14" s="3" t="inlineStr">
         <is>
           <t>color_13</t>
         </is>
       </c>
-      <c r="B14" s="4" t="inlineStr">
+      <c r="B14" s="3" t="inlineStr">
         <is>
           <t>language安卓接口group_id参数异常</t>
         </is>
       </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F14" s="8" t="inlineStr">
+      <c r="C14" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F14" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/</t>
         </is>
       </c>
-      <c r="G14" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H14" s="7" t="inlineStr">
+      <c r="G14" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H14" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date":"" ,"game_actDay": 1, "group_id": 5555, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}</t>
         </is>
       </c>
-      <c r="I14" s="13" t="inlineStr">
+      <c r="I14" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -1834,37 +1264,37 @@
       </c>
     </row>
     <row r="15" ht="28.5" customHeight="1">
-      <c r="A15" s="4" t="inlineStr">
+      <c r="A15" s="3" t="inlineStr">
         <is>
           <t>color_14</t>
         </is>
       </c>
-      <c r="B15" s="4" t="inlineStr">
+      <c r="B15" s="3" t="inlineStr">
         <is>
           <t>language安卓接口game_date参数异常</t>
         </is>
       </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F15" s="8" t="inlineStr">
+      <c r="C15" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F15" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/</t>
         </is>
       </c>
-      <c r="G15" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H15" s="7" t="inlineStr">
+      <c r="G15" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H15" s="6" t="inlineStr">
         <is>
           <t>{"os_type": "Android", "game_ver": "6.7.5", "register_ver": "6.7.4", "register_date": "20210617","game_date":"12" ,"game_actDay": 1, "group_id": 55, "language_key": "ChineseSimplified", "language_version": "-1", "force_get": "1"}</t>
         </is>
       </c>
-      <c r="I15" s="13" t="inlineStr">
+      <c r="I15" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -1881,42 +1311,42 @@
       </c>
     </row>
     <row r="16" ht="28.5" customHeight="1">
-      <c r="A16" s="4" t="inlineStr">
+      <c r="A16" s="3" t="inlineStr">
         <is>
           <t>color_15</t>
         </is>
       </c>
-      <c r="B16" s="4" t="inlineStr">
+      <c r="B16" s="3" t="inlineStr">
         <is>
           <t>groupConfig安卓接口正常访问</t>
         </is>
       </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F16" s="6" t="inlineStr">
+      <c r="C16" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F16" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/</t>
         </is>
       </c>
-      <c r="G16" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H16" s="9" t="inlineStr">
+      <c r="G16" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H16" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}</t>
         </is>
       </c>
-      <c r="I16" s="13" t="inlineStr">
+      <c r="I16" s="12" t="inlineStr">
         <is>
           <t>errorCode</t>
         </is>
       </c>
-      <c r="J16" s="5" t="inlineStr">
+      <c r="J16" s="4" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
@@ -1928,42 +1358,42 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081977', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B"}'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626683876', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B","u_finish_new":"24,1|24,2|24,3|24,4|24,5|48,3|48,5|48,7|48,9|168,15","u_reward_video_new":"24,1|24,2|24,3|24,4|24,5|48,3|48,5|48,7|48,9|168,12","u_hint_new":"24,1|24,2|24,3|24,4|24,5|48,3|48,5|48,7|48,9|168,10","u_color_time_new":"4,300|24,600|24,900|24,1200|24,1800|24,3600|48,1800|48,3600|48,7200|168,18000"}'}</t>
         </is>
       </c>
     </row>
     <row r="17" ht="28.5" customHeight="1">
-      <c r="A17" s="4" t="inlineStr">
+      <c r="A17" s="3" t="inlineStr">
         <is>
           <t>color_16</t>
         </is>
       </c>
-      <c r="B17" s="4" t="inlineStr">
+      <c r="B17" s="3" t="inlineStr">
         <is>
           <t>groupConfig安卓接口game_ver参数异常</t>
         </is>
       </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F17" s="6" t="inlineStr">
+      <c r="C17" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F17" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/</t>
         </is>
       </c>
-      <c r="G17" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H17" s="9" t="inlineStr">
+      <c r="G17" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H17" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}</t>
         </is>
       </c>
-      <c r="I17" s="13" t="inlineStr">
+      <c r="I17" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -1980,37 +1410,37 @@
       </c>
     </row>
     <row r="18" ht="28.5" customHeight="1">
-      <c r="A18" s="4" t="inlineStr">
+      <c r="A18" s="3" t="inlineStr">
         <is>
           <t>color_17</t>
         </is>
       </c>
-      <c r="B18" s="4" t="inlineStr">
+      <c r="B18" s="3" t="inlineStr">
         <is>
           <t>groupConfig安卓接口os_type参数异常</t>
         </is>
       </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F18" s="6" t="inlineStr">
+      <c r="C18" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F18" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/</t>
         </is>
       </c>
-      <c r="G18" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H18" s="9" t="inlineStr">
+      <c r="G18" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H18" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"oid","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}</t>
         </is>
       </c>
-      <c r="I18" s="13" t="inlineStr">
+      <c r="I18" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2027,37 +1457,37 @@
       </c>
     </row>
     <row r="19" ht="28.5" customHeight="1">
-      <c r="A19" s="4" t="inlineStr">
+      <c r="A19" s="3" t="inlineStr">
         <is>
           <t>color_18</t>
         </is>
       </c>
-      <c r="B19" s="4" t="inlineStr">
+      <c r="B19" s="3" t="inlineStr">
         <is>
           <t>groupConfig安卓接口register_date参数异常</t>
         </is>
       </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F19" s="6" t="inlineStr">
+      <c r="C19" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F19" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/</t>
         </is>
       </c>
-      <c r="G19" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H19" s="9" t="inlineStr">
+      <c r="G19" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H19" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"2021-06-17","game_date": "","game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}</t>
         </is>
       </c>
-      <c r="I19" s="13" t="inlineStr">
+      <c r="I19" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2074,37 +1504,37 @@
       </c>
     </row>
     <row r="20" ht="28.5" customHeight="1">
-      <c r="A20" s="4" t="inlineStr">
+      <c r="A20" s="3" t="inlineStr">
         <is>
           <t>color_19</t>
         </is>
       </c>
-      <c r="B20" s="4" t="inlineStr">
+      <c r="B20" s="3" t="inlineStr">
         <is>
           <t>groupConfig安卓接口game_actDay参数异常</t>
         </is>
       </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F20" s="6" t="inlineStr">
+      <c r="C20" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F20" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/</t>
         </is>
       </c>
-      <c r="G20" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H20" s="9" t="inlineStr">
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H20" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":"","group_id":63,"language_key":"ChineseSimplified"}</t>
         </is>
       </c>
-      <c r="I20" s="13" t="inlineStr">
+      <c r="I20" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2121,37 +1551,37 @@
       </c>
     </row>
     <row r="21" ht="28.5" customHeight="1">
-      <c r="A21" s="4" t="inlineStr">
+      <c r="A21" s="3" t="inlineStr">
         <is>
           <t>color_20</t>
         </is>
       </c>
-      <c r="B21" s="4" t="inlineStr">
+      <c r="B21" s="3" t="inlineStr">
         <is>
           <t>groupConfig安卓接口group_id参数异常</t>
         </is>
       </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F21" s="6" t="inlineStr">
+      <c r="C21" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F21" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/</t>
         </is>
       </c>
-      <c r="G21" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H21" s="9" t="inlineStr">
+      <c r="G21" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H21" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":6553,"language_key":"ChineseSimplified"}</t>
         </is>
       </c>
-      <c r="I21" s="13" t="inlineStr">
+      <c r="I21" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2168,37 +1598,37 @@
       </c>
     </row>
     <row r="22" ht="28.5" customHeight="1">
-      <c r="A22" s="4" t="inlineStr">
+      <c r="A22" s="3" t="inlineStr">
         <is>
           <t>color_21</t>
         </is>
       </c>
-      <c r="B22" s="4" t="inlineStr">
+      <c r="B22" s="3" t="inlineStr">
         <is>
           <t>groupConfig安卓接口game_date参数异常</t>
         </is>
       </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F22" s="6" t="inlineStr">
+      <c r="C22" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F22" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/</t>
         </is>
       </c>
-      <c r="G22" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H22" s="9" t="inlineStr">
+      <c r="G22" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H22" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "12","game_actDay":1,"group_id":63,"language_key":"ChineseSimplified"}</t>
         </is>
       </c>
-      <c r="I22" s="13" t="inlineStr">
+      <c r="I22" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2215,42 +1645,42 @@
       </c>
     </row>
     <row r="23" ht="28.5" customHeight="1">
-      <c r="A23" s="4" t="inlineStr">
+      <c r="A23" s="3" t="inlineStr">
         <is>
           <t>color_22</t>
         </is>
       </c>
-      <c r="B23" s="4" t="inlineStr">
+      <c r="B23" s="3" t="inlineStr">
         <is>
           <t>discount安卓接口正常访问</t>
         </is>
       </c>
-      <c r="C23" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F23" s="8" t="inlineStr">
+      <c r="C23" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F23" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/</t>
         </is>
       </c>
-      <c r="G23" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H23" s="9" t="inlineStr">
+      <c r="G23" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H23" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"is_vip":"0"}</t>
         </is>
       </c>
-      <c r="I23" s="13" t="inlineStr">
+      <c r="I23" s="12" t="inlineStr">
         <is>
           <t>errorCode</t>
         </is>
       </c>
-      <c r="J23" s="5" t="inlineStr">
+      <c r="J23" s="4" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
@@ -2262,42 +1692,42 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081981', 'apiName': 'getDiscount', 'data': []}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626683881', 'apiName': 'getDiscount', 'data': []}</t>
         </is>
       </c>
     </row>
     <row r="24" ht="28.5" customHeight="1">
-      <c r="A24" s="4" t="inlineStr">
+      <c r="A24" s="3" t="inlineStr">
         <is>
           <t>color_23</t>
         </is>
       </c>
-      <c r="B24" s="4" t="inlineStr">
+      <c r="B24" s="3" t="inlineStr">
         <is>
           <t>discount安卓接口game_ver参数异常</t>
         </is>
       </c>
-      <c r="C24" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F24" s="8" t="inlineStr">
+      <c r="C24" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F24" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/</t>
         </is>
       </c>
-      <c r="G24" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H24" s="9" t="inlineStr">
+      <c r="G24" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H24" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"is_vip":"0"}</t>
         </is>
       </c>
-      <c r="I24" s="13" t="inlineStr">
+      <c r="I24" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2314,37 +1744,37 @@
       </c>
     </row>
     <row r="25" ht="28.5" customHeight="1">
-      <c r="A25" s="4" t="inlineStr">
+      <c r="A25" s="3" t="inlineStr">
         <is>
           <t>color_24</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
+      <c r="B25" s="3" t="inlineStr">
         <is>
           <t>discount安卓接口os_type参数异常</t>
         </is>
       </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F25" s="8" t="inlineStr">
+      <c r="C25" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F25" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/</t>
         </is>
       </c>
-      <c r="G25" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H25" s="9" t="inlineStr">
+      <c r="G25" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H25" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"An","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"is_vip":"0"}</t>
         </is>
       </c>
-      <c r="I25" s="13" t="inlineStr">
+      <c r="I25" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2361,37 +1791,37 @@
       </c>
     </row>
     <row r="26" ht="42.75" customHeight="1">
-      <c r="A26" s="4" t="inlineStr">
+      <c r="A26" s="3" t="inlineStr">
         <is>
           <t>color_25</t>
         </is>
       </c>
-      <c r="B26" s="4" t="inlineStr">
+      <c r="B26" s="3" t="inlineStr">
         <is>
           <t>discount安卓接口register_date参数异常</t>
         </is>
       </c>
-      <c r="C26" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F26" s="8" t="inlineStr">
+      <c r="C26" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F26" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/</t>
         </is>
       </c>
-      <c r="G26" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H26" s="9" t="inlineStr">
+      <c r="G26" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H26" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"2021-06-17","game_date": "","game_actDay":1,"group_id":63,"is_vip":"0"}</t>
         </is>
       </c>
-      <c r="I26" s="13" t="inlineStr">
+      <c r="I26" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2408,37 +1838,37 @@
       </c>
     </row>
     <row r="27" ht="42.75" customHeight="1">
-      <c r="A27" s="4" t="inlineStr">
+      <c r="A27" s="3" t="inlineStr">
         <is>
           <t>color_26</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
+      <c r="B27" s="3" t="inlineStr">
         <is>
           <t>discount安卓接口game_actDay参数异常</t>
         </is>
       </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F27" s="8" t="inlineStr">
+      <c r="C27" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F27" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/</t>
         </is>
       </c>
-      <c r="G27" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H27" s="9" t="inlineStr">
+      <c r="G27" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H27" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":"","group_id":63,"is_vip":"0"}</t>
         </is>
       </c>
-      <c r="I27" s="13" t="inlineStr">
+      <c r="I27" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2455,37 +1885,37 @@
       </c>
     </row>
     <row r="28" ht="28.5" customHeight="1">
-      <c r="A28" s="4" t="inlineStr">
+      <c r="A28" s="3" t="inlineStr">
         <is>
           <t>color_27</t>
         </is>
       </c>
-      <c r="B28" s="4" t="inlineStr">
+      <c r="B28" s="3" t="inlineStr">
         <is>
           <t>discount安卓接口group_id参数异常</t>
         </is>
       </c>
-      <c r="C28" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F28" s="8" t="inlineStr">
+      <c r="C28" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F28" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/</t>
         </is>
       </c>
-      <c r="G28" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H28" s="9" t="inlineStr">
+      <c r="G28" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H28" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":6453,"is_vip":"0"}</t>
         </is>
       </c>
-      <c r="I28" s="13" t="inlineStr">
+      <c r="I28" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2502,37 +1932,37 @@
       </c>
     </row>
     <row r="29" ht="42.75" customHeight="1">
-      <c r="A29" s="4" t="inlineStr">
+      <c r="A29" s="3" t="inlineStr">
         <is>
           <t>color_28</t>
         </is>
       </c>
-      <c r="B29" s="4" t="inlineStr">
+      <c r="B29" s="3" t="inlineStr">
         <is>
           <t>discount安卓接口game_date参数异常</t>
         </is>
       </c>
-      <c r="C29" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F29" s="8" t="inlineStr">
+      <c r="C29" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F29" s="7" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/</t>
         </is>
       </c>
-      <c r="G29" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H29" s="9" t="inlineStr">
+      <c r="G29" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H29" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "12","game_actDay":1,"group_id":63,"is_vip":"0"}</t>
         </is>
       </c>
-      <c r="I29" s="13" t="inlineStr">
+      <c r="I29" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2549,42 +1979,42 @@
       </c>
     </row>
     <row r="30" ht="28.5" customHeight="1">
-      <c r="A30" s="4" t="inlineStr">
+      <c r="A30" s="3" t="inlineStr">
         <is>
           <t>color_29</t>
         </is>
       </c>
-      <c r="B30" s="4" t="inlineStr">
+      <c r="B30" s="3" t="inlineStr">
         <is>
           <t>gallerylist安卓接口正常访问</t>
         </is>
       </c>
-      <c r="C30" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F30" s="6" t="inlineStr">
+      <c r="C30" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F30" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/</t>
         </is>
       </c>
-      <c r="G30" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H30" s="9" t="inlineStr">
+      <c r="G30" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H30" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}</t>
         </is>
       </c>
-      <c r="I30" s="13" t="inlineStr">
+      <c r="I30" s="12" t="inlineStr">
         <is>
           <t>errorCode</t>
         </is>
       </c>
-      <c r="J30" s="5" t="inlineStr">
+      <c r="J30" s="4" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
@@ -2596,42 +2026,42 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081986', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626683778', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
         </is>
       </c>
     </row>
     <row r="31" ht="28.5" customHeight="1">
-      <c r="A31" s="4" t="inlineStr">
+      <c r="A31" s="3" t="inlineStr">
         <is>
           <t>color_30</t>
         </is>
       </c>
-      <c r="B31" s="4" t="inlineStr">
+      <c r="B31" s="3" t="inlineStr">
         <is>
           <t>gallerylist安卓接口game_ver参数异常</t>
         </is>
       </c>
-      <c r="C31" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F31" s="6" t="inlineStr">
+      <c r="C31" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F31" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/</t>
         </is>
       </c>
-      <c r="G31" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H31" s="9" t="inlineStr">
+      <c r="G31" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H31" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"65","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}</t>
         </is>
       </c>
-      <c r="I31" s="13" t="inlineStr">
+      <c r="I31" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2648,37 +2078,37 @@
       </c>
     </row>
     <row r="32" ht="28.5" customHeight="1">
-      <c r="A32" s="4" t="inlineStr">
+      <c r="A32" s="3" t="inlineStr">
         <is>
           <t>color_31</t>
         </is>
       </c>
-      <c r="B32" s="4" t="inlineStr">
+      <c r="B32" s="3" t="inlineStr">
         <is>
           <t>gallerylist安卓接口os_type参数异常</t>
         </is>
       </c>
-      <c r="C32" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F32" s="6" t="inlineStr">
+      <c r="C32" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F32" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/</t>
         </is>
       </c>
-      <c r="G32" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H32" s="9" t="inlineStr">
+      <c r="G32" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H32" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"id","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}</t>
         </is>
       </c>
-      <c r="I32" s="13" t="inlineStr">
+      <c r="I32" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2695,37 +2125,37 @@
       </c>
     </row>
     <row r="33" ht="42.75" customHeight="1">
-      <c r="A33" s="4" t="inlineStr">
+      <c r="A33" s="3" t="inlineStr">
         <is>
           <t>color_32</t>
         </is>
       </c>
-      <c r="B33" s="4" t="inlineStr">
+      <c r="B33" s="3" t="inlineStr">
         <is>
           <t>gallerylist安卓接口register_date参数异常</t>
         </is>
       </c>
-      <c r="C33" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F33" s="6" t="inlineStr">
+      <c r="C33" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F33" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/</t>
         </is>
       </c>
-      <c r="G33" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H33" s="9" t="inlineStr">
+      <c r="G33" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H33" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"2021-06-17","game_date": "","game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}</t>
         </is>
       </c>
-      <c r="I33" s="13" t="inlineStr">
+      <c r="I33" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2742,37 +2172,37 @@
       </c>
     </row>
     <row r="34" ht="42.75" customHeight="1">
-      <c r="A34" s="4" t="inlineStr">
+      <c r="A34" s="3" t="inlineStr">
         <is>
           <t>color_33</t>
         </is>
       </c>
-      <c r="B34" s="4" t="inlineStr">
+      <c r="B34" s="3" t="inlineStr">
         <is>
           <t>gallerylist安卓接口game_actDay参数异常</t>
         </is>
       </c>
-      <c r="C34" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F34" s="6" t="inlineStr">
+      <c r="C34" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F34" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/</t>
         </is>
       </c>
-      <c r="G34" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H34" s="9" t="inlineStr">
+      <c r="G34" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H34" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":"","group_id":63,"pic_type":"All","start_date":"20210617"}</t>
         </is>
       </c>
-      <c r="I34" s="13" t="inlineStr">
+      <c r="I34" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2789,37 +2219,37 @@
       </c>
     </row>
     <row r="35" ht="28.5" customHeight="1">
-      <c r="A35" s="4" t="inlineStr">
+      <c r="A35" s="3" t="inlineStr">
         <is>
           <t>color_34</t>
         </is>
       </c>
-      <c r="B35" s="4" t="inlineStr">
+      <c r="B35" s="3" t="inlineStr">
         <is>
           <t>gallerylist安卓接口group_id参数异常</t>
         </is>
       </c>
-      <c r="C35" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F35" s="6" t="inlineStr">
+      <c r="C35" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F35" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/</t>
         </is>
       </c>
-      <c r="G35" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H35" s="9" t="inlineStr">
+      <c r="G35" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H35" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":656563,"pic_type":"All","start_date":"20210617"}</t>
         </is>
       </c>
-      <c r="I35" s="13" t="inlineStr">
+      <c r="I35" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2836,37 +2266,37 @@
       </c>
     </row>
     <row r="36" ht="42.75" customHeight="1">
-      <c r="A36" s="4" t="inlineStr">
+      <c r="A36" s="3" t="inlineStr">
         <is>
           <t>color_35</t>
         </is>
       </c>
-      <c r="B36" s="4" t="inlineStr">
+      <c r="B36" s="3" t="inlineStr">
         <is>
           <t>gallerylist安卓接口game_date参数异常</t>
         </is>
       </c>
-      <c r="C36" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F36" s="6" t="inlineStr">
+      <c r="C36" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F36" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/</t>
         </is>
       </c>
-      <c r="G36" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H36" s="9" t="inlineStr">
+      <c r="G36" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H36" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "34","game_actDay":1,"group_id":63,"pic_type":"All","start_date":"20210617"}</t>
         </is>
       </c>
-      <c r="I36" s="13" t="inlineStr">
+      <c r="I36" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2883,42 +2313,42 @@
       </c>
     </row>
     <row r="37" ht="28.5" customHeight="1">
-      <c r="A37" s="4" t="inlineStr">
+      <c r="A37" s="3" t="inlineStr">
         <is>
           <t>color_36</t>
         </is>
       </c>
-      <c r="B37" s="4" t="inlineStr">
+      <c r="B37" s="3" t="inlineStr">
         <is>
           <t>featureconfig安卓接口正常访问</t>
         </is>
       </c>
-      <c r="C37" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F37" s="6" t="inlineStr">
+      <c r="C37" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F37" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/</t>
         </is>
       </c>
-      <c r="G37" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H37" s="9" t="inlineStr">
+      <c r="G37" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H37" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"offset":"0"}</t>
         </is>
       </c>
-      <c r="I37" s="13" t="inlineStr">
+      <c r="I37" s="12" t="inlineStr">
         <is>
           <t>errorCode</t>
         </is>
       </c>
-      <c r="J37" s="5" t="inlineStr">
+      <c r="J37" s="4" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
@@ -2930,42 +2360,42 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081993', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F1ZlrSsZyI', 'picType': 1, 'picUnlockDate': 20210502, 'picVipUnlockDate': 20210426, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'INxP6NAqXGgPoxlB9PYo7Q==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI.npic?ver=INxP6NAqXGgPoxlB9PYo7Q=='}, 'picThumbnail': {'md5': '33KzG3ujN2Aq8cq+/xmbPw==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_thumbnail.png?ver=33KzG3ujN2Aq8cq+/xmbPw=='}, 'picColorImg': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ=='}, 'picFrameImg': {'md5': 'QL48JDe3qvw7WaFAZNyOmg==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_frame.png?ver=QL48JDe3qvw7WaFAZNyOmg=='}, 'picColorfulThumbnail': {'md5': '2dIlV0Wuypptiur9Ous0SQ==', 'url': 'color/1.0/pics/pic_F1ZlrSsZyI/pic_F1ZlrSsZyI_color.jpg?ver=2dIlV0Wuypptiur9Ous0SQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DT8muj2m4t', 'picType': 1, 'picUnlockDate': 20210429, 'picVipUnlockDate': 20210423, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'G9YieephuTfXtzb0pDpOsw==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t.npic?ver=G9YieephuTfXtzb0pDpOsw=='}, 'picThumbnail': {'md5': 'Lp7x4FRVVVW1oQj9Pbpo4g==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_thumbnail.png?ver=Lp7x4FRVVVW1oQj9Pbpo4g=='}, 'picColorImg': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug=='}, 'picFrameImg': {'md5': 'Vj3t1S8EfA2Cjs8qgI1ImQ==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_frame.png?ver=Vj3t1S8EfA2Cjs8qgI1ImQ=='}, 'picColorfulThumbnail': {'md5': 'NldzZlZfccycz/qUyvjyug==', 'url': 'color/1.0/pics/pic_DT8muj2m4t/pic_DT8muj2m4t_color.jpg?ver=NldzZlZfccycz/qUyvjyug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dL9IEu5mdA', 'picType': 1, 'picUnlockDate': 20210426, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iPUQH/c5Q8fSjL0yuoDJHw==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA.npic?ver=iPUQH/c5Q8fSjL0yuoDJHw=='}, 'picThumbnail': {'md5': '8xEHTCxBG+E2XZx1BOS6MA==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_thumbnail.png?ver=8xEHTCxBG+E2XZx1BOS6MA=='}, 'picColorImg': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ=='}, 'picFrameImg': {'md5': 'MtDf1hTSa8V8fnB6cY/w/Q==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_frame.png?ver=MtDf1hTSa8V8fnB6cY/w/Q=='}, 'picColorfulThumbnail': {'md5': 'lkfYeoD9GwlOVms9Z+FvEQ==', 'url': 'color/1.0/pics/pic_dL9IEu5mdA/pic_dL9IEu5mdA_color.jpg?ver=lkfYeoD9GwlOVms9Z+FvEQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4QztVd0nhZ', 'picType': 1, 'picUnlockDate': 20210423, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'ft8l3lmsL/i0yZIE8GISiQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ.npic?ver=ft8l3lmsL/i0yZIE8GISiQ=='}, 'picThumbnail': {'md5': '6X5t3W2HjfzVkW9DHB/NdA==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_thumbnail.png?ver=6X5t3W2HjfzVkW9DHB/NdA=='}, 'picColorImg': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg=='}, 'picFrameImg': {'md5': 'LUKinE29fhTLCnr0rswLYQ==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_frame.png?ver=LUKinE29fhTLCnr0rswLYQ=='}, 'picColorfulThumbnail': {'md5': 'Ak6YZUYPVeEwmE5NjLzqtg==', 'url': 'color/1.0/pics/pic_4QztVd0nhZ/pic_4QztVd0nhZ_color.jpg?ver=Ak6YZUYPVeEwmE5NjLzqtg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__Vzeku00wK', 'picType': 1, 'picUnlockDate': 20210420, 'picVipUnlockDate': 20210420, 'picExpireDate': 23000101, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'jelsk6RoyOJDdVsNHzZpKw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK.npic?ver=jelsk6RoyOJDdVsNHzZpKw=='}, 'picThumbnail': {'md5': '8ChlbKPC7IsFhUB6H93WbQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_thumbnail.png?ver=8ChlbKPC7IsFhUB6H93WbQ=='}, 'picColorImg': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw=='}, 'picFrameImg': {'md5': '9m5PNNoKQA7yywy5cLAZpQ==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_frame.png?ver=9m5PNNoKQA7yywy5cLAZpQ=='}, 'picColorfulThumbnail': {'md5': 'oBJXpGp5N6/44zhcGXcVGw==', 'url': 'color/1.0/pics/pic__Vzeku00wK/pic__Vzeku00wK_color.jpg?ver=oBJXpGp5N6/44zhcGXcVGw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 13395, 'rowType': 'Books', 'titleKey': 'Happy Easter', 'descKey': 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!', 'rowOrder': 2100, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-13395/featrue-13395_WEp-5r9nMr.png?ver=2CFm7RT/kCVWe/bvn+vQWw==', 'detailPicMd5': '2CFm7RT/kCVWe/bvn+vQWw==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210329, 'expireDate': 23000430, 'authorHeadPicPath': 'color/1.0/feature/-13395/featrue-13395_VSEUPnrNX_.png?ver=8vSV7bHXXvE0H1YzQvBRxQ==', 'authorHeadPicMd5': '8vSV7bHXXvE0H1YzQvBRxQ==', 'authorName': 'Billie Leigh', 'showPicRow': 1, 'pics': [{'picName': 'pic_mKpXRwF4jS', 'picType': 1, 'picUnlockDate': 20210416, 'picVipUnlockDate': 20210410, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'xz/azZkvApB/a24OtnwifA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS.npic?ver=xz/azZkvApB/a24OtnwifA=='}, 'picThumbnail': {'md5': 'Pw8hRNxIkcHVZcxgqcOOfA==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_thumbnail.png?ver=Pw8hRNxIkcHVZcxgqcOOfA=='}, 'picColorImg': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw=='}, 'picFrameImg': {'md5': 'XzhSdYrqC3Xe3n9L3bHkxw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_frame.png?ver=XzhSdYrqC3Xe3n9L3bHkxw=='}, 'picColorfulThumbnail': {'md5': 'cGMVg0vZY3bNtYDOxF5hPw==', 'url': 'color/1.0/pics/pic_mKpXRwF4jS/pic_mKpXRwF4jS_color.jpg?ver=cGMVg0vZY3bNtYDOxF5hPw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_6VlkHuoN18', 'picType': 1, 'picUnlockDate': 20210414, 'picVipUnlockDate': 20210408, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': 'abtzIJMY/evj7mSGptO3sg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18.npic?ver=abtzIJMY/evj7mSGptO3sg=='}, 'picThumbnail': {'md5': 'PLoZqcIG15syIo3rC+qhKg==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_thumbnail.png?ver=PLoZqcIG15syIo3rC+qhKg=='}, 'picColorImg': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g=='}, 'picFrameImg': {'md5': 'cHB6rz3n408AXTLmaD4sKA==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_frame.png?ver=cHB6rz3n408AXTLmaD4sKA=='}, 'picColorfulThumbnail': {'md5': 'owZzP1eSNsOOYm9pDsXS5g==', 'url': 'color/1.0/pics/pic_6VlkHuoN18/pic_6VlkHuoN18_color.jpg?ver=owZzP1eSNsOOYm9pDsXS5g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_TIiNi44HLK', 'picType': 1, 'picUnlockDate': 20210412, 'picVipUnlockDate': 20210406, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'ss+EexaJUQUx8MeMCxsDeA==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK.npic?ver=ss+EexaJUQUx8MeMCxsDeA=='}, 'picThumbnail': {'md5': '3PlF4kwnyLJIeRlOkNYC9g==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_thumbnail.png?ver=3PlF4kwnyLJIeRlOkNYC9g=='}, 'picColorImg': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ=='}, 'picFrameImg': {'md5': 'w021gtl+Nn2hTkj1tvWW4w==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_frame.png?ver=w021gtl+Nn2hTkj1tvWW4w=='}, 'picColorfulThumbnail': {'md5': '+/1MbhM89gwd0VzfJ5qkMQ==', 'url': 'color/1.0/pics/pic_TIiNi44HLK/pic_TIiNi44HLK_color.jpg?ver=+/1MbhM89gwd0VzfJ5qkMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xkkCGhtY9K', 'picType': 1, 'picUnlockDate': 20210410, 'picVipUnlockDate': 20210404, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'F0RAaLoRyR3UJmWWyeXPoQ==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K.npic?ver=F0RAaLoRyR3UJmWWyeXPoQ=='}, 'picThumbnail': {'md5': 'rj+J13HmtkcN0fPNmyMVcw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_thumbnail.png?ver=rj+J13HmtkcN0fPNmyMVcw=='}, 'picColorImg': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw=='}, 'picFrameImg': {'md5': '3tZ04i3Kie6bVzLLfEMYJw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_frame.png?ver=3tZ04i3Kie6bVzLLfEMYJw=='}, 'picColorfulThumbnail': {'md5': 'GKImYmzEkt3TMnqYZCENBw==', 'url': 'color/1.0/pics/pic_xkkCGhtY9K/pic_xkkCGhtY9K_color.jpg?ver=GKImYmzEkt3TMnqYZCENBw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_j3pk2DXXJi', 'picType': 1, 'picUnlockDate': 20210408, 'picVipUnlockDate': 20210402, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '9x7BWiq3Rg/moxIna24QGQ==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi.npic?ver=9x7BWiq3Rg/moxIna24QGQ=='}, 'picThumbnail': {'md5': '20CH0X9h31kxrAXeSv3L9g==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_thumbnail.png?ver=20CH0X9h31kxrAXeSv3L9g=='}, 'picColorImg': {'md5': 'e1yJB/X8l7taf2APcjx61A==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_color.jpg?ver=e1yJB/X8l7taf2APcjx61A=='}, 'picFrameImg': {'md5': 'LdqgPI2k2XOzYrLB7mdbvA==', 'url': 'color/1.0/pics/pic_j3pk2DXXJi/pic_j3pk2DXXJi_frame.png?ver=LdqgPI2k2XOzYrLB7mdbvA=='}, 'picColorfulThumbnail'</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626683783', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 20036, 'rowType': 'Books', 'titleKey': 'Gothic Queens', 'descKey': 'The Fantasy Art of Anne Stokes.', 'rowOrder': 3000, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-20036/featrue-20036_g4oq1CnH8B.jpg?ver=MOCj85ErMUNLplfNHiXl7g==', 'detailPicMd5': 'MOCj85ErMUNLplfNHiXl7g==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210715, 'expireDate': 20250831, 'authorHeadPicPath': 'color/1.0/feature/-20036/featrue-20036_f4bzVV6ksX.png?ver=+KUHGGTG8GEqkH+R3PHobQ==', 'authorHeadPicMd5': '+KUHGGTG8GEqkH+R3PHobQ==', 'authorName': 'Anne Stokes', 'showPicRow': 1, 'pics': [{'picName': 'pic_inqLW6G17x', 'picType': 1, 'picUnlockDate': 20210724, 'picVipUnlockDate': 20210721, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': '6me9K6m+8gw6SjpKccKnFA==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x.npic?ver=6me9K6m+8gw6SjpKccKnFA=='}, 'picThumbnail': {'md5': 'pG+5aNTPGTKqWXVvLwRHaw==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_thumbnail.png?ver=pG+5aNTPGTKqWXVvLwRHaw=='}, 'picColorImg': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg=='}, 'picFrameImg': {'md5': '424j1kKS0TZ7ORQE9Cehwg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_frame.png?ver=424j1kKS0TZ7ORQE9Cehwg=='}, 'picColorfulThumbnail': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_OA5bB_gBUs', 'picType': 1, 'picUnlockDate': 20210723, 'picVipUnlockDate': 20210720, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '8VI/YZBKKSBPS8j8WCmx/w==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs.npic?ver=8VI/YZBKKSBPS8j8WCmx/w=='}, 'picThumbnail': {'md5': '8jrpea5KIzWpgPbVVUPnbg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_thumbnail.png?ver=8jrpea5KIzWpgPbVVUPnbg=='}, 'picColorImg': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg=='}, 'picFrameImg': {'md5': 'ABbCXpHPtt2M9QH6xotyHw==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_frame.png?ver=ABbCXpHPtt2M9QH6xotyHw=='}, 'picColorfulThumbnail': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XebwVI_EPm', 'picType': 1, 'picUnlockDate': 20210722, 'picVipUnlockDate': 20210719, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'AREroyzZDvatVRmHz7E8dg==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm.npic?ver=AREroyzZDvatVRmHz7E8dg=='}, 'picThumbnail': {'md5': '+5dWEQai4DLdNCyCjyMDRQ==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_thumbnail.png?ver=+5dWEQai4DLdNCyCjyMDRQ=='}, 'picColorImg': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw=='}, 'picFrameImg': {'md5': 'wWwj2v/KlrLe/37h/LgXRA==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_frame.png?ver=wWwj2v/KlrLe/37h/LgXRA=='}, 'picColorfulThumbnail': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hgaUBucdNq', 'picType': 1, 'picUnlockDate': 20210721, 'picVipUnlockDate': 20210718, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'VVV4R3e4J2PWV1qpCEaymA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq.npic?ver=VVV4R3e4J2PWV1qpCEaymA=='}, 'picThumbnail': {'md5': '+WXHukRsEV7FXSq3xFQ6lg==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_thumbnail.png?ver=+WXHukRsEV7FXSq3xFQ6lg=='}, 'picColorImg': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ=='}, 'picFrameImg': {'md5': 'WRzPzCFG90h3Y/zTermbxA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_frame.png?ver=WRzPzCFG90h3Y/zTermbxA=='}, 'picColorfulThumbnail': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IDsbYN5dTs', 'picType': 1, 'picUnlockDate': 20210720, 'picVipUnlockDate': 20210717, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'hxtD/lb3f1nTCDQq8kJgpw==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs.npic?ver=hxtD/lb3f1nTCDQq8kJgpw=='}, 'picThumbnail': {'md5': 'AkrBdkZb2Sm7iDIOcngmkg==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_thumbnail.png?ver=AkrBdkZb2Sm7iDIOcngmkg=='}, 'picColorImg': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA=='}, 'picFrameImg': {'md5': 'heC6Z06HqD4/pTOZGspIeA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_frame.png?ver=heC6Z06HqD4/pTOZGspIeA=='}, 'picColorfulThumbnail': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_W5cfH-La0d', 'picType': 1, 'picUnlockDate': 20210719, 'picVipUnlockDate': 20210716, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': '4BVFaT+0KKIEpbHuWjsGYA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d.npic?ver=4BVFaT+0KKIEpbHuWjsGYA=='}, 'picThumbnail': {'md5': 'E7kZ24HYkU6wp/6d/GH6nw==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_thumbnail.png?ver=E7kZ24HYkU6wp/6d/GH6nw=='}, 'picColorImg': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA=='}, 'picFrameImg': {'md5': '0JXRrRKdCPjsVQU3fFohqg==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_frame.png?ver=0JXRrRKdCPjsVQU3fFohqg=='}, 'picColorfulThumbnail': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_H2ahnLFC9c', 'picType': 1, 'picUnlockDate': 20210718, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'iy3s+kEjkUyrTaC1Cq1hbw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c.npic?ver=iy3s+kEjkUyrTaC1Cq1hbw=='}, 'picThumbnail': {'md5': 'dOOQFdDj/3bHelpl+aqUPQ==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_thumbnail.png?ver=dOOQFdDj/3bHelpl+aqUPQ=='}, 'picColorImg': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw=='}, 'picFrameImg': {'md5': 'lUBa7hYgnmv9URei2fuDCA==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_frame.png?ver=lUBa7hYgnmv9URei2fuDCA=='}, 'picColorfulThumbnail': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3U_WIBSsD_', 'picType': 1, 'picUnlockDate': 20210717, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iYqfaQRAa15tIFoiAHNNSA==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD_.npic?ver=iYqfaQRAa15tIFoiAHNNSA=='}, 'picThumbnail': {'md5': 'Lvt+78CTOI8WPWYAugkNmg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__thumbnail.png?ver=Lvt+78CTOI8WPWYAugkNmg=='}, 'picColorImg': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg=='}, 'picFrameImg': {'md5': 'IzjlK1tDO2TDZbnX+axH6A==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__frame.png?ver=IzjlK1tDO2TDZbnX+axH6A=='}, 'picColorfulThumbnail': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_gleud9bb7D', 'picType': 1, 'picUnlockDate': 20210716, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'n4vbNr063IpUVlZsHRebrA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D.npic?ver=n4vbNr063IpUVlZsHRebrA=='}, 'picThumbnail': {'md5': '/EaylKyt+p4fvV0vL5P0+g==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_thumbnail.png?ver=/EaylKyt+p4fvV0vL5P0+g=='}, 'picColorImg': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ=='}, 'picFrameImg': {'md5': 'Wp3+NgVKRi/Mzqb3eURgFA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_frame.png?ver=Wp3+NgVKRi/Mzqb3eURgFA=='}, 'picColorfulThumbnail': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_pGzY8qgdpA', 'picType': 1, 'picUnlockDate': 20210715, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'hudKviQn/tAKRoVbELEr8A==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA.npic?ver=hudKviQn/tAKRoVbELEr8A=='}, 'picThumbnail': {'md5': 'uAxhCYeoVPqG9mJGBdJSWA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_thumbnail.png?ver=uAxhCYeoVPqG9mJGBdJSWA=='}, 'picColorImg': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ=='}, 'picFrameImg': {'md5': 'iRgnUuqYNAO4lvX5u0l5tA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_frame.png?ver=iRgnUuqYNAO4lvX5u0l5tA=='}, 'picColorfulThumbnail': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF</t>
         </is>
       </c>
     </row>
     <row r="38" ht="42.75" customHeight="1">
-      <c r="A38" s="4" t="inlineStr">
+      <c r="A38" s="3" t="inlineStr">
         <is>
           <t>color_37</t>
         </is>
       </c>
-      <c r="B38" s="4" t="inlineStr">
+      <c r="B38" s="3" t="inlineStr">
         <is>
           <t>featureconfig安卓接口game_ver参数异常</t>
         </is>
       </c>
-      <c r="C38" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F38" s="6" t="inlineStr">
+      <c r="C38" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F38" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/</t>
         </is>
       </c>
-      <c r="G38" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H38" s="9" t="inlineStr">
+      <c r="G38" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H38" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"offset":"0"}</t>
         </is>
       </c>
-      <c r="I38" s="13" t="inlineStr">
+      <c r="I38" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -2982,37 +2412,37 @@
       </c>
     </row>
     <row r="39" ht="42.75" customHeight="1">
-      <c r="A39" s="4" t="inlineStr">
+      <c r="A39" s="3" t="inlineStr">
         <is>
           <t>color_38</t>
         </is>
       </c>
-      <c r="B39" s="4" t="inlineStr">
+      <c r="B39" s="3" t="inlineStr">
         <is>
           <t>featureconfig安卓接口os_type参数异常</t>
         </is>
       </c>
-      <c r="C39" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F39" s="6" t="inlineStr">
+      <c r="C39" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F39" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/</t>
         </is>
       </c>
-      <c r="G39" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H39" s="9" t="inlineStr">
+      <c r="G39" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H39" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"d","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"offset":"0"}</t>
         </is>
       </c>
-      <c r="I39" s="13" t="inlineStr">
+      <c r="I39" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3029,37 +2459,37 @@
       </c>
     </row>
     <row r="40" ht="42.75" customHeight="1">
-      <c r="A40" s="4" t="inlineStr">
+      <c r="A40" s="3" t="inlineStr">
         <is>
           <t>color_39</t>
         </is>
       </c>
-      <c r="B40" s="4" t="inlineStr">
+      <c r="B40" s="3" t="inlineStr">
         <is>
           <t>featureconfig安卓接口register_date参数异常</t>
         </is>
       </c>
-      <c r="C40" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F40" s="6" t="inlineStr">
+      <c r="C40" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F40" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/</t>
         </is>
       </c>
-      <c r="G40" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H40" s="9" t="inlineStr">
+      <c r="G40" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H40" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"2021.06.17","game_date": "","game_actDay":1,"group_id":63,"offset":"0"}</t>
         </is>
       </c>
-      <c r="I40" s="13" t="inlineStr">
+      <c r="I40" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3076,37 +2506,37 @@
       </c>
     </row>
     <row r="41" ht="42.75" customHeight="1">
-      <c r="A41" s="4" t="inlineStr">
+      <c r="A41" s="3" t="inlineStr">
         <is>
           <t>color_40</t>
         </is>
       </c>
-      <c r="B41" s="4" t="inlineStr">
+      <c r="B41" s="3" t="inlineStr">
         <is>
           <t>featureconfig安卓接口game_actDay参数异常</t>
         </is>
       </c>
-      <c r="C41" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F41" s="6" t="inlineStr">
+      <c r="C41" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F41" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/</t>
         </is>
       </c>
-      <c r="G41" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H41" s="9" t="inlineStr">
+      <c r="G41" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H41" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":"","group_id":63,"offset":"0"}</t>
         </is>
       </c>
-      <c r="I41" s="13" t="inlineStr">
+      <c r="I41" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3123,37 +2553,37 @@
       </c>
     </row>
     <row r="42" ht="42.75" customHeight="1">
-      <c r="A42" s="4" t="inlineStr">
+      <c r="A42" s="3" t="inlineStr">
         <is>
           <t>color_41</t>
         </is>
       </c>
-      <c r="B42" s="4" t="inlineStr">
+      <c r="B42" s="3" t="inlineStr">
         <is>
           <t>featureconfig安卓接口group_id参数异常</t>
         </is>
       </c>
-      <c r="C42" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F42" s="6" t="inlineStr">
+      <c r="C42" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F42" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/</t>
         </is>
       </c>
-      <c r="G42" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H42" s="9" t="inlineStr">
+      <c r="G42" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H42" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":634343,"offset":"0"}</t>
         </is>
       </c>
-      <c r="I42" s="13" t="inlineStr">
+      <c r="I42" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3170,37 +2600,37 @@
       </c>
     </row>
     <row r="43" ht="42.75" customHeight="1">
-      <c r="A43" s="4" t="inlineStr">
+      <c r="A43" s="3" t="inlineStr">
         <is>
           <t>color_42</t>
         </is>
       </c>
-      <c r="B43" s="4" t="inlineStr">
+      <c r="B43" s="3" t="inlineStr">
         <is>
           <t>featureconfig安卓接口game_date参数异常</t>
         </is>
       </c>
-      <c r="C43" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F43" s="6" t="inlineStr">
+      <c r="C43" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F43" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/</t>
         </is>
       </c>
-      <c r="G43" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H43" s="9" t="inlineStr">
+      <c r="G43" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H43" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "123","game_actDay":1,"group_id":63,"offset":"0"}</t>
         </is>
       </c>
-      <c r="I43" s="13" t="inlineStr">
+      <c r="I43" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3217,42 +2647,42 @@
       </c>
     </row>
     <row r="44" ht="28.5" customHeight="1">
-      <c r="A44" s="4" t="inlineStr">
+      <c r="A44" s="3" t="inlineStr">
         <is>
           <t>color_43</t>
         </is>
       </c>
-      <c r="B44" s="4" t="inlineStr">
+      <c r="B44" s="3" t="inlineStr">
         <is>
           <t>dailylist安卓接口正常访问</t>
         </is>
       </c>
-      <c r="C44" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F44" s="6" t="inlineStr">
+      <c r="C44" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F44" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/</t>
         </is>
       </c>
-      <c r="G44" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H44" s="9" t="inlineStr">
+      <c r="G44" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H44" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}</t>
         </is>
       </c>
-      <c r="I44" s="13" t="inlineStr">
+      <c r="I44" s="12" t="inlineStr">
         <is>
           <t>errorCode</t>
         </is>
       </c>
-      <c r="J44" s="5" t="inlineStr">
+      <c r="J44" s="4" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
@@ -3264,42 +2694,42 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626081999', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626683789', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
         </is>
       </c>
     </row>
     <row r="45" ht="28.5" customHeight="1">
-      <c r="A45" s="4" t="inlineStr">
+      <c r="A45" s="3" t="inlineStr">
         <is>
           <t>color_44</t>
         </is>
       </c>
-      <c r="B45" s="4" t="inlineStr">
+      <c r="B45" s="3" t="inlineStr">
         <is>
           <t>dailylist安卓接口game_ver参数异常</t>
         </is>
       </c>
-      <c r="C45" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F45" s="6" t="inlineStr">
+      <c r="C45" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F45" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/</t>
         </is>
       </c>
-      <c r="G45" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H45" s="9" t="inlineStr">
+      <c r="G45" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H45" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"65","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}</t>
         </is>
       </c>
-      <c r="I45" s="13" t="inlineStr">
+      <c r="I45" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3316,37 +2746,37 @@
       </c>
     </row>
     <row r="46" ht="28.5" customHeight="1">
-      <c r="A46" s="4" t="inlineStr">
+      <c r="A46" s="3" t="inlineStr">
         <is>
           <t>color_45</t>
         </is>
       </c>
-      <c r="B46" s="4" t="inlineStr">
+      <c r="B46" s="3" t="inlineStr">
         <is>
           <t>dailylist安卓接口os_type参数异常</t>
         </is>
       </c>
-      <c r="C46" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F46" s="6" t="inlineStr">
+      <c r="C46" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F46" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/</t>
         </is>
       </c>
-      <c r="G46" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H46" s="9" t="inlineStr">
+      <c r="G46" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H46" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Aid","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}</t>
         </is>
       </c>
-      <c r="I46" s="13" t="inlineStr">
+      <c r="I46" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3363,37 +2793,37 @@
       </c>
     </row>
     <row r="47" ht="42.75" customHeight="1">
-      <c r="A47" s="4" t="inlineStr">
+      <c r="A47" s="3" t="inlineStr">
         <is>
           <t>color_46</t>
         </is>
       </c>
-      <c r="B47" s="4" t="inlineStr">
+      <c r="B47" s="3" t="inlineStr">
         <is>
           <t>dailylist安卓接口register_date参数异常</t>
         </is>
       </c>
-      <c r="C47" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F47" s="6" t="inlineStr">
+      <c r="C47" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F47" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/</t>
         </is>
       </c>
-      <c r="G47" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H47" s="9" t="inlineStr">
+      <c r="G47" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H47" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"2021-06-17","game_date": "","game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}</t>
         </is>
       </c>
-      <c r="I47" s="13" t="inlineStr">
+      <c r="I47" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3410,37 +2840,37 @@
       </c>
     </row>
     <row r="48" ht="42.75" customHeight="1">
-      <c r="A48" s="4" t="inlineStr">
+      <c r="A48" s="3" t="inlineStr">
         <is>
           <t>color_47</t>
         </is>
       </c>
-      <c r="B48" s="4" t="inlineStr">
+      <c r="B48" s="3" t="inlineStr">
         <is>
           <t>dailylist安卓接口game_actDay参数异常</t>
         </is>
       </c>
-      <c r="C48" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F48" s="6" t="inlineStr">
+      <c r="C48" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F48" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/</t>
         </is>
       </c>
-      <c r="G48" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H48" s="9" t="inlineStr">
+      <c r="G48" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H48" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":"","group_id":63,"start_date":"20210617","end_date":"20210517"}</t>
         </is>
       </c>
-      <c r="I48" s="13" t="inlineStr">
+      <c r="I48" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3457,37 +2887,37 @@
       </c>
     </row>
     <row r="49" ht="28.5" customHeight="1">
-      <c r="A49" s="4" t="inlineStr">
+      <c r="A49" s="3" t="inlineStr">
         <is>
           <t>color_48</t>
         </is>
       </c>
-      <c r="B49" s="4" t="inlineStr">
+      <c r="B49" s="3" t="inlineStr">
         <is>
           <t>dailylist安卓接口group_id参数异常</t>
         </is>
       </c>
-      <c r="C49" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F49" s="6" t="inlineStr">
+      <c r="C49" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F49" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/</t>
         </is>
       </c>
-      <c r="G49" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H49" s="9" t="inlineStr">
+      <c r="G49" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H49" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":634343,"start_date":"20210617","end_date":"20210517"}</t>
         </is>
       </c>
-      <c r="I49" s="13" t="inlineStr">
+      <c r="I49" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3504,37 +2934,37 @@
       </c>
     </row>
     <row r="50" ht="42.75" customHeight="1">
-      <c r="A50" s="4" t="inlineStr">
+      <c r="A50" s="3" t="inlineStr">
         <is>
           <t>color_49</t>
         </is>
       </c>
-      <c r="B50" s="4" t="inlineStr">
+      <c r="B50" s="3" t="inlineStr">
         <is>
           <t>dailylist安卓接口game_date参数异常</t>
         </is>
       </c>
-      <c r="C50" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F50" s="6" t="inlineStr">
+      <c r="C50" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F50" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/</t>
         </is>
       </c>
-      <c r="G50" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H50" s="9" t="inlineStr">
+      <c r="G50" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H50" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "12","game_actDay":1,"group_id":63,"start_date":"20210617","end_date":"20210517"}</t>
         </is>
       </c>
-      <c r="I50" s="13" t="inlineStr">
+      <c r="I50" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3551,42 +2981,42 @@
       </c>
     </row>
     <row r="51" ht="28.5" customHeight="1">
-      <c r="A51" s="4" t="inlineStr">
+      <c r="A51" s="3" t="inlineStr">
         <is>
           <t>color_50</t>
         </is>
       </c>
-      <c r="B51" s="4" t="inlineStr">
+      <c r="B51" s="3" t="inlineStr">
         <is>
           <t>newsconfig安卓接口正常访问</t>
         </is>
       </c>
-      <c r="C51" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F51" s="6" t="inlineStr">
+      <c r="C51" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F51" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/</t>
         </is>
       </c>
-      <c r="G51" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H51" s="9" t="inlineStr">
+      <c r="G51" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H51" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63}</t>
         </is>
       </c>
-      <c r="I51" s="13" t="inlineStr">
+      <c r="I51" s="12" t="inlineStr">
         <is>
           <t>errorCode</t>
         </is>
       </c>
-      <c r="J51" s="5" t="inlineStr">
+      <c r="J51" s="4" t="inlineStr">
         <is>
           <t>-1</t>
         </is>
@@ -3598,42 +3028,42 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626082004', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 299765, 'picId': '210709-ybd3V3_8k.jpg', 'filePath': 'color/1.0/banners/210709/210709-ybd3V3_8k.jpg', 'fileMd5': 'QshAyr9HhzrCrfF6QKslsw==', 'title': 'Vote For The Best', 'desc': 'Which one is the winner for you?', 'buttonText': 'Go', 'unlockDate': 20210710, 'expireDate': 20220709, 'deepLink': '570107627701590|tapcolor|https://www.facebook.com/329700151167267/posts/570107627701590/'}, {'eventId': 299764, 'picId': '210709-ombiGa5gJ.png', 'filePath': 'color/1.0/banners/210709/210709-ombiGa5gJ.png', 'fileMd5': 'kin4EYPuxwP3Q+cAMxv11g==', 'title': "It's Time to SHARE!", 'desc': 'Share in the comments!', 'buttonText': 'Go', 'unlockDate': 20210710, 'expireDate': 20220709, 'deepLink': '996121071191835|tapcolor|https://www.facebook.com/329700151167267/posts/996121071191835/'}, {'eventId': 299352, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210709, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 299763, 'picId': '210709-j8TLMa_5V.png', 'filePath': 'color/1.0/banners/210709/210709-j8TLMa_5V.png', 'fileMd5': 'WaBaFKLYUuY+vy+B3LhM7A==', 'title': 'Count And Share', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210709, 'expireDate': 20220709, 'deepLink': '239085627803803|tapcolor|https://www.facebook.com/329700151167267/posts/239085627803803/'}, {'eventId': 299762, 'picId': '210708-eRKTD0fTO.png', 'filePath': 'color/1.0/banners/210708/210708-eRKTD0fTO.png', 'fileMd5': '1oJcaHJiyxW0s93QRlagVQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210708, 'expireDate': 20220708, 'deepLink': '995568767913732|tapcolor|https://www.facebook.com/329700151167267/posts/995568767913732/'}, {'eventId': 299761, 'picId': '210707-ku-0wIX7H.png', 'filePath': 'color/1.0/banners/210707/210707-ku-0wIX7H.png', 'fileMd5': 'UOgaheI/t424JW6aVudG/g==', 'title': 'Puzzle Game', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210707, 'expireDate': 20220707, 'deepLink': '994945451309397|tapcolor|https://www.facebook.com/329700151167267/posts/994945451309397/'}, {'eventId': 299760, 'picId': '210706-Eh7L6rbu1.png', 'filePath': 'color/1.0/banners/210706/210706-Eh7L6rbu1.png', 'fileMd5': 'HdavDpDcgp/leaRon7MOlw==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210706, 'expireDate': 20220706, 'deepLink': '994261241377818|tapcolor|https://www.facebook.com/329700151167267/posts/994261241377818/'}, {'eventId': 299759, 'picId': '210705-pwNPp4Thh.jpg', 'filePath': 'color/1.0/banners/210705/210705-pwNPp4Thh.jpg', 'fileMd5': 'x2Hz0VjwZ7ZbbYBQ50R/Qg==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210705, 'expireDate': 20220705, 'deepLink': '993663031437639|tapcolor|https://www.facebook.com/329700151167267/posts/993663031437639/'}, {'eventId': 299758, 'picId': '210702-NjWuU8eeR.png', 'filePath': 'color/1.0/banners/210702/210702-NjWuU8eeR.png', 'fileMd5': 'HYyjJW9w0+56H0qWbC953Q==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210704, 'expireDate': 20220702, 'deepLink': '991816091622333|tapcolor|https://www.facebook.com/329700151167267/posts/991816091622333/'}]}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1626683794', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 310538, 'picId': '210716-6XYDtlcaG.png', 'filePath': 'color/1.0/banners/210716/210716-6XYDtlcaG.png', 'fileMd5': 'lY7xv9RMUlhcGn9FHzp2vg==', 'title': "It's Time to SHARE!", 'desc': 'Share in the comments!', 'buttonText': 'Go', 'unlockDate': 20210718, 'expireDate': 20220716, 'deepLink': '1000566770747265|tapcolor|https://www.facebook.com/329700151167267/posts/1000566770747265/'}, {'eventId': 310537, 'picId': '210716-aG9O8GHF9.png', 'filePath': 'color/1.0/banners/210716/210716-aG9O8GHF9.png', 'fileMd5': 'g3SBeRdGoK7zc6P0dZB27w==', 'title': 'Vote For The Best Pic', 'desc': 'Time to vote for your favorite pic!', 'buttonText': 'Go', 'unlockDate': 20210717, 'expireDate': 20220716, 'deepLink': '4133931760017836|tapcolor|https://www.facebook.com/329700151167267/posts/4133931760017836/'}, {'eventId': 310117, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210716, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 310536, 'picId': '210716-1B3QfzRB9.png', 'filePath': 'color/1.0/banners/210716/210716-1B3QfzRB9.png', 'fileMd5': 'iTOsELob4LwpaPi97bDOZg==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210716, 'expireDate': 20220716, 'deepLink': '1000407717429837|tapcolor|https://www.facebook.com/329700151167267/posts/1000407717429837/'}, {'eventId': 310535, 'picId': '210715-YkDQnhPF1.png', 'filePath': 'color/1.0/banners/210715/210715-YkDQnhPF1.png', 'fileMd5': 'bmHWy0jgZ77/NmSWqoSsRQ==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210715, 'expireDate': 20220715, 'deepLink': '999982354139040|tapcolor|https://www.facebook.com/329700151167267/posts/999982354139040/'}, {'eventId': 310534, 'picId': '210714-IdfTEocYv.png', 'filePath': 'color/1.0/banners/210714/210714-IdfTEocYv.png', 'fileMd5': '8OeBYJuq2eNhP+Ix4y8ZPA==', 'title': 'Anne Stokes', 'desc': 'Come to color it now!', 'buttonText': 'Go', 'unlockDate': 20210715, 'expireDate': 20220714, 'deepLink': '1108663342995510|tapcolor|https://www.facebook.com/329700151167267/posts/1108663342995510/'}, {'eventId': 310533, 'picId': '210714-Qhyl5WXL4.png', 'filePath': 'color/1.0/banners/210714/210714-Qhyl5WXL4.png', 'fileMd5': '+6Zio3TGmZZK30USmcGNJQ==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210714, 'expireDate': 20220714, 'deepLink': '999325920871350|tapcolor|https://www.facebook.com/329700151167267/posts/999325920871350/'}, {'eventId': 310532, 'picId': '210713-u_DY0ieA4.png', 'filePath': 'color/1.0/banners/210713/210713-u_DY0ieA4.png', 'fileMd5': 'HSIij71VtmLpQZyG/ga5DA==', 'title': "It's Time to SHARE!", 'desc': 'Share in the comments!', 'buttonText': 'Go', 'unlockDate': 20210713, 'expireDate': 20220713, 'deepLink': '998708584266417|tapcolor|https://www.facebook.com/329700151167267/posts/998708584266417/'}, {'eventId': 310531, 'picId': '210712-ObwZNm0H1.png', 'filePath': 'color/1.0/banners/210712/210712-ObwZNm0H1.png', 'fileMd5': '53hLNdRKIQT99Y4FOD/rdw==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210712, 'expireDate': 20220712, 'deepLink': '998029877667621|tapcolor|https://www.facebook.com/329700151167267/posts/998029877667621/'}]}}</t>
         </is>
       </c>
     </row>
     <row r="52" ht="42.75" customHeight="1">
-      <c r="A52" s="4" t="inlineStr">
+      <c r="A52" s="3" t="inlineStr">
         <is>
           <t>color_51</t>
         </is>
       </c>
-      <c r="B52" s="4" t="inlineStr">
+      <c r="B52" s="3" t="inlineStr">
         <is>
           <t>newsconfig安卓接口game_ver参数异常</t>
         </is>
       </c>
-      <c r="C52" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F52" s="6" t="inlineStr">
+      <c r="C52" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F52" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/</t>
         </is>
       </c>
-      <c r="G52" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H52" s="9" t="inlineStr">
+      <c r="G52" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H52" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"65","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63}</t>
         </is>
       </c>
-      <c r="I52" s="13" t="inlineStr">
+      <c r="I52" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3650,37 +3080,37 @@
       </c>
     </row>
     <row r="53" ht="42.75" customHeight="1">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="3" t="inlineStr">
         <is>
           <t>color_52</t>
         </is>
       </c>
-      <c r="B53" s="4" t="inlineStr">
+      <c r="B53" s="3" t="inlineStr">
         <is>
           <t>newsconfig安卓接口os_type参数异常</t>
         </is>
       </c>
-      <c r="C53" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F53" s="6" t="inlineStr">
+      <c r="C53" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F53" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/</t>
         </is>
       </c>
-      <c r="G53" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H53" s="9" t="inlineStr">
+      <c r="G53" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H53" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Anid","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":63}</t>
         </is>
       </c>
-      <c r="I53" s="13" t="inlineStr">
+      <c r="I53" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3697,37 +3127,37 @@
       </c>
     </row>
     <row r="54" ht="42.75" customHeight="1">
-      <c r="A54" s="4" t="inlineStr">
+      <c r="A54" s="3" t="inlineStr">
         <is>
           <t>color_53</t>
         </is>
       </c>
-      <c r="B54" s="4" t="inlineStr">
+      <c r="B54" s="3" t="inlineStr">
         <is>
           <t>newsconfig安卓接口register_date参数异常</t>
         </is>
       </c>
-      <c r="C54" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F54" s="6" t="inlineStr">
+      <c r="C54" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F54" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/</t>
         </is>
       </c>
-      <c r="G54" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H54" s="9" t="inlineStr">
+      <c r="G54" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H54" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"2021/06/17","game_date": "","game_actDay":1,"group_id":63}</t>
         </is>
       </c>
-      <c r="I54" s="13" t="inlineStr">
+      <c r="I54" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3744,37 +3174,37 @@
       </c>
     </row>
     <row r="55" ht="42.75" customHeight="1">
-      <c r="A55" s="4" t="inlineStr">
+      <c r="A55" s="3" t="inlineStr">
         <is>
           <t>color_54</t>
         </is>
       </c>
-      <c r="B55" s="4" t="inlineStr">
+      <c r="B55" s="3" t="inlineStr">
         <is>
           <t>newsconfig安卓接口game_actDay参数异常</t>
         </is>
       </c>
-      <c r="C55" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F55" s="6" t="inlineStr">
+      <c r="C55" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F55" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/</t>
         </is>
       </c>
-      <c r="G55" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H55" s="9" t="inlineStr">
+      <c r="G55" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H55" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":"","group_id":63}</t>
         </is>
       </c>
-      <c r="I55" s="13" t="inlineStr">
+      <c r="I55" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3791,37 +3221,37 @@
       </c>
     </row>
     <row r="56" ht="42.75" customHeight="1">
-      <c r="A56" s="4" t="inlineStr">
+      <c r="A56" s="3" t="inlineStr">
         <is>
           <t>color_55</t>
         </is>
       </c>
-      <c r="B56" s="4" t="inlineStr">
+      <c r="B56" s="3" t="inlineStr">
         <is>
           <t>newsconfig安卓接口group_id参数异常</t>
         </is>
       </c>
-      <c r="C56" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F56" s="6" t="inlineStr">
+      <c r="C56" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F56" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/</t>
         </is>
       </c>
-      <c r="G56" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H56" s="9" t="inlineStr">
+      <c r="G56" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H56" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "","game_actDay":1,"group_id":62342343}</t>
         </is>
       </c>
-      <c r="I56" s="13" t="inlineStr">
+      <c r="I56" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3838,37 +3268,37 @@
       </c>
     </row>
     <row r="57" ht="42.75" customHeight="1">
-      <c r="A57" s="4" t="inlineStr">
+      <c r="A57" s="3" t="inlineStr">
         <is>
           <t>color_56</t>
         </is>
       </c>
-      <c r="B57" s="4" t="inlineStr">
+      <c r="B57" s="3" t="inlineStr">
         <is>
           <t>newsconfig安卓接口game_date参数异常</t>
         </is>
       </c>
-      <c r="C57" s="4" t="inlineStr">
-        <is>
-          <t>yes</t>
-        </is>
-      </c>
-      <c r="F57" s="6" t="inlineStr">
+      <c r="C57" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F57" s="5" t="inlineStr">
         <is>
           <t>https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/</t>
         </is>
       </c>
-      <c r="G57" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H57" s="9" t="inlineStr">
+      <c r="G57" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H57" s="8" t="inlineStr">
         <is>
           <t>{"os_type":"Android","game_ver":"6.7.5","register_ver":"6.7.5","register_date":"20210617","game_date": "45","game_actDay":1,"group_id":63}</t>
         </is>
       </c>
-      <c r="I57" s="13" t="inlineStr">
+      <c r="I57" s="12" t="inlineStr">
         <is>
           <t>errorMsg</t>
         </is>
@@ -3885,91 +3315,91 @@
       </c>
     </row>
     <row r="58" ht="42.75" customHeight="1">
-      <c r="A58" s="4" t="inlineStr">
+      <c r="A58" s="3" t="inlineStr">
         <is>
           <t>color_15</t>
         </is>
       </c>
-      <c r="B58" s="4" t="inlineStr">
+      <c r="B58" s="3" t="inlineStr">
         <is>
           <t>eventlist接口访问</t>
         </is>
       </c>
-      <c r="C58" s="4" t="inlineStr">
-        <is>
-          <t>no</t>
-        </is>
-      </c>
-      <c r="F58" s="4" t="inlineStr">
+      <c r="C58" s="14" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="F58" s="3" t="inlineStr">
         <is>
           <t>https://us-central1-coloringproject-fe7d3.cloudfunctions.net/testApi/testApi/eventList</t>
         </is>
       </c>
-      <c r="G58" s="4" t="inlineStr">
-        <is>
-          <t>get</t>
-        </is>
-      </c>
-      <c r="H58" s="10" t="n"/>
+      <c r="G58" s="3" t="inlineStr">
+        <is>
+          <t>get</t>
+        </is>
+      </c>
+      <c r="H58" s="9" t="n"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" display="https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/" r:id="rId1"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" display="https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/" r:id="rId2"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" display="https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/" r:id="rId3"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" display="https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/" r:id="rId4"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F6" display="https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/" r:id="rId5"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F7" display="https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/" r:id="rId6"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" display="https://tapcolor.weplayer.cc/normalApi/v1/getBannerConfig/" r:id="rId7"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F9" display="https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/" r:id="rId8"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F10" display="https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/" r:id="rId9"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" display="https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/" r:id="rId10"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F12" display="https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/" r:id="rId11"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F13" display="https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/" r:id="rId12"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F14" display="https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/" r:id="rId13"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F15" display="https://tapcolor.weplayer.cc/normalApi/v1/getLanguage/" r:id="rId14"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" display="https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/" r:id="rId15"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F17" display="https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/" r:id="rId16"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F18" display="https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/" r:id="rId17"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F19" display="https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/" r:id="rId18"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F20" display="https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/" r:id="rId19"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F21" display="https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/" r:id="rId20"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F22" display="https://tapcolor.weplayer.cc/normalApi/v1/getGroupConfig/" r:id="rId21"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F23" display="https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/" r:id="rId22"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F24" display="https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/" r:id="rId23"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F25" display="https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/" r:id="rId24"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F26" display="https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/" r:id="rId25"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F27" display="https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/" r:id="rId26"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F28" display="https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/" r:id="rId27"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F29" display="https://tapcolor.weplayer.cc/normalApi/v1/getDiscount/" r:id="rId28"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F30" display="https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/" r:id="rId29"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F31" display="https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/" r:id="rId30"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F32" display="https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/" r:id="rId31"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F33" display="https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/" r:id="rId32"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F34" display="https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/" r:id="rId33"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F35" display="https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/" r:id="rId34"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F36" display="https://tapcolor.weplayer.cc/normalApi/v1/getGalleryList/" r:id="rId35"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F37" display="https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/" r:id="rId36"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F38" display="https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/" r:id="rId37"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F39" display="https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/" r:id="rId38"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F40" display="https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/" r:id="rId39"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F41" display="https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/" r:id="rId40"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F42" display="https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/" r:id="rId41"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F43" display="https://tapcolor.weplayer.cc/normalApi/v3/getFeatureConfig/" r:id="rId42"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F44" display="https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/" r:id="rId43"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F45" display="https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/" r:id="rId44"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F46" display="https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/" r:id="rId45"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F47" display="https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/" r:id="rId46"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F48" display="https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/" r:id="rId47"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F49" display="https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/" r:id="rId48"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F50" display="https://tapcolor.weplayer.cc/normalApi/v1/getDailyList/" r:id="rId49"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F51" display="https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/" r:id="rId50"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F52" display="https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/" r:id="rId51"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F53" display="https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/" r:id="rId52"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F54" display="https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/" r:id="rId53"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F55" display="https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/" r:id="rId54"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F56" display="https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/" r:id="rId55"/>
-    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F57" display="https://tapcolor.weplayer.cc/normalApi/v1/getNewsConfig/" r:id="rId56"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F14" r:id="rId13"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F15" r:id="rId14"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F16" r:id="rId15"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F17" r:id="rId16"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F18" r:id="rId17"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F19" r:id="rId18"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F20" r:id="rId19"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F21" r:id="rId20"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F22" r:id="rId21"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F23" r:id="rId22"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F24" r:id="rId23"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F25" r:id="rId24"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F26" r:id="rId25"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F27" r:id="rId26"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F28" r:id="rId27"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F29" r:id="rId28"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F30" r:id="rId29"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F31" r:id="rId30"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F32" r:id="rId31"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F33" r:id="rId32"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F34" r:id="rId33"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F35" r:id="rId34"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F36" r:id="rId35"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F37" r:id="rId36"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F38" r:id="rId37"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F39" r:id="rId38"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F40" r:id="rId39"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F41" r:id="rId40"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F42" r:id="rId41"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F43" r:id="rId42"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F44" r:id="rId43"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F45" r:id="rId44"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F46" r:id="rId45"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F47" r:id="rId46"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F48" r:id="rId47"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F49" r:id="rId48"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F50" r:id="rId49"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F51" r:id="rId50"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F52" r:id="rId51"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F53" r:id="rId52"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F54" r:id="rId53"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F55" r:id="rId54"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F56" r:id="rId55"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="F57" r:id="rId56"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" paperSize="9"/>
@@ -4035,7 +3465,7 @@
         <f>A1&amp;F1&amp;A1&amp;B1&amp;A1&amp;G1&amp;A1</f>
         <v/>
       </c>
-      <c r="N1" s="15" t="n">
+      <c r="N1" s="17" t="n">
         <v>43849</v>
       </c>
     </row>

--- a/ColorInterfaceRefactor/Case/Case.xlsx
+++ b/ColorInterfaceRefactor/Case/Case.xlsx
@@ -706,7 +706,7 @@
       </c>
       <c r="L2" s="15" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297225', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': '930939901043286|tapcolor|https://www.facebook.com/329700151167267/posts/930939901043286/', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210713-dNR0ARPZc.png', 'picUrl': 'color/1.0/banners/210713/210713-dNR0ARPZc.png?ver=+mx4D+oT3mc39rQCzAv65Q==', 'picMd5': '+mx4D+oT3mc39rQCzAv65Q==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20210713, 'expireDate': 20220713, 'minVersion': 40000, 'platform': '["Android"]', 'minPlayDays': 0}, {'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}]}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161232', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': '930939901043286|tapcolor|https://www.facebook.com/329700151167267/posts/930939901043286/', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210713-dNR0ARPZc.png', 'picUrl': 'color/1.0/banners/210713/210713-dNR0ARPZc.png?ver=+mx4D+oT3mc39rQCzAv65Q==', 'picMd5': '+mx4D+oT3mc39rQCzAv65Q==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20210713, 'expireDate': 20220713, 'minVersion': 40000, 'platform': '["Android"]', 'minPlayDays': 0}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': 'colorFFFFFF Facebook group title', 'descKey': 'colorFEFEFF Facebook group description', 'picId': '210709-rvR-xRjVU.png', 'picUrl': 'color/1.0/banners/210709/210709-rvR-xRjVU.png?ver=c2Xsl6MucmFoZDvbaTXBvw==', 'picMd5': 'c2Xsl6MucmFoZDvbaTXBvw==', 'buttonKey': 'GO', 'buttonColor': '33,125,243,255', 'unlockDate': 20210709, 'expireDate': 20300709, 'minVersion': 10000, 'platform': '["Android", "Ios"]', 'minPlayDays': 0}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': 'color1E70DB Sign in with facebook', 'descKey': 'colorF06895 sync data &amp; get hints', 'picId': '210730-YlJXWBm34.png', 'picUrl': 'color/1.0/banners/210730/210730-YlJXWBm34.png?ver=4f4YLJKtU36ciqY+y21xjA==', 'picMd5': '4f4YLJKtU36ciqY+y21xjA==', 'buttonKey': 'GO', 'buttonColor': '65,147,254,255', 'unlockDate': 20210730, 'expireDate': 20300730, 'minVersion': 10000, 'platform': '["Android", "Ios"]', 'minPlayDays': 0}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}]}}</t>
         </is>
       </c>
     </row>
@@ -1058,7 +1058,7 @@
       </c>
       <c r="L9" s="15" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297233', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不', 'skip': '跳过动画', 'Restore': '恢复订阅', 'purchased items': '已购商品', 'Subscription FAQ': '内购问题FAQ', 'Daily Challenge title': '每日挑战', 'Daily Challenge description': '快来开启每日挑战！', 'Get stuck? Use hints': '找不到小色块？用用提示～', 'Available storage space of your device is less than 25M. Clear Cache for a better experience.': '可用存储空间不足25M，清理缓存以获得更多存储空间。', 'Clearing the cache will not affect normal use': '清理缓存不影响正常填色', 'color1F1F1F Daily Challenge title': '&lt;color=#1F1F1F&gt;每日挑战&lt;/color&gt;', 'color3B3B3B Daily Challenge description': '&lt;color=#3B3B3B&gt;快来开启每日挑战！&lt;/color&gt;', 'color1E70DB Sign in with facebook': '&lt;color=#1E70DB&gt;通过Facebook登录&lt;/color&gt;', 'colorFFFFFF Facebook group title': 'Facebook社区', 'colorFEFEFF Facebook group description': '加入社区获取每日奖励图片！', 'colorF06895 sync data &amp; get hints': '同步数据+获取免费hint！', 'Gothic Queens': '哥特皇后', 'The Fantasy Art of Anne Stokes.': 'Anne Stokes的奇幻艺术'}, 'version': '1626260147'}, 'apiName': 'getLanguage'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161242', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看广告，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '收藏', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '已收藏', 'All pictures you like will been save here. ': '所有已收藏的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看广告解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已收藏', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看广告。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费广告券，使用它来跳过视频吧', 'Skip Ads': '跳过广告', 'Skipped video ads with 1 video token': '使用1张广告券跳过了广告', 'Skipped video ads': '跳过广告', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '广告券', 'Skip video ads and enjoy!': '跳过广告，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看广告，试试我们的广告券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看广告', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看广告', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看广告解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看广告。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉广告加载失败，我们准备了特别优惠给你！', 'Loading video...': '广告加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '广告将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '广告已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不', 'skip': '跳过动画', 'Restore': '恢复订阅', 'purchased items': '已购商品', 'Subscription FAQ': '内购问题FAQ', 'Daily Challenge title': '每日挑战', 'Daily Challenge description': '快来开启每日挑战！', 'Get stuck? Use hints': '找不到小色块？用用提示～', 'Available storage space of your device is less than 25M. Clear Cache for a better experience.': '可用存储空间不足25M，清理缓存以获得更多存储空间。', 'Clearing the cache will not affect normal use': '清理缓存不影响正常填色', 'color1F1F1F Daily Challenge title': '&lt;color=#1F1F1F&gt;每日挑战&lt;/color&gt;', 'color3B3B3B Daily Challenge description': '&lt;color=#3B3B3B&gt;快来开启每日挑战！&lt;/color&gt;', 'color1E70DB Sign in with facebook': '&lt;color=#1E70DB&gt;通过Facebook登录&lt;/color&gt;', 'colorFFFFFF Facebook group title': '&lt;color=#FFFFFF&gt;Facebook社区&lt;/color&gt;', 'colorFEFEFF Facebook group description': '&lt;color=#FEFEFF&gt;加入社区获取每日奖励图片！&lt;/color&gt;', 'colorF06895 sync data &amp; get hints': '&lt;color=#F06895&gt;同步数据+获取免费hint！&lt;/color&gt;', 'Gothic Queens': '哥特皇后', 'The Fantasy Art of Anne Stokes.': 'Anne Stokes的奇幻艺术', 'Enjoy Unlimited Hints for {0} pics!': '前{0}张图免费无限hints！', 'daily quest progress': '每日任务进度', 'check back tomorrow for more rewards': '明日再来获取更多奖励！', 'achievement next stage description': '下一阶段：{0}', 'achievement rewards': '成就奖励', 'Sure to log out?': '确认退出登录么？', 'You will no longer be able to sync data.': '您将无法继续同步数据。', 'Interiors': '内饰', 'Classical': '古典', 'Patterns': '印花', 'Vehicle': '载具'}, 'version': '1628160788'}, 'apiName': 'getLanguage'}</t>
         </is>
       </c>
     </row>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297242', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"B","u_finish_new":"24,1|24,2|24,3|24,4|24,5|48,3|48,5|48,7|48,9|168,15","u_reward_video_new":"24,1|24,2|24,3|24,4|24,5|48,3|48,5|48,7|48,9|168,12","u_hint_new":"24,1|24,2|24,3|24,4|24,5|48,3|48,5|48,7|48,9|168,10","u_color_time_new":"4,300|24,600|24,900|24,1200|24,1800|24,3600|48,1800|48,3600|48,7200|168,18000"}'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161250', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,24,29,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10,92,65,4,88","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91|Interiors,92|Classical,65|Patterns,4|Vehicle,88","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"dislike_test":"B","pre_update_test":"A","backfront_inter":"A","u_finish_new":"24,1|24,2|24,3|24,4|24,5|48,3|48,5|48,7|48,9|168,15","u_reward_video_new":"24,1|24,2|24,3|24,4|24,5|48,3|48,5|48,7|48,9|168,12","u_hint_new":"24,1|24,2|24,3|24,4|24,5|48,3|48,5|48,7|48,9|168,10","u_color_time_new":"4,300|24,600|24,900|24,1200|24,1800|24,3600|48,1800|48,3600|48,7200|168,18000","shadow_blink":"B"}'}</t>
         </is>
       </c>
     </row>
@@ -1726,7 +1726,7 @@
       </c>
       <c r="L23" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297250', 'apiName': 'getDiscount', 'data': []}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161259', 'apiName': 'getDiscount', 'data': []}</t>
         </is>
       </c>
     </row>
@@ -2060,7 +2060,7 @@
       </c>
       <c r="L30" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297259', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161267', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
         </is>
       </c>
     </row>
@@ -2394,7 +2394,7 @@
       </c>
       <c r="L37" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297267', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 20036, 'rowType': 'Books', 'titleKey': 'Gothic Queens', 'descKey': 'The Fantasy Art of Anne Stokes.', 'rowOrder': 3000, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-20036/featrue-20036_g4oq1CnH8B.jpg?ver=MOCj85ErMUNLplfNHiXl7g==', 'detailPicMd5': 'MOCj85ErMUNLplfNHiXl7g==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210715, 'expireDate': 20250831, 'authorHeadPicPath': 'color/1.0/feature/-20036/featrue-20036_f4bzVV6ksX.png?ver=+KUHGGTG8GEqkH+R3PHobQ==', 'authorHeadPicMd5': '+KUHGGTG8GEqkH+R3PHobQ==', 'authorName': 'Anne Stokes', 'showPicRow': 1, 'pics': [{'picName': 'pic_inqLW6G17x', 'picType': 1, 'picUnlockDate': 20210724, 'picVipUnlockDate': 20210721, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': '6me9K6m+8gw6SjpKccKnFA==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x.npic?ver=6me9K6m+8gw6SjpKccKnFA=='}, 'picThumbnail': {'md5': 'pG+5aNTPGTKqWXVvLwRHaw==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_thumbnail.png?ver=pG+5aNTPGTKqWXVvLwRHaw=='}, 'picColorImg': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg=='}, 'picFrameImg': {'md5': '424j1kKS0TZ7ORQE9Cehwg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_frame.png?ver=424j1kKS0TZ7ORQE9Cehwg=='}, 'picColorfulThumbnail': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_OA5bB_gBUs', 'picType': 1, 'picUnlockDate': 20210723, 'picVipUnlockDate': 20210720, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '8VI/YZBKKSBPS8j8WCmx/w==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs.npic?ver=8VI/YZBKKSBPS8j8WCmx/w=='}, 'picThumbnail': {'md5': '8jrpea5KIzWpgPbVVUPnbg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_thumbnail.png?ver=8jrpea5KIzWpgPbVVUPnbg=='}, 'picColorImg': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg=='}, 'picFrameImg': {'md5': 'ABbCXpHPtt2M9QH6xotyHw==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_frame.png?ver=ABbCXpHPtt2M9QH6xotyHw=='}, 'picColorfulThumbnail': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XebwVI_EPm', 'picType': 1, 'picUnlockDate': 20210722, 'picVipUnlockDate': 20210719, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'AREroyzZDvatVRmHz7E8dg==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm.npic?ver=AREroyzZDvatVRmHz7E8dg=='}, 'picThumbnail': {'md5': '+5dWEQai4DLdNCyCjyMDRQ==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_thumbnail.png?ver=+5dWEQai4DLdNCyCjyMDRQ=='}, 'picColorImg': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw=='}, 'picFrameImg': {'md5': 'wWwj2v/KlrLe/37h/LgXRA==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_frame.png?ver=wWwj2v/KlrLe/37h/LgXRA=='}, 'picColorfulThumbnail': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hgaUBucdNq', 'picType': 1, 'picUnlockDate': 20210721, 'picVipUnlockDate': 20210718, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'VVV4R3e4J2PWV1qpCEaymA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq.npic?ver=VVV4R3e4J2PWV1qpCEaymA=='}, 'picThumbnail': {'md5': '+WXHukRsEV7FXSq3xFQ6lg==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_thumbnail.png?ver=+WXHukRsEV7FXSq3xFQ6lg=='}, 'picColorImg': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ=='}, 'picFrameImg': {'md5': 'WRzPzCFG90h3Y/zTermbxA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_frame.png?ver=WRzPzCFG90h3Y/zTermbxA=='}, 'picColorfulThumbnail': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IDsbYN5dTs', 'picType': 1, 'picUnlockDate': 20210720, 'picVipUnlockDate': 20210717, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'hxtD/lb3f1nTCDQq8kJgpw==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs.npic?ver=hxtD/lb3f1nTCDQq8kJgpw=='}, 'picThumbnail': {'md5': 'AkrBdkZb2Sm7iDIOcngmkg==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_thumbnail.png?ver=AkrBdkZb2Sm7iDIOcngmkg=='}, 'picColorImg': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA=='}, 'picFrameImg': {'md5': 'heC6Z06HqD4/pTOZGspIeA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_frame.png?ver=heC6Z06HqD4/pTOZGspIeA=='}, 'picColorfulThumbnail': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_W5cfH-La0d', 'picType': 1, 'picUnlockDate': 20210719, 'picVipUnlockDate': 20210716, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': '4BVFaT+0KKIEpbHuWjsGYA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d.npic?ver=4BVFaT+0KKIEpbHuWjsGYA=='}, 'picThumbnail': {'md5': 'E7kZ24HYkU6wp/6d/GH6nw==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_thumbnail.png?ver=E7kZ24HYkU6wp/6d/GH6nw=='}, 'picColorImg': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA=='}, 'picFrameImg': {'md5': '0JXRrRKdCPjsVQU3fFohqg==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_frame.png?ver=0JXRrRKdCPjsVQU3fFohqg=='}, 'picColorfulThumbnail': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_H2ahnLFC9c', 'picType': 1, 'picUnlockDate': 20210718, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'iy3s+kEjkUyrTaC1Cq1hbw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c.npic?ver=iy3s+kEjkUyrTaC1Cq1hbw=='}, 'picThumbnail': {'md5': 'dOOQFdDj/3bHelpl+aqUPQ==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_thumbnail.png?ver=dOOQFdDj/3bHelpl+aqUPQ=='}, 'picColorImg': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw=='}, 'picFrameImg': {'md5': 'lUBa7hYgnmv9URei2fuDCA==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_frame.png?ver=lUBa7hYgnmv9URei2fuDCA=='}, 'picColorfulThumbnail': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3U_WIBSsD_', 'picType': 1, 'picUnlockDate': 20210717, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iYqfaQRAa15tIFoiAHNNSA==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD_.npic?ver=iYqfaQRAa15tIFoiAHNNSA=='}, 'picThumbnail': {'md5': 'Lvt+78CTOI8WPWYAugkNmg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__thumbnail.png?ver=Lvt+78CTOI8WPWYAugkNmg=='}, 'picColorImg': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg=='}, 'picFrameImg': {'md5': 'IzjlK1tDO2TDZbnX+axH6A==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__frame.png?ver=IzjlK1tDO2TDZbnX+axH6A=='}, 'picColorfulThumbnail': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_gleud9bb7D', 'picType': 1, 'picUnlockDate': 20210716, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'n4vbNr063IpUVlZsHRebrA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D.npic?ver=n4vbNr063IpUVlZsHRebrA=='}, 'picThumbnail': {'md5': '/EaylKyt+p4fvV0vL5P0+g==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_thumbnail.png?ver=/EaylKyt+p4fvV0vL5P0+g=='}, 'picColorImg': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ=='}, 'picFrameImg': {'md5': 'Wp3+NgVKRi/Mzqb3eURgFA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_frame.png?ver=Wp3+NgVKRi/Mzqb3eURgFA=='}, 'picColorfulThumbnail': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_pGzY8qgdpA', 'picType': 1, 'picUnlockDate': 20210715, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'hudKviQn/tAKRoVbELEr8A==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA.npic?ver=hudKviQn/tAKRoVbELEr8A=='}, 'picThumbnail': {'md5': 'uAxhCYeoVPqG9mJGBdJSWA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_thumbnail.png?ver=uAxhCYeoVPqG9mJGBdJSWA=='}, 'picColorImg': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ=='}, 'picFrameImg': {'md5': 'iRgnUuqYNAO4lvX5u0l5tA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_frame.png?ver=iRgnUuqYNAO4lvX5u0l5tA=='}, 'picColorfulThumbnail': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161275', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 20036, 'rowType': 'Books', 'titleKey': 'Gothic Queens', 'descKey': 'The Fantasy Art of Anne Stokes.', 'rowOrder': 3000, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-20036/featrue-20036_g4oq1CnH8B.jpg?ver=MOCj85ErMUNLplfNHiXl7g==', 'detailPicMd5': 'MOCj85ErMUNLplfNHiXl7g==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210715, 'expireDate': 20250831, 'authorHeadPicPath': 'color/1.0/feature/-20036/featrue-20036_f4bzVV6ksX.png?ver=+KUHGGTG8GEqkH+R3PHobQ==', 'authorHeadPicMd5': '+KUHGGTG8GEqkH+R3PHobQ==', 'authorName': 'Anne Stokes', 'showPicRow': 1, 'pics': [{'picName': 'pic_inqLW6G17x', 'picType': 1, 'picUnlockDate': 20210724, 'picVipUnlockDate': 20210721, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': '6me9K6m+8gw6SjpKccKnFA==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x.npic?ver=6me9K6m+8gw6SjpKccKnFA=='}, 'picThumbnail': {'md5': 'pG+5aNTPGTKqWXVvLwRHaw==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_thumbnail.png?ver=pG+5aNTPGTKqWXVvLwRHaw=='}, 'picColorImg': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg=='}, 'picFrameImg': {'md5': '424j1kKS0TZ7ORQE9Cehwg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_frame.png?ver=424j1kKS0TZ7ORQE9Cehwg=='}, 'picColorfulThumbnail': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_OA5bB_gBUs', 'picType': 1, 'picUnlockDate': 20210723, 'picVipUnlockDate': 20210720, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '8VI/YZBKKSBPS8j8WCmx/w==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs.npic?ver=8VI/YZBKKSBPS8j8WCmx/w=='}, 'picThumbnail': {'md5': '8jrpea5KIzWpgPbVVUPnbg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_thumbnail.png?ver=8jrpea5KIzWpgPbVVUPnbg=='}, 'picColorImg': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg=='}, 'picFrameImg': {'md5': 'ABbCXpHPtt2M9QH6xotyHw==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_frame.png?ver=ABbCXpHPtt2M9QH6xotyHw=='}, 'picColorfulThumbnail': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XebwVI_EPm', 'picType': 1, 'picUnlockDate': 20210722, 'picVipUnlockDate': 20210719, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'AREroyzZDvatVRmHz7E8dg==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm.npic?ver=AREroyzZDvatVRmHz7E8dg=='}, 'picThumbnail': {'md5': '+5dWEQai4DLdNCyCjyMDRQ==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_thumbnail.png?ver=+5dWEQai4DLdNCyCjyMDRQ=='}, 'picColorImg': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw=='}, 'picFrameImg': {'md5': 'wWwj2v/KlrLe/37h/LgXRA==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_frame.png?ver=wWwj2v/KlrLe/37h/LgXRA=='}, 'picColorfulThumbnail': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hgaUBucdNq', 'picType': 1, 'picUnlockDate': 20210721, 'picVipUnlockDate': 20210718, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'VVV4R3e4J2PWV1qpCEaymA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq.npic?ver=VVV4R3e4J2PWV1qpCEaymA=='}, 'picThumbnail': {'md5': '+WXHukRsEV7FXSq3xFQ6lg==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_thumbnail.png?ver=+WXHukRsEV7FXSq3xFQ6lg=='}, 'picColorImg': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ=='}, 'picFrameImg': {'md5': 'WRzPzCFG90h3Y/zTermbxA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_frame.png?ver=WRzPzCFG90h3Y/zTermbxA=='}, 'picColorfulThumbnail': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IDsbYN5dTs', 'picType': 1, 'picUnlockDate': 20210720, 'picVipUnlockDate': 20210717, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'hxtD/lb3f1nTCDQq8kJgpw==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs.npic?ver=hxtD/lb3f1nTCDQq8kJgpw=='}, 'picThumbnail': {'md5': 'AkrBdkZb2Sm7iDIOcngmkg==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_thumbnail.png?ver=AkrBdkZb2Sm7iDIOcngmkg=='}, 'picColorImg': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA=='}, 'picFrameImg': {'md5': 'heC6Z06HqD4/pTOZGspIeA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_frame.png?ver=heC6Z06HqD4/pTOZGspIeA=='}, 'picColorfulThumbnail': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_W5cfH-La0d', 'picType': 1, 'picUnlockDate': 20210719, 'picVipUnlockDate': 20210716, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': '4BVFaT+0KKIEpbHuWjsGYA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d.npic?ver=4BVFaT+0KKIEpbHuWjsGYA=='}, 'picThumbnail': {'md5': 'E7kZ24HYkU6wp/6d/GH6nw==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_thumbnail.png?ver=E7kZ24HYkU6wp/6d/GH6nw=='}, 'picColorImg': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA=='}, 'picFrameImg': {'md5': '0JXRrRKdCPjsVQU3fFohqg==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_frame.png?ver=0JXRrRKdCPjsVQU3fFohqg=='}, 'picColorfulThumbnail': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_H2ahnLFC9c', 'picType': 1, 'picUnlockDate': 20210718, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'iy3s+kEjkUyrTaC1Cq1hbw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c.npic?ver=iy3s+kEjkUyrTaC1Cq1hbw=='}, 'picThumbnail': {'md5': 'dOOQFdDj/3bHelpl+aqUPQ==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_thumbnail.png?ver=dOOQFdDj/3bHelpl+aqUPQ=='}, 'picColorImg': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw=='}, 'picFrameImg': {'md5': 'lUBa7hYgnmv9URei2fuDCA==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_frame.png?ver=lUBa7hYgnmv9URei2fuDCA=='}, 'picColorfulThumbnail': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3U_WIBSsD_', 'picType': 1, 'picUnlockDate': 20210717, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iYqfaQRAa15tIFoiAHNNSA==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD_.npic?ver=iYqfaQRAa15tIFoiAHNNSA=='}, 'picThumbnail': {'md5': 'Lvt+78CTOI8WPWYAugkNmg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__thumbnail.png?ver=Lvt+78CTOI8WPWYAugkNmg=='}, 'picColorImg': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg=='}, 'picFrameImg': {'md5': 'IzjlK1tDO2TDZbnX+axH6A==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__frame.png?ver=IzjlK1tDO2TDZbnX+axH6A=='}, 'picColorfulThumbnail': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_gleud9bb7D', 'picType': 1, 'picUnlockDate': 20210716, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'n4vbNr063IpUVlZsHRebrA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D.npic?ver=n4vbNr063IpUVlZsHRebrA=='}, 'picThumbnail': {'md5': '/EaylKyt+p4fvV0vL5P0+g==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_thumbnail.png?ver=/EaylKyt+p4fvV0vL5P0+g=='}, 'picColorImg': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ=='}, 'picFrameImg': {'md5': 'Wp3+NgVKRi/Mzqb3eURgFA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_frame.png?ver=Wp3+NgVKRi/Mzqb3eURgFA=='}, 'picColorfulThumbnail': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_pGzY8qgdpA', 'picType': 1, 'picUnlockDate': 20210715, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'hudKviQn/tAKRoVbELEr8A==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA.npic?ver=hudKviQn/tAKRoVbELEr8A=='}, 'picThumbnail': {'md5': 'uAxhCYeoVPqG9mJGBdJSWA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_thumbnail.png?ver=uAxhCYeoVPqG9mJGBdJSWA=='}, 'picColorImg': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ=='}, 'picFrameImg': {'md5': 'iRgnUuqYNAO4lvX5u0l5tA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_frame.png?ver=iRgnUuqYNAO4lvX5u0l5tA=='}, 'picColorfulThumbnail': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF</t>
         </is>
       </c>
     </row>
@@ -2728,7 +2728,7 @@
       </c>
       <c r="L44" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297276', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161284', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw=='}, 'picFrameImg': {'md5': 'v+Z8AzZ3Iq9NzxDmP4ZVNw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_frame.png?ver=v+Z8AzZ3Iq9NzxDmP4ZVNw=='}, 'picColorfulThumbnail': {'md5': 'mn3gxVlrEX6YWvJb/O2Xiw==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_color.png?ver=mn3gxVlrEX6YWvJb/O2Xiw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Bl7veRSamv', 'picType': 0, 'picUnlockDate': 20210522, 'picExpireDate': 20310522, 'picAssets': {'picNpic': {'md5': 'ZJoJhglJz5x6s1mPw0EGJA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv.npic?ver=ZJoJhglJz5x6s1mPw0EGJA=='}, 'picThumbnail': {'md5': 'H+dBz37+pRGPQT+1Cu6M4g==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_thumbnail.png?ver=H+dBz37+pRGPQT+1Cu6M4g=='}, 'picColorImg': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA=='}, 'picFrameImg': {'md5': '8LUCjMKIsSU5iSB0+g76zA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_frame.png?ver=8LUCjMKIsSU5iSB0+g76zA=='}, 'picColorfulThumbnail': {'md5': 'cfiTZaEWRDNdJbkh+PI2FA==', 'url': 'color/1.0/pics/pic_Bl7veRSamv/pic_Bl7veRSamv_color.png?ver=cfiTZaEWRDNdJbkh+PI2FA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_1e4PvRzGfI', 'picType': 0, 'picUnlockDate': 20210521, 'picExpireDate': 20310521, 'picAssets': {'picNpic': {'md5': 'bARXBY3MtsLTkhkvwWBvPg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI.npic?ver=bARXBY3MtsLTkhkvwWBvPg=='}, 'picThumbnail': {'md5': 'i6UjAQNGQETaPSrAHPPPvw==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_thumbnail.png?ver=i6UjAQNGQETaPSrAHPPPvw=='}, 'picColorImg': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA=='}, 'picFrameImg': {'md5': '2O+pmhAVcSfYhhw7Gj50Wg==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_frame.png?ver=2O+pmhAVcSfYhhw7Gj50Wg=='}, 'picColorfulThumbnail': {'md5': 'j/l4qaUj8gj/ZJ66tTjysA==', 'url': 'color/1.0/pics/pic_1e4PvRzGfI/pic_1e4PvRzGfI_color.png?ver=j/l4qaUj8gj/ZJ66tTjysA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3qdBVSNGoX', 'picType': 0, 'picUnlockDate': 20210520, 'picExpireDate': 20310520, 'picAssets': {'picNpic': {'md5': 'ekJdRNSTnMRKnw7e0ngbNw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX.npic?ver=ekJdRNSTnMRKnw7e0ngbNw=='}, 'picThumbnail': {'md5': 'q6g40BmJ1NZb8eZs4mD2PA==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_thumbnail.png?ver=q6g40BmJ1NZb8eZs4mD2PA=='}, 'picColorImg': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A=='}, 'picFrameImg': {'md5': '3ncl90lT6F6GVBsRdFdLuw==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_frame.png?ver=3ncl90lT6F6GVBsRdFdLuw=='}, 'picColorfulThumbnail': {'md5': 'BpPp81NpqYZvUHx+w9R97A==', 'url': 'color/1.0/pics/pic_3qdBVSNGoX/pic_3qdBVSNGoX_color.png?ver=BpPp81NpqYZvUHx+w9R97A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fypuqnPWtF', 'picType': 0, 'picUnlockDate': 20210519, 'picExpireDate': 20310519, 'picAssets': {'picNpic': {'md5': 'fhk6ROmkHnBVx/VJJj/iJg==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF.npic?ver=fhk6ROmkHnBVx/VJJj/iJg=='}, 'picThumbnail': {'md5': 'oe5+6nWFvgNjqozQ7M6Vqw==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_thumbnail.png?ver=oe5+6nWFvgNjqozQ7M6Vqw=='}, 'picColorImg': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ=='}, 'picFrameImg': {'md5': 'Qk/taa9zwY3YTgfSViw61A==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_frame.png?ver=Qk/taa9zwY3YTgfSViw61A=='}, 'picColorfulThumbnail': {'md5': 'B8GxBJ+BJfOeFPrscmUprQ==', 'url': 'color/1.0/pics/pic_fypuqnPWtF/pic_fypuqnPWtF_color.png?ver=B8GxBJ+BJfOeFPrscmUprQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_SZG-EtWkcs', 'picType': 0, 'picUnlockDate': 20210518, 'picExpireDate': 20310518, 'picAssets': {'picNpic': {'md5': '4kEdKFh+cTA8SE4baqPxpQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs.npic?ver=4kEdKFh+cTA8SE4baqPxpQ=='}, 'picThumbnail': {'md5': 'UVyH+/UGu7sj50coEdIRbA==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_thumbnail.png?ver=UVyH+/UGu7sj50coEdIRbA=='}, 'picColorImg': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A=='}, 'picFrameImg': {'md5': '6tTX9s/hf52kH17NEzXlSQ==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_frame.png?ver=6tTX9s/hf52kH17NEzXlSQ=='}, 'picColorfulThumbnail': {'md5': 'k2pySlsvgJYw+JWNqWP04A==', 'url': 'color/1.0/pics/pic_SZG-EtWkcs/pic_SZG-EtWkcs_color.png?ver=k2pySlsvgJYw+JWNqWP04A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_NCmw5_G4j2', 'picType': 0, 'picUnlockDate': 20210517, 'picExpireDate': 20310517, 'picAssets': {'picNpic': {'md5': '8XllTNATQEX9dpYknb0ycw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2.npic?ver=8XllTNATQEX9dpYknb0ycw=='}, 'picThumbnail': {'md5': '2ET1NGN2hbeKevTL7olTVg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_thumbnail.png?ver=2ET1NGN2hbeKevTL7olTVg=='}, 'picColorImg': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg=='}, 'picFrameImg': {'md5': '0UeZnLZkwuBOa1aybMBKrw==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_frame.png?ver=0UeZnLZkwuBOa1aybMBKrw=='}, 'picColorfulThumbnail': {'md5': 'yc3cz041sVH1emEotrEFAg==', 'url': 'color/1.0/pics/pic_NCmw5_G4j2/pic_NCmw5_G4j2_color.png?ver=yc3cz041sVH1emEotrEFAg==&amp;x-oss-process=style/colorTHN'}}}], 'isEnd': False}}</t>
         </is>
       </c>
     </row>
@@ -3062,7 +3062,7 @@
       </c>
       <c r="L51" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297285', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 320423, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210726, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 320851, 'picId': '210726-yKUdt_VME.png', 'filePath': 'color/1.0/banners/210726/210726-yKUdt_VME.png', 'fileMd5': 'h+pjtki9eUDkSGwljq/JJw==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210726, 'expireDate': 20220726, 'deepLink': '1006741530129789|tapcolor|https://www.facebook.com/329700151167267/posts/1006741530129789/'}, {'eventId': 320850, 'picId': '210723-j0GH0E52h.png', 'filePath': 'color/1.0/banners/210723/210723-j0GH0E52h.png', 'fileMd5': '99cj/91ivE5TIyAzH/q33g==', 'title': 'Vote For The Best', 'desc': 'Which one is the winner for you?', 'buttonText': 'Go', 'unlockDate': 20210724, 'expireDate': 20220723, 'deepLink': '186157960225557|tapcolor|https://www.facebook.com/329700151167267/posts/186157960225557/'}, {'eventId': 320849, 'picId': '210723-tTiYdsxWI.png', 'filePath': 'color/1.0/banners/210723/210723-tTiYdsxWI.png', 'fileMd5': 'B/8OchruELb87L/hJlzZHw==', 'title': "Let's celebrate!", 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210723, 'expireDate': 20220723, 'deepLink': '1004823800321562|tapcolor|https://www.facebook.com/329700151167267/posts/1004823800321562/'}, {'eventId': 320848, 'picId': '210722-HwpMSwgmR.png', 'filePath': 'color/1.0/banners/210722/210722-HwpMSwgmR.png', 'fileMd5': 'z1Ds7NQsi1Ici8BygRpo5g==', 'title': 'Which one do you like best?', 'desc': 'Share in the comments!', 'buttonText': 'Go', 'unlockDate': 20210722, 'expireDate': 20220722, 'deepLink': '1004269260377016|tapcolor|https://www.facebook.com/329700151167267/posts/1004269260377016/'}, {'eventId': 320847, 'picId': '210721-cAqbQXrFH.png', 'filePath': 'color/1.0/banners/210721/210721-cAqbQXrFH.png', 'fileMd5': 'zE77FlWBmlhJkZ6LilM3mw==', 'title': "Let's celebrate!", 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210721, 'expireDate': 20220721, 'deepLink': '1003596600444282|tapcolor|https://www.facebook.com/329700151167267/posts/1003596600444282/'}, {'eventId': 320846, 'picId': '210720-MEPfiT08W.png', 'filePath': 'color/1.0/banners/210720/210720-MEPfiT08W.png', 'fileMd5': 'Mzi2dcpinwZXNk7JFE7plg==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210720, 'expireDate': 20220720, 'deepLink': '1002912210512721|tapcolor|https://www.facebook.com/329700151167267/posts/1002912210512721/'}]}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161292', 'apiName': 'getNewsConfig', 'data': {'newsList': [{'eventId': 332896, 'picId': '200818-_TezoxdED.png', 'filePath': 'color/1.0/banners/200818/200818-_TezoxdED.png', 'fileMd5': '12bgUkzReLhoPkrHZk/HYg==', 'title': 'Join us on Facebook', 'desc': 'Get exclusive images for FREE', 'buttonText': 'Go', 'unlockDate': 20210805, 'expireDate': 20210818, 'deepLink': '746561469481131|tapcolor|https://www.facebook.com/329700151167267/posts/746561469481131/'}, {'eventId': 333334, 'picId': '210805-oBzckwNA-.jpg', 'filePath': 'color/1.0/banners/210805/210805-oBzckwNA-.jpg', 'fileMd5': '+khDQ8vus7+DGNFFgxY7Eg==', 'title': 'Which one do you like best?', 'desc': 'Share in the comments!', 'buttonText': 'Go', 'unlockDate': 20210805, 'expireDate': 20220805, 'deepLink': '1013073916163217|tapcolor|https://www.facebook.com/329700151167267/posts/1013073916163217/'}, {'eventId': 333333, 'picId': '210804-yXQaNMQ5P.png', 'filePath': 'color/1.0/banners/210804/210804-yXQaNMQ5P.png', 'fileMd5': 'EPOJotHOiwKZqxwKtus6FQ==', 'title': 'Count And Share', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210804, 'expireDate': 20220804, 'deepLink': '1011793469624595|tapcolor|https://www.facebook.com/329700151167267/posts/1011793469624595/'}, {'eventId': 333332, 'picId': '210803-OFruhJiT-.png', 'filePath': 'color/1.0/banners/210803/210803-OFruhJiT-.png', 'fileMd5': 'JZZdDRIso28vNLAN9J8r1w==', 'title': 'Puzzle Game', 'desc': 'Do you know the answer?', 'buttonText': 'Go', 'unlockDate': 20210803, 'expireDate': 20220803, 'deepLink': '1011793469624595|tapcolor|https://www.facebook.com/329700151167267/posts/1011793469624595/'}, {'eventId': 333331, 'picId': '210802-EAzZYtaNt.png', 'filePath': 'color/1.0/banners/210802/210802-EAzZYtaNt.png', 'fileMd5': 'ls4HoPsUR/zzPrPB0EbSFg==', 'title': 'National Coloring Book Day', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210803, 'expireDate': 20220802, 'deepLink': '951476532340968|tapcolor|https://www.facebook.com/329700151167267/posts/951476532340968/'}, {'eventId': 333330, 'picId': '210802-yIpHfZywP.png', 'filePath': 'color/1.0/banners/210802/210802-yIpHfZywP.png', 'fileMd5': '2X6RkQKkGA7cJTRZb2mzJA==', 'title': 'Image Of The Week', 'desc': 'Get the BONUS for FREE!', 'buttonText': 'Go', 'unlockDate': 20210802, 'expireDate': 20220802, 'deepLink': '1011144879689454|tapcolor|https://www.facebook.com/329700151167267/posts/1011144879689454/'}, {'eventId': 333329, 'picId': '210730-C3L3hv2s4.png', 'filePath': 'color/1.0/banners/210730/210730-C3L3hv2s4.png', 'fileMd5': 'KL8MRrB2xAOdkXy80/1jNA==', 'title': 'Vote For The Best', 'desc': 'Which one is the winner for you?', 'buttonText': 'Go', 'unlockDate': 20210731, 'expireDate': 20220730, 'deepLink': '2056676724483673|tapcolor|https://www.facebook.com/329700151167267/posts/2056676724483673/'}]}}</t>
         </is>
       </c>
     </row>
@@ -3424,7 +3424,7 @@
       </c>
       <c r="L59" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297294', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': 'page:questionnaire', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '200911-v7_LKu3ZO.png', 'picUrl': 'color/1.0/banners/200911/200911-v7_LKu3ZO.png?ver=f+GYaDllm/Hr0271x00Yiw==', 'picMd5': 'f+GYaDllm/Hr0271x00Yiw==', 'buttonKey': 'START', 'buttonColor': '245,189,81', 'unlockDate': 20200911, 'expireDate': 20300911, 'minVersion': 40501, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': '', 'picId': '201216-N6XbpfnKe.png', 'picUrl': 'color/1.0/banners/201216/201216-N6XbpfnKe.png?ver=9mm0TczXbrrjZkJHjn3ixQ==', 'picMd5': '9mm0TczXbrrjZkJHjn3ixQ==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20201010, 'expireDate': 20301010, 'minVersion': 40601, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}, {'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': '', 'descKey': '', 'picId': '210204-r9b4A8epD.png', 'picUrl': 'color/1.0/banners/210204/210204-r9b4A8epD.png?ver=uYhxkKI+cKvuGAQ6ZhqmOw==', 'picMd5': 'uYhxkKI+cKvuGAQ6ZhqmOw==', 'buttonKey': '', 'buttonColor': '', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}]}}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161300', 'apiName': 'getBannerConfig', 'data': {'bannerList': [{'action': 'tapcoloring|tapcolor|https://www.facebook.com/tapcoloring', 'bannerType': 'outerlink', 'titleKey': 'colorFFFFFF Facebook group title', 'descKey': 'colorFEFEFF Facebook group description', 'picId': '210709-rvR-xRjVU.png', 'picUrl': 'color/1.0/banners/210709/210709-rvR-xRjVU.png?ver=c2Xsl6MucmFoZDvbaTXBvw==', 'picMd5': 'c2Xsl6MucmFoZDvbaTXBvw==', 'buttonKey': 'GO', 'buttonColor': '33,125,243,255', 'unlockDate': 20210709, 'expireDate': 20300709, 'minVersion': 10000, 'platform': '["Android", "Ios"]', 'minPlayDays': 0}, {'action': 'login:Facebook', 'bannerType': 'innerlink', 'titleKey': 'color1E70DB Sign in with facebook', 'descKey': 'colorF06895 sync data &amp; get hints', 'picId': '210730-YlJXWBm34.png', 'picUrl': 'color/1.0/banners/210730/210730-YlJXWBm34.png?ver=4f4YLJKtU36ciqY+y21xjA==', 'picMd5': '4f4YLJKtU36ciqY+y21xjA==', 'buttonKey': 'GO', 'buttonColor': '65,147,254,255', 'unlockDate': 20210730, 'expireDate': 20300730, 'minVersion': 10000, 'platform': '["Android", "Ios"]', 'minPlayDays': 0}, {'action': 'page:purchase', 'bannerType': 'innerlink', 'titleKey': '', 'descKey': 'Become Premium for unlimited hints and ads-free coloring experience!', 'picId': '210204-q1ucmy9vb.png', 'picUrl': 'color/1.0/banners/210204/210204-q1ucmy9vb.png?ver=1hRmo6tqPi/ncBJLO8Mb8w==', 'picMd5': '1hRmo6tqPi/ncBJLO8Mb8w==', 'buttonKey': 'Details', 'buttonColor': '253,196,74', 'unlockDate': 20200903, 'expireDate': 20300901, 'minVersion': 10000, 'platform': '["Ios", "Android"]', 'minPlayDays': 0}]}}</t>
         </is>
       </c>
     </row>
@@ -3776,7 +3776,7 @@
       </c>
       <c r="L66" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297303', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看视频，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '点赞', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '喜爱', 'All pictures you like will been save here. ': '所有已赞的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看视频解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已赞', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看视频。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费视频券，使用它来跳过视频吧', 'Skip Ads': '跳过视频', 'Skipped video ads with 1 video token': '使用1张视频券跳过了视频', 'Skipped video ads': '跳过视频', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '视频券', 'Skip video ads and enjoy!': '跳过视频，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看视频，试试我们的视频券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看视频', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看视频', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看视频解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看视频。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉视频加载失败，我们准备了特别优惠给你！', 'Loading video...': '视频加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '视频将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '视频已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不', 'skip': '跳过动画', 'Restore': '恢复订阅', 'purchased items': '已购商品', 'Subscription FAQ': '内购问题FAQ', 'Daily Challenge title': '每日挑战', 'Daily Challenge description': '快来开启每日挑战！', 'Get stuck? Use hints': '找不到小色块？用用提示～', 'Available storage space of your device is less than 25M. Clear Cache for a better experience.': '可用存储空间不足25M，清理缓存以获得更多存储空间。', 'Clearing the cache will not affect normal use': '清理缓存不影响正常填色', 'color1F1F1F Daily Challenge title': '&lt;color=#1F1F1F&gt;每日挑战&lt;/color&gt;', 'color3B3B3B Daily Challenge description': '&lt;color=#3B3B3B&gt;快来开启每日挑战！&lt;/color&gt;', 'color1E70DB Sign in with facebook': '&lt;color=#1E70DB&gt;通过Facebook登录&lt;/color&gt;', 'colorFFFFFF Facebook group title': 'Facebook社区', 'colorFEFEFF Facebook group description': '加入社区获取每日奖励图片！', 'colorF06895 sync data &amp; get hints': '同步数据+获取免费hint！', 'Gothic Queens': '哥特皇后', 'The Fantasy Art of Anne Stokes.': 'Anne Stokes的奇幻艺术'}, 'version': '1626260147'}, 'apiName': 'getLanguage'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161309', 'data': {'language': {'We protect your privacy': '我们保护您的隐私', 'New Pop-up description': '我们的{0}和{1}都已更新，请点击同意开始游戏。', 'privacy policy': '隐私政策', 'Terms of Use': '使用条款', 'ACCEPT': '同意', 'Gallery': '图集', 'Featured': '精选', 'Daily': '每日', 'Event': '活动', 'My Painting': '我的', 'All': '全部图片', 'Animated': '精彩动图', 'Special': '特别推荐', 'Jigsaw': '拼图', 'Bonus': '奖励图片', 'Character': '角色', 'Animal': '动物', 'Flower': '花朵', 'Love': '爱', 'Message': '箴言', 'Place': '地点', 'Nature': '自然', 'Unicorn': '独角兽', 'Festival': '节日', 'Marine': '海洋', 'Mosaic': '马赛克', 'Food': '食物', 'Fashion': '时尚', 'Mandala': '曼陀罗', 'Cartoon': '卡通', 'Other': '其他', 'Doodle': '涂鸦', 'Tap Color Premium': 'Tap Color会员', 'Join Tap Color Premium for better coloring experience.': '加入Tap Color会员获得更好的填色体验。', 'Details': '查看详情', 'Get the amazing image for FREE!': '免费获得精美图片！', 'Tomorrow Free Image': '明日精美图片即将到来', 'GO!': '开始上色!', 'Join our Facebook community and get exclusive images.': '加入 Facebook 社区获得更多额外图片', 'Click hint can help you find one area！': '使用提示来寻找小色块。', 'Using bucket can print all cells of one color!': '使用油漆桶可为一个色号的所有区域填色。', 'No ads available': '当前无可观看广告，\\n 打开商店兑换工具吧！', 'No': '取消', 'OK': '好的', 'Like': '收藏', 'Save': '保存', 'Storage access is needed to download your picture!': '需要存储权限来保存或分享您的创作', 'Image saved successfully!': '图片保存成功！', 'Image save failed!': '图片保存失败', 'Video saved successfully!': '视频保存成功！', 'Video save failed!': '视频保存失败', 'Share': '分享', 'Image': '图片', 'Photo': '图片', 'Video': '视频', 'The playback video is being created': '填色回放视频正在生成中……', 'Completed Jigsaw': '真棒！您已经完成了这幅拼图。', 'Jigsaw Tips': '您已经完成了这套拼图的{0}。', 'Next': '继续', 'Continue': '继续', 'Mask pop general des': '免费图片将定期更新。', 'Mask pop vip des': '会员现在可以解锁所有！', 'Update des': '更新于{0}. {1}', 'Premium unlock today': '会员今天解锁！', 'fairies': '魔法精灵', 'Have fun exploring the fairyland.': '幻境中探索无限快乐。', 'Vote: Week 28': '投票：第28周', 'Here are the newly Top 6 images in this week. Which one do you prefer?': '这是本周最新排名靠前6张图片。\\n你最喜欢哪一张？快来加入我们的Facebook社区吧！', 'Baby Animals': '可爱小动物', 'Animal lovers are a special breed of humans. Color and share your favorite.': '动物是人类的好朋友。\xa0快来涂色并分享。', 'Inspirational Quotes': '励志名言', 'start your day with some motivational quotes.': '开启新一天！', 'Domain of magic': '魔幻领域', 'Welcome to magic world!': '欢迎来到魔法世界！', 'Master Challenge': '高手挑战', 'You are smart and come to complete the challenge': '聪明的你快来完成挑战吧', 'Fantasy Animations': '奇妙动图', 'Wow, amazing animation effects!': '哇，不可思议的动画效果！', 'Rare animal': '稀奇动物', 'Fantastic Beasts And Where To Find Them': '神奇动物在哪里', 'Flower romance': '浪漫鲜花', 'The most beautiful flowers and best wishes to you': '给你最美的花朵和最好的祝愿', 'Unicorns': '独角兽', 'A mysterious creature is waiting for you to discover': '一种神秘生物等你发现', 'Keep love in your heart.': '让爱永存心中', 'Wonderful Women': '奇妙女神', 'Beauty Comes In All Shapes &amp; Styles.': '你比想象中更美。', 'Ferocious animal': '凶猛野兽', 'Courage and strength crown you': '勇气和力量加冕于你', 'Little cute': '小可爱', 'Cute animals brighten your life': '可爱动物点亮你的生活', 'Season': '四季人生', 'Every season is one of becoming. What are your defining moments? Color and Share them.': '四季人生。你最难忘的人生时刻是什么时候呢？快来填色分享吧！', 'The Zodiac': '十二星座', 'Twelve constellations': '每一个星座都有独一无二的奇妙图像，快来找到它进行涂色吧！', 'The Magic Of The Night': '暗夜魔法', 'The darker the night, the brighter the stars. The door to a magical world is gradually opening.': '夜晚越黑，星星越亮。 通向魔法世界的大门正在逐渐打开。', "Happy Mother's Day": '母亲节快乐！', "What's your best memory with Mom? Share the love with all Tap fans! ": '与母亲最美好的记忆是什么？ 快来与大家分享吧！', 'The Hunt is on! Wish your family a Happy&amp;Safe Easter!': '狩猎开始了！祝您和家人度过快乐安康的复活节！', 'Halloween': '万圣节', 'Trick or Treat': '不给糖就捣蛋！动动手指进入 Tap Color 的万圣小镇，和女巫、魂灵们一起狂欢！', 'Merry Christmas': '圣诞快乐', 'Merry Christmas dp': '一年中最期待的日子就要到了！', 'The Little Mermaid': '海的女儿', 'This is a beautiful coloring book created by artist Angela Wong.': '这是艺术家BlueBean精心创作的画本，全新视角体验“美人鱼”的爱情故事。', 'Featured under des': '新主题即将更新，敬请期待！', 'Tap to receive amazing image!': '点击领取精美图片！', 'January': '一月', 'February': '二月', 'March': '三月', 'April': '四月', 'May': '五月', 'June': '六月', 'July': '七月', 'August': '八月', 'September': '九月', 'October': '十月', 'November': '十一月', 'December': '十二月', 'SUN': '日', 'MON': '一', 'TUE': '二', 'WED': '三', 'THU': '四', 'FRI': '五', 'SAT': '六', 'Daily Task': '每日任务', 'finish pic': '完成3幅图片', 'share pic': '分享1张图片', 'use hints': '使用3个提示道具', 'use buckets': '使用2个油漆桶', 'finish areas': '完成1000个填色区域', 'like pic': '给你喜欢的2张图片点赞', 'paint color': '填涂100个颜色', 'Awsome': '真棒！', 'You got the reward': '你得到了任务奖励！', 'Claim': '领取', 'In Progress': '进行中', 'Completed': '已完成', 'In Progress Des': '所有进行中的图片都会保存在这里', 'Completed Des': '所有已完成的图片都会保存在这里', 'Favorite': '已收藏', 'All pictures you like will been save here. ': '所有已收藏的图片会被保存在这儿', 'Go paint': '去填色', 'settings': '设置', 'Auto-switch': '自动切换颜色', 'Auto-switch from one number to another when you finished a certain color.': '该功能开启后，当您完成一种颜色的填色后会自动选择下一种颜色。', 'Hide colored': '隐藏已填色图片', 'Hide number': '隐藏数字', 'Vibrate': '涂色震动', 'Sound': '音效', 'Fill Animation': '填充动画', 'Highlight areas': '高亮区域', 'Choose your favorite shading effects': '选择您最喜欢的阴影效果', 'Choose': '选择', 'Cancel': '取消', 'Sign in to Sync Data': '登录以同步数据', 'Failed to Sign in': '登录失败', 'Last Synced': '最后更新：{0}', 'Contact us': '联系我们', 'Clear Cache': '清理缓存', 'Clear Cache description': '清理缓存不会影响应用程序的正常使用。我们帮助您清除为图片着色时生成的临时数据。这些图片的动画将被删除，但您完成的作品仍将保留。', 'Are you sure clear cache?': '确定清理缓存么？', 'CLEAR': '清理', 'Clearing': '清理中', 'Cleared': '清理了 {0}', 'Yes': '好的', 'Are you sure you want to restart?': '确认要重新填色？', 'Are you sure you want to delete?': '确认要删除？', 'Hall of badge': '勋章墙', 'finished pictures number': '你已经完成了{0}张图片', 'Coloring Expert': '填色大师', 'Welcome Back': '欢迎回来', 'Old Hand': '熟能生巧', 'Always in Mind': '念念不忘', 'Beauty Collector': '收集之美', 'Sharing Art': '赠人玫瑰', 'UNFETTERED': '自在如风', 'Novelty Hunter': '新奇猎手', 'True to Life': '栩栩如生', 'A Riot of Color': '万紫千红', 'No One Less': '缺一不可', 'Crowded World': '人来人往', 'Animal Land': '动物乐园', 'Blooming Age': '如花绽放', 'Live for Love': '有爱相随', 'Apothegm of Life': '人生真谛', 'Bon Voyage': '旅途愉快', 'Protect Nature': '热爱自然', 'Maverick': '特立独行', 'Get Together': '团圆之夜', 'Ebb and Flow': '潮起潮落', 'Dare to Challenge': '勇于挑战', 'Feast Your Eyes': '大饱眼福', 'Always Switched-on': '紧跟潮流', 'Meditation Time': '静心冥想', 'Color pictures': '填完{0}幅图', 'Return days': '累计{0}天登陆应用', 'Color pictures a day': '一天之内填完{0}张图', 'Continuous return days': '连续{0}天登陆应用', 'Save pictures': '保存{0}张图片', 'Share pictures': '分享{0}张图片', 'Use hints': '累计使用{0}个提示道具', 'Color Daily': '完成{0}张每日图片', 'Color Animated': '填完{0}张精彩动图', 'Color Special': '填完{0}张特别推荐图片', 'Color Jigsaw': '填完{0}张拼图图片', 'Color Character': '填完{0}张角色分类图片', 'Color Animal': '填完{0}张动物分类图片', 'Color Flower': '填完{0}张花朵分类图片', 'Color Love': '填完{0}张爱分类图片', 'Color Message': '填完{0}张箴言分类图片', 'Color Place': '填完{0}张地点分类图片', 'Color Nature': '填完{0}张自然分类图片', 'Color Unicorn': '填完{0}张独角兽分类图片', 'Color Festival': '填完{0}张节日分类图片', 'Color Marine': '填完{0}张海洋分类图片', 'Color Mosaic': '填完{0}张马赛克分类图片', 'Color Food': '填完{0}张食物分类图片', 'Color Fashion': '填完{0}张时尚分类图片', 'Color Mandala': '填完{0}张曼陀罗分类图片', 'Claimed': '已领取', "It's Time to SHARE!": '分享时刻！', 'Come to color it now!': '快来填色吧！', 'Bonus Time!': '奖励时间！', "Let's Find Differences!": '一起来找茬！', 'How many different blocks can you find?': '你能找到几处不同呢？', 'Join us on Facebook': '加入我们的 Facebook 社区', 'Get exclusive images for FREE': '免费获得更多图片', 'Sync Across Devices': '账号系统同步', 'How to sync across devices？': '如何同步账号系统', 'Image Of The Week': '本周最佳', 'Get the BONUS pics for FREE!': '免费获得奖励图片！', 'Vote For The Best': '最佳图片投票！', 'Which one is the winner for you?': '哪张才是您心中的胜出者？', 'go': '开始', 'Better Experience with Tap color Premium': '加入Tap Color会员享受尊贵体验', 'Premium Package': '会员套餐', 'Unlock All Pics！': '解锁所有图片！', 'No Popup And Banner Ads': '无插屏和横幅广告', 'nomark': '无水印', 'Daily Login Bonus': '每日登录奖励', 'one week': '1周', 'one month': '1月', 'one year': '1年', 'Most Popular': '最受欢迎', 'Best Value': '超值！', 'Subscription des Google': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到Google Play的设置页面管理或者取消您的订阅。', 'Subscription des Apple': '您的订阅会自动续费。您也可以在每个订阅周期结束前24小时取消订阅。请到App Store的设置页面管理或者取消您的订阅。', 'Purchase subscription successfully': '订阅成功！', 'Purchase subscription failed': '订阅失败', 'Subscription has expired': '订阅已过期。', 'Purchase success': '感谢！', 'daily hint gift': '每日提示礼物！', 'Come Back Tomorrow': '记得明天再来哦！', 'claim tips': '领取Tap会员每日提示礼物！', 'First Purchase Pack': '新手套餐', 'New User Package': '新人礼物', 'How do you like our game?': '您喜欢我们的游戏吗？', 'Rate': '评分', 'Any comments': '您的意见', 'Would you tell us any comments, suggestions or issues you may have?': '您能告诉我们您有什么意见、建议或问题吗？', 'Maybe Later': '以后再说', 'find bonus pic': '领取奖励图片！', 'facebook page guide': '请关注facebook主页获取更多奖励图片！', 'Exit pop des': '新的图片将很快更新，记得来填涂！', 'Are you sure quit?': '确定离开？', 'oops': '哎呀！', "we're working on it": '请检查网络连接并重试', 'Watch a video to unlock the picture': '观看广告解锁图片', 'Network error': '网络错误...', 'Slow connection': '网络缓慢…', 'daily loading failed': '哎呀！日常图片加载失败啦！', 'Try Again': '重试', 'Dear Tap Color Fans': '亲爱的Tap Color用户，', 'We will completely remove the functions': '我们即将在后续更新中下线金币和星星功能，推荐您将所有金币和星星兑换成提示道具。兑换完毕后，会自动切换到无金币和星星的版本。', 'REDEEM NOW': '立即兑换', 'Now You Have': '当前您有', 'Redeem hints and buckets': '可兑换共{0}个提示道具', 'Redeem Coins and Stars': '兑换道具', 'You may also redeem coins and stars in Settings later.': '您可稍后在设置页面兑换道具', 'Confirm': '确定', 'update guide': '我们为您带来了具有更好的着色体验以及更多精美图片的新版本。', 'new version': '新版本', 'update now': '立即更新', 'Picture will be ready soon': '图片马上就好了哦', 'TIME TO UPDATE!': '版本升级', 'Tap Color has added lots of new features with the best coloring experience ever!': 'Tap Color添加了超多\\n新功能，快升级到最新版本体验吧！', 'Featured Artist Collection': '黑珍珠', 'Esther Luntadila': 'Esther Luntadila', 'Meet our featured Artist 4E @4everestherr and her exquisite collection of black beauty.': '特色艺术家精选 4E @ 4everestherr和她精美的黑人美女特辑。', 'Vote: Week 31': '投票：第31周', 'Liked': '已收藏', 'You have already claimed this bonus': '你已经领过这个奖励啦！', 'You Found It': '开始填色', 'Open': '打开', 'Oops! Something went wrong.': '啊哦，出了一点问题。', 'Oops! Update to the latest version to get it!': '啊哦，请更新到最新版本领取哦！', 'Sorry, this event is over.': '对不起，活动结束啦！', 'Vote: Week 32': '投票：第32周', 'Best Furry Friends': '最好的朋友', 'Our pets are our family.': '可爱的家庭成员', 'Crystal Ball': '水晶球', 'Look for the magic world inside a crystal ball.': '探索藏匿于水晶球的魔法世界。', 'loading picture': '正在加载图片', 'Click to sync data': '单击同步数据', 'Download failed': '下载失败', 'Find the Pic!': '找到图片！', 'Custom Coloring Items': '自定义选择', 'Which one do you like best?': '你最喜欢哪一个？', 'Get the BONUS pic for free!': '快来领取奖励图片！', 'Check The Answer!': '揭晓答案！', 'Share your feelings with us!': '与我们分享你的感受！', 'Sudoku Game': '数独游戏', 'Do you know the answer?': '你知道答案吗？', 'Puzzle Game': '趣味游戏', 'Share in the comments!': '分享在评论里！', 'Enjoy the Birthday Bonus!': '领取生日福利图片！', 'Get the BONUS for FREE!': '快来领取奖励图片！', 'World Humanitarian Day': '世界人道主义日', 'Sure to quit?': '确定退出？', "I don't like this picture": '我不喜欢这张图片', 'We have received your feedback': '我们收到你的反馈啦', 'Upgrade to Premium to remove watermark and get so much more than that!': '升级会员去除水印并获得更多福利！', 'Watch a video to remove watermark!': '观看广告去除水印吧！', 'Current no ads available. Upgrade to Premium to remove watermark.': '当前无可观看广告。升级会员去除水印吧~', 'Save with text': '带文字保存', 'You have completed of the comic': '你完成了整张漫画的{0}', 'Great! You have completed the comic': '很棒！你已经完成了整张漫画', 'Bonus Pic': '奖励图片', 'I HELP THE DISABLED': '我能帮助残疾人', 'I ENSURE THE SECURITY': '我能保障安全', 'I HERD SHEEP': '我能牧羊', 'I EAT SHOES': '我能拆家', 'Quit': '退出', 'BORING YUCKY WATER': '难喝的水水', 'VERY TASTY WATER': '好喝的水水', 'Vote: Week 35': '投票：第35周', 'DO YOU LIKE OUR GAME?': '喜欢我们的游戏吗？', 'Show your love': '给我们一个5分好评鼓励一下吧！', 'Your Opinioin Matters!': '你的意见对我们很重要！', 'Leave us a review to let us know': '留下您的评价吧~', 'OK, sure': '好的', 'Thank You!': '谢谢！', 'How about a rating on Google Play, then?': '那就到谷歌商店给我们个好评吧？', 'finish pictures': '完成5幅图', 'finish colors': '完成300个颜色', 'finish area': '完成1500个区域', 'Please allow tracking to eliminate low quality ads.': '请点击允许跟踪，以帮助我们剔除劣质广告', 'By continuing you agree to our Terms of Use and Privacy Policy.': '我们的{0}和{1}都已更新，请同意并点击继续开始游戏', 'Please click Allow Tracking': '请点击允许跟踪以帮助我们剔除劣质广告', 'Help Us Improve!': '帮我们做得更好！', 'Sure thing!': '没问题！', 'Not Now': '以后再说', 'Get exclusive bonus pictues!': '获得更多奖励图片！', 'GO': '获取', 'Submit\xa0Your\xa0Photo': '分享照片', 'Win\xa0the\xa0chance\xa0to\xa0color\xa0it': '赢得填色机会', 'Become Premium for an extraordinary coloring experience!': '成为会员享受超棒的填色体验吧！', 'New Picitures Updated Everyday!': '新图片每日更新！', 'Please enable push notifications to make sure you never miss a new picture!': '请打开推送通知，确保不会错过每张图片~', 'Please wait!': '请稍候...', 'Gothic Fantasy': '奇妙哥特', 'Anne Stokes': 'Anne Stokes', 'There are darknesses, there are lights. Explore the gothic art and embark on the dark world.': '光暗交错。 探索哥特式艺术，沉浸暗黑世界。', 'Vote: Week 36': '投票：第36周', "Fantastic! You've completed all the pictures. Come back tomorrow for new pictures!": '太棒了！所有图片都完成了。记得明天再来哦~', 'Restore Purchases': '恢复内购', 'Ads Free to Unlock': '新玩家免广告\\n解锁3张图片', 'COLOR IT UP!': '开始填色', 'New pictures will be updated soon. Come back tomorrow!': '新图片每日更新，明天再来查看！', 'Loading new pictures...': '加载新图片...', 'New pictures added': '新图片加载成功', 'Sync Your Data': '同步数据', 'Sign in to make sure you never lose a finished picture!': '登录之后完成的图片就不会丢失啦！', 'Login with Facebook': '登录Facebook', 'Help Us Help You': '有奖调查！', 'All your informatioin will be kept confidential': '您的信息将仅被用做提升用户体验，并且严格保密。', 'Do a little survey to let us know more about you and get the bonus hints!': '为了让我们更了解您，来做个小小的调查问卷吧~完成后有两个提示道具的奖励哦！', 'START': '开始', '1. What is your gender?': '1. 您的性别是？', 'Female': '女性', 'Male': '男性', 'Prefer Not to Say': '不愿透露', 'Next question': '下一题', '2. What is your age group?': '2. 您的年龄范围是？', 'Under 16': '16以下', 'Over 65': '65以上', '3. How often do you play Tap Color?': '3. 您玩Tap Color的频率大概为？', 'Several times a day': '一天几次', 'Once a day': '一天一次', '2-5 times a week': '一周2-5次', 'Once a week or less': '一周一次或更少', '4. What time of day do you normally play Tap Color?': '4. 一天中大约什么时候打开Tap Color？', 'Morning': '早晨', 'During lunch hour': '中午', 'Afternoon': '下午', 'Evening': '傍晚', 'Late at night': '深夜', '5. How much of the day do you usually spend on coloring games?': '5. 一天大概花多少时间玩填色游戏？', 'Less than 30mins': '少于30分钟', '30mins - 60mins': '30分钟到60分钟', 'More than 60mins': '60分钟以上', '6. What do you do in your spare time?': '6. 空闲时间您会选择做什么？（可多选）', 'Watch TV': '看电视', 'Go to the gym': '去健身房', 'Cook': '做饭', 'Play mobile games': '玩手机游戏', 'Listen to music': '听音乐', 'Sleep': '睡觉', '7. How many coloring apps are you using?': '7. 您现在同时在玩多少填色游戏？', 'Only Tap Color  (THANK YOU!)': '只有Tap Color（感恩！）', '2 or 3': '2个或3个', '4 or more': '4个或更多', '8. What is your favorite game type?': '8. 您最喜欢的游戏类别是？', 'Word game': '文字游戏', 'Cooking game': '烹饪游戏', 'COLORING game of course!': '当然是填色游戏啦！', 'Time-management game': '时间管理游戏', 'Casino game': '棋牌游戏', 'Match game': '消除游戏', '9. On a scale of 0-10, how likely are you to recommend Tap Color to your friends?': '9. 总分为10分的话，您有多大意愿想把Tap Color推荐给朋友呢？', 'Complete': '完成', 'Color Your Fav': '填涂最爱图片', 'Congratulations!': '超棒!', 'Vote: Week 38': '投票：第38周', "Let's celebrate!": '一起庆祝吧！', 'Sweet Childhood': '甜蜜童年', 'Seven': 'Seven', 'A celebration of the dear, sweet, unforgettable childhood!': '一起来回忆甜蜜难忘的童年吧！', 'Vote: Week 41': '投票：第41周', 'Sign in and Get Free Hints!': '登录获取免费提示！', 'Sign in to sync your progress and get 2 free hints!': '登录以同步进度并领取2个提示道具！', 'Free video tokens for you! Use it to skip video ads now.': '获得3张免费广告券，使用它来跳过视频吧', 'Skip Ads': '跳过广告', 'Skipped video ads with 1 video token': '使用1张广告券跳过了广告', 'Skipped video ads': '跳过广告', 'You have already claimed this reward.': '已经领取过这个奖励啦', 'Enjoy a better coloring experience!': '享受更棒的填色体验', 'For a limited time only': '限购一次', 'Video Token': '广告券', 'Skip video ads and enjoy!': '跳过广告，享受顺畅体验', 'Use hints to spot small area': '使用提示寻找小色块', 'Buckets': '油漆桶', 'Hints': '提示道具', 'Use buckets to color all cells of a number': '为同一色号的所有区域填色', 'Purchase failed': '购买失败', 'days': '天', 'Beautiful traditional weddings from around the world.': '世界各地的美丽传统婚礼。', 'Dream Weddings': '梦幻婚礼', 'Teresa': 'Teresa', 'Spooky Halloween Night': '奇妙万圣夜', "The cold air, the spooky dangers lurking around the corner. It's All Hallows' Eve.": '寒风肆虐，拐角处危影重重，暗藏潜伏。 万圣之夜。', 'Salikoko': 'Salikoko', 'Popular': '畅销', 'Extra 67%': '加量67%', 'Delete': '删除', 'Restart': '重填', 'Warrior Goddess': '女战神', 'She fights demons and wears her scars like wings.': '她斩断荆棘，浴血斗争，带来光明。', "I don't want to see this one": '我不想看到这张图', 'Removed to Settings -&gt; Blocked Pictures': '移除至设置-&gt;已屏蔽图片', 'Select the pictures you want to recover': '选择想要恢复的图片', 'Blocked Pictures': '已屏蔽图片', 'Recover': '恢复', 'Press and hold the pictures you don’t want to see in Gallery to block them': '在图集中长按以屏蔽不喜欢的图片', 'Christmas': '圣诞节', 'Category Order': '分类顺序', 'Tap and drag to change the order of labels': '点击并拖动更改标签顺序', 'The season of hope, love, blessings! May the divine light of Christmas shine in your life this season.': '充满希望，爱和祝福的美好季节！愿神圣的圣诞光芒照耀您的生活。', 'Apple': '苹果', 'Signed in with Apple': '苹果账号登录', 'No ads': '当前无可观看广告，试试我们的广告券吧！', 'Purchased successfully. Enjoy your Premium Membership now!': '购买成功！开始体验VIP会员特权吧', 'Unlock All Pictures': '解锁所有图片', 'Unlimited Hints': '无限提示道具', 'Unlimited Buckets': '无限油漆桶道具', 'Remove All Ads': '移除所有广告', 'Remove Watermark': '移除水印', 'Syncing data...': '同步数据中...', 'Your Subscription Has Expired': '您的订阅已到期', 'Renew your Tap Color Premium and enjoy all the unlocked': '续订Tap Color会员，继续体验无广告的全解锁图片吧~', 'Renew': '续订', 'Upgraded Tap Color Premium!': 'Tap Color会员升级啦！', 'Detail': '查看详情', 'Unlock with Premium': '会员解锁', 'Time left:': '剩余时间：', 'The Fantasy Of Witch Sisters': '女巫集会', 'Sometimes we need fantasy to survive reality.': '在奇幻世界中流连忘返。', 'By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '开始使用Tap Color意味着接受我们的{0}和{1}.', 'Daily Task: Finish 5 Pictures': '每日任务：完成5幅图片', 'Daily Task: Finish 300 Colors': '每日任务：完成300个颜色', 'Daily Task: Finish 1500 Cells': '每日任务：完成1500个区域', 'Check here for more achievements!': '点击此处查看更多成就！', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. By using Tap Color, you agree to our Terms of Use and Privacy Policy.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。继续使用Tap Color，意味着您同意我们的{0}和{1}。', 'By clicking Claim, you agree to our Terms of Use and Privacy Policy.': '点击领取意味着您同意我们的{0}和{1}。', 'RESET': '恢复默认', 'Free Gift': '免费道具', 'We might collect the data necessary for you to use Tap Color and for us to maintain and analyze the functioning of the app and to personalize the content. Please read and accept our Terms of Use and Privacy Policy to proceed.': '我们可能会收集您的信息（包括设备信息、国家、时区等）用以产品维护更新和个性化内容的提供。请阅读并同意我们的{0}和{1}以继续。', 'I understand and accept': '我理解并接受', 'Cat': '猫', 'Dog': '狗', 'The Mermaids of Ocean Myth': '人鱼神话', 'The most fascinating legends of aquatic creatures.': '人鱼公主的美丽传说。', 'Got stuck? Use a hint to find small area.': '卡住了？试试提示道具吧！', 'Tap to jump to the category and drag to change the order': '点击标签跳转到分类，拖动更改顺序', 'Currently no related pictures. Keep coloring and discover more of what you like!': '当前无类似图片，去画廊里找找灵感吧！', 'Unlock All': '解锁全部', 'No Ads': '无广告', 'No Watermark': '无水印', 'Become Premium for unlimited hints and ads-free coloring experience!': '加入会员，立即享受无限提示和免广告的填色体验！', 'Long press the picture to find more functions': '长按图片查看更多功能', 'Explore': '探索', 'Fantasy': '奇幻', 'Heart': '爱心', 'Block': '屏蔽', 'Best Pic of the Week': '本周最佳', 'The Planet Of Wildlife': '野生动物世界', 'We don’t own the planet Earth, we share it with our wildlife.': '保护野生动物，共享美好家园。', 'The Winner': '获胜者', 'Hide Colored Numbers': '隐藏已完成色号', 'Hide Colored Pictures': '隐藏已完成图片', 'Shading Effects': '阴影效果', 'Choose your shading effects': '选择您最喜欢的阴影效果', 'Wallpaper': '壁纸', 'Vote: Week 63': '投票：第63周', 'Slow connection !': '网络缓慢…', 'Preparing paint and brushes...': '准备颜料和刷子...', 'Getting canvas ready...': '铺开画布...', 'Almost there. Get ready to color it up!': '马上就好了，准备填色吧！', 'Butterfly': '蝴蝶', 'Mermaid': '美人鱼', 'Bird': '鸟', 'Horoscope': '星座', 'See All': '查看全部', 'More like this': '相似图片', 'Happy Easter': '复活节快乐', 'May the renewal of life at Easter bring new blessings of love, hope &amp; peace to you and your loved ones!': '愿复活节爱意满满，充满爱与希望！', 'Oops, currently no ads available.': '啊哦，当前无可观看广告', 'Try Tap Color Premium for full access to all pictures with only {0} for a week!': '快加入Tap Color\\n会员，解锁所有图片吧！只需{0}一周哦！', 'GO TO STORE': '跳转到商店', 'Ads-Free Experience with Tap Color Premium!': '加入Tap Color会员享受无广告的游戏体验！', 'WATCH A VIDEO': '观看广告', 'Mystery': '神秘', 'Watch a video to unlock this new picture!': '观看广告解锁新图片！', 'WATCH NOW': '立刻观看', 'Unlock with': '使用道具', 'Tap Color Premium!': '加入会员！', 'How to get bonus?': '如何领取奖励图片？', 'new pictures added': '新增{0}张图片', 'Oops!': '啊哦！', 'Currently no videos available.': '当前无可观看广告。', "Sorry for the unavailable video. Check the special offer we've prepared for you!": '抱歉广告加载失败，我们准备了特别优惠给你！', 'Loading video...': '广告加载中...', 'New pictures will be updated tomorrow!': '更多图片明日更新！', 'The video will be ready in {0}s...': '广告将在{0}秒内准备好...', 'Special Offer': '特别优惠', 'Woo hoo!': '耶！', 'New feature will be updated on {0}. {1}': '新主题将于{0}. {1}解锁', 'The video is ready!': '广告已准备完毕！', 'Sweet Love': '甜蜜爱恋', 'Romance is the glamour that turns the dust of everyday life into a golden haze.': '爱意东升日落，浪漫至死不渝。', '/week': '/周', 'Help us!': '帮帮我！', 'Go to Settings': '去设置', 'Please Allow Tracking to help us eliminate low-quality ads': '请点击允许跟踪以帮助我们剔除劣质广告，设置-隐私-Tracking-允许跟踪', 'Please Allow Tracking to help ad providers eliminate low quality ads.': '请点击允许跟踪，以帮助广告商剔除劣质广告。', 'Soulful Country Homes': '乡涧小筑', 'There is nothing like staying at home for real comfort.': '家永远是心灵的港湾，人生的驿站。', 'New Pic Reminders': '更新图片提醒', 'Stay Tuned for New Pics!': '打开推送接收新图片通知！', 'Got it': '明白了', 'Sign in with Apple': '通过Apple登录', 'Sign in with Google': '通过Google登录', 'Sign in with Facebook': '通过Facebook登录', 'Mindful Mandala': '曼陀罗', 'Arrange whatever pieces come your way.': '享受解压的绘画艺术。', 'hide colored pics title': '隐藏已完成图片', 'hide colored pics description': '隐藏已完成图片，更快的找到喜欢的图片', 'hide colored pics btn hide now': '隐藏', 'hide colored pics btn not now': '暂不', 'skip': '跳过动画', 'Restore': '恢复订阅', 'purchased items': '已购商品', 'Subscription FAQ': '内购问题FAQ', 'Daily Challenge title': '每日挑战', 'Daily Challenge description': '快来开启每日挑战！', 'Get stuck? Use hints': '找不到小色块？用用提示～', 'Available storage space of your device is less than 25M. Clear Cache for a better experience.': '可用存储空间不足25M，清理缓存以获得更多存储空间。', 'Clearing the cache will not affect normal use': '清理缓存不影响正常填色', 'color1F1F1F Daily Challenge title': '&lt;color=#1F1F1F&gt;每日挑战&lt;/color&gt;', 'color3B3B3B Daily Challenge description': '&lt;color=#3B3B3B&gt;快来开启每日挑战！&lt;/color&gt;', 'color1E70DB Sign in with facebook': '&lt;color=#1E70DB&gt;通过Facebook登录&lt;/color&gt;', 'colorFFFFFF Facebook group title': '&lt;color=#FFFFFF&gt;Facebook社区&lt;/color&gt;', 'colorFEFEFF Facebook group description': '&lt;color=#FEFEFF&gt;加入社区获取每日奖励图片！&lt;/color&gt;', 'colorF06895 sync data &amp; get hints': '&lt;color=#F06895&gt;同步数据+获取免费hint！&lt;/color&gt;', 'Gothic Queens': '哥特皇后', 'The Fantasy Art of Anne Stokes.': 'Anne Stokes的奇幻艺术', 'Enjoy Unlimited Hints for {0} pics!': '前{0}张图免费无限hints！', 'daily quest progress': '每日任务进度', 'check back tomorrow for more rewards': '明日再来获取更多奖励！', 'achievement next stage description': '下一阶段：{0}', 'achievement rewards': '成就奖励', 'Sure to log out?': '确认退出登录么？', 'You will no longer be able to sync data.': '您将无法继续同步数据。', 'Interiors': '内饰', 'Classical': '古典', 'Patterns': '印花', 'Vehicle': '载具'}, 'version': '1628160788'}, 'apiName': 'getLanguage'}</t>
         </is>
       </c>
     </row>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="L73" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297311', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,29,24,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"store_test":"B","unlock_picture_test":"B","dislike_test":"B","open_inter_test":"B","new_user_iap_test":"B","second_day_iap_test":"B","no_ad_iap_test":"B","notification_popup_switch":"6.7.3","idfa_popup_switch":"6.7.3"}'}</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161317', 'apiName': 'getGroupConfig', 'data': '{"classification":"0,29,24,91,63,61,60,30,999,23,8,2,59,27,66,13,11,3,12,9,5,15,14,69,18,6,16,19,7,10","tagid":"Jigsaw,29|Animated,24|Christmas,28|Special,23|Character,8|Animal,2|Flower,11|Love,3|Message,12|Place,9|Nature,5|Unicorn,15|Marine,14|Mosaic,18|Food,6|Fashion,16|Mandala,19|Cartoon,7|Other,10|Bonus,999|Feature,998|Fantasy,61|Heart,63|Cat,60|Dog,30|Bird,59|Butterfly,27|Horoscope,66|Mermaid,69|Festival,13|Mystery,91","inter_cd":60,"inter_start":6,"show_hint_after":15,"show_hint_times":3,"store_test":"B","unlock_picture_test":"B","dislike_test":"B","open_inter_test":"B","new_user_iap_test":"B","second_day_iap_test":"B","no_ad_iap_test":"B","notification_popup_switch":"6.7.3","idfa_popup_switch":"6.7.3"}'}</t>
         </is>
       </c>
     </row>
@@ -4778,7 +4778,7 @@
       </c>
       <c r="L87" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297328', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161332', 'apiName': 'getGalleryList', 'data': {'picLength': 44, 'picList': [{'picName': 'pic_tQ5WcgkX7v', 'picType': 0, 'picClass': 'Butterfly,Flower,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210417, 'picExpireDate': 20310417, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 99, 'picAssets': {'picNpic': {'md5': 'eZp0OJHa1bAAhJ6CHdyilQ==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v.npic?ver=eZp0OJHa1bAAhJ6CHdyilQ=='}, 'picThumbnail': {'md5': 'TeY2ml46bcdBnQHgC74gcg==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_thumbnail.png?ver=TeY2ml46bcdBnQHgC74gcg=='}, 'picColorImg': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw=='}, 'picFrameImg': {'md5': 'wwiDvdgbmUS480wmO0tSog==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_frame.png?ver=wwiDvdgbmUS480wmO0tSog=='}, 'picColorfulThumbnail': {'md5': 'uhL+3qwcA64XibVPFGc8Bw==', 'url': 'color/1.0/pics/pic_tQ5WcgkX7v/pic_tQ5WcgkX7v_color.png?ver=uhL+3qwcA64XibVPFGc8Bw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_y_uJv_BxYX', 'picType': 0, 'picClass': 'Rural,Place,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210410, 'picExpireDate': 20310410, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 98, 'picAssets': {'picNpic': {'md5': '5Iu2InR6x7m0IXTbnJ+xHA==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX.npic?ver=5Iu2InR6x7m0IXTbnJ+xHA=='}, 'picThumbnail': {'md5': 'AENgLTB5pt7ZkQvNOY6nvg==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_thumbnail.png?ver=AENgLTB5pt7ZkQvNOY6nvg=='}, 'picColorImg': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ=='}, 'picFrameImg': {'md5': 'gg0fCO966W/YqYgYbWb9vw==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_frame.png?ver=gg0fCO966W/YqYgYbWb9vw=='}, 'picColorfulThumbnail': {'md5': '9QvAH3Fk94fK+1OuLtEAwQ==', 'url': 'color/1.0/pics/pic_y_uJv_BxYX/pic_y_uJv_BxYX_color.png?ver=9QvAH3Fk94fK+1OuLtEAwQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9ruh-cUd9s', 'picType': 0, 'picClass': 'Mosaic,Food', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210318, 'picExpireDate': 20310318, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 97, 'picAssets': {'picNpic': {'md5': 'XynPqaZkZOZXO3vokvO/NA==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s.npic?ver=XynPqaZkZOZXO3vokvO/NA=='}, 'picThumbnail': {'md5': 'yiqhykeGysyE4e9ofUqwBw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_thumbnail.png?ver=yiqhykeGysyE4e9ofUqwBw=='}, 'picColorImg': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw=='}, 'picFrameImg': {'md5': '/Y+o9B8t5cCDli76Upem9w==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_frame.png?ver=/Y+o9B8t5cCDli76Upem9w=='}, 'picColorfulThumbnail': {'md5': 'JRkVRSEwmZZkgxhxD7QgIw==', 'url': 'color/1.0/pics/pic_9ruh-cUd9s/pic_9ruh-cUd9s_color.png?ver=JRkVRSEwmZZkgxhxD7QgIw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GDnMPxRwGt', 'picType': 0, 'picClass': 'Bird,Animal,Mosaic', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210323, 'picExpireDate': 20310323, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 96, 'picAssets': {'picNpic': {'md5': 'MktWhZlalJK1793XjoXcMQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt.npic?ver=MktWhZlalJK1793XjoXcMQ=='}, 'picThumbnail': {'md5': 'k5OkgxbB6SuzhfUC93jueg==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_thumbnail.png?ver=k5OkgxbB6SuzhfUC93jueg=='}, 'picColorImg': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ=='}, 'picFrameImg': {'md5': 'Cr09Ndk9Rd3H9/gKRi+AKw==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_frame.png?ver=Cr09Ndk9Rd3H9/gKRi+AKw=='}, 'picColorfulThumbnail': {'md5': 'gkaVMj8+VSTQQpfbE5rBAQ==', 'url': 'color/1.0/pics/pic_GDnMPxRwGt/pic_GDnMPxRwGt_color.png?ver=gkaVMj8+VSTQQpfbE5rBAQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_HGpuU2Sh16', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210428, 'picExpireDate': 20310428, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 95, 'picAssets': {'picNpic': {'md5': 'WXNxr9I23HRDBuSpBbskoQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16.npic?ver=WXNxr9I23HRDBuSpBbskoQ=='}, 'picThumbnail': {'md5': 'GTgPWPFZwnFbr5sXDs8UuQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_thumbnail.png?ver=GTgPWPFZwnFbr5sXDs8UuQ=='}, 'picColorImg': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ=='}, 'picFrameImg': {'md5': 'fIw3IhW6A54pK3j0OiFxpg==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_frame.png?ver=fIw3IhW6A54pK3j0OiFxpg=='}, 'picColorfulThumbnail': {'md5': 'UsLNO0rPfxkmTc11477kJQ==', 'url': 'color/1.0/pics/pic_HGpuU2Sh16/pic_HGpuU2Sh16_color.png?ver=UsLNO0rPfxkmTc11477kJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Jy2iG1vK8', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210117, 'picExpireDate': 20310117, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 94, 'picAssets': {'picNpic': {'md5': 'dNHDpItvl9nB3yQqTrMBNQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8.npic?ver=dNHDpItvl9nB3yQqTrMBNQ=='}, 'picThumbnail': {'md5': 'G/PE8ms7Oq/atBj1uEYPzQ==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_thumbnail.png?ver=G/PE8ms7Oq/atBj1uEYPzQ=='}, 'picColorImg': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA=='}, 'picFrameImg': {'md5': 'XJAj0XD1rkpnfOFv3F2ANw==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_frame.png?ver=XJAj0XD1rkpnfOFv3F2ANw=='}, 'picColorfulThumbnail': {'md5': '4STz68lQgwHl+I64ZABpgA==', 'url': 'color/1.0/pics/pic_Jy2iG1vK8/pic_Jy2iG1vK8_color.png?ver=4STz68lQgwHl+I64ZABpgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fQZ2xE2uqz', 'picType': 0, 'picClass': 'Flower,Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210414, 'picExpireDate': 20310414, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 93, 'picAssets': {'picNpic': {'md5': 'fr4mlfp6/mS9E12ZHqXwYQ==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz.npic?ver=fr4mlfp6/mS9E12ZHqXwYQ=='}, 'picThumbnail': {'md5': 'vzN0ovvmbTamXKX9abfwaA==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_thumbnail.png?ver=vzN0ovvmbTamXKX9abfwaA=='}, 'picColorImg': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg=='}, 'picFrameImg': {'md5': 'GHH6XkjGnOkvzOagOyT1zw==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_frame.png?ver=GHH6XkjGnOkvzOagOyT1zw=='}, 'picColorfulThumbnail': {'md5': 'ldzuAnB0+RNnM6ZyWzzWBg==', 'url': 'color/1.0/pics/pic_fQZ2xE2uqz/pic_fQZ2xE2uqz_color.png?ver=ldzuAnB0+RNnM6ZyWzzWBg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hRtrOwCwE', 'picType': 0, 'picClass': 'Rural,Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210407, 'picExpireDate': 20310407, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 92, 'picAssets': {'picNpic': {'md5': 'OOXqqaIMYXSwt9MZWrxhDQ==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE.npic?ver=OOXqqaIMYXSwt9MZWrxhDQ=='}, 'picThumbnail': {'md5': 'tPtY2TgEdSmaj4Hi6VHo1w==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_thumbnail.png?ver=tPtY2TgEdSmaj4Hi6VHo1w=='}, 'picColorImg': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A=='}, 'picFrameImg': {'md5': 'H0NHZ4LC/72aToJteczm1A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_frame.png?ver=H0NHZ4LC/72aToJteczm1A=='}, 'picColorfulThumbnail': {'md5': 'f9pPapfPHLE3PV90uedG+A==', 'url': 'color/1.0/pics/pic_hRtrOwCwE/pic_hRtrOwCwE_color.png?ver=f9pPapfPHLE3PV90uedG+A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_L4z-haoz70', 'picType': 1, 'picClass': 'Fantasy,Dragon,Woman,Character,Special', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210215, 'picExpireDate': 20310215, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 91, 'picAssets': {'picNpic': {'md5': 'JEe22OPZ3AFDemtNLH37nw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70.npic?ver=JEe22OPZ3AFDemtNLH37nw=='}, 'picThumbnail': {'md5': '7AlhKgX9wQIYiEHoHEIVLQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_thumbnail.png?ver=7AlhKgX9wQIYiEHoHEIVLQ=='}, 'picColorImg': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ=='}, 'picFrameImg': {'md5': 'euAPWDuyMQcMxOsJe3pdgw==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_frame.png?ver=euAPWDuyMQcMxOsJe3pdgw=='}, 'picColorfulThumbnail': {'md5': 'kbW75U1CN6YHOAJZOsJDaQ==', 'url': 'color/1.0/pics/pic_L4z-haoz70/pic_L4z-haoz70_color.jpg?ver=kbW75U1CN6YHOAJZOsJDaQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_2gwI81v_S', 'picType': 1, 'picClass': 'Special,Horse,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210101, 'picExpireDate': 20301231, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 90, 'picAssets': {'picNpic': {'md5': 'knX4eKhWCapOhENdcICvsQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S.npic?ver=knX4eKhWCapOhENdcICvsQ=='}, 'picThumbnail': {'md5': 'OVOL7u2u89PibgyW+fZDiQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_thumbnail.png?ver=OVOL7u2u89PibgyW+fZDiQ=='}, 'picColorImg': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw=='}, 'picFrameImg': {'md5': '/nxkKxVS2dyMGVgaagTWWQ==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_frame.png?ver=/nxkKxVS2dyMGVgaagTWWQ=='}, 'picColorfulThumbnail': {'md5': 'L9Lbwd2mL37m200iaKx2vw==', 'url': 'color/1.0/pics/pic_2gwI81v_S/pic_2gwI81v_S_color.jpg?ver=L9Lbwd2mL37m200iaKx2vw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_YjNiHwz6hR', 'picType': 0, 'picClass': 'Other,Woman', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210329, 'picExpireDate': 20310329, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 89, 'picAssets': {'picNpic': {'md5': 'CWSYMrB7ENTcnaoPuIROew==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR.npic?ver=CWSYMrB7ENTcnaoPuIROew=='}, 'picThumbnail': {'md5': 'GbKyI5wC/8xkCRyKjY319g==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_thumbnail.png?ver=GbKyI5wC/8xkCRyKjY319g=='}, 'picColorImg': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA=='}, 'picFrameImg': {'md5': 'hNvrkMJhK9z66/2SUBxCUg==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_frame.png?ver=hNvrkMJhK9z66/2SUBxCUg=='}, 'picColorfulThumbnail': {'md5': '8PIC2djbIss3277lgLfqgA==', 'url': 'color/1.0/pics/pic_YjNiHwz6hR/pic_YjNiHwz6hR_color.png?ver=8PIC2djbIss3277lgLfqgA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_avibtlgCLq', 'picType': 0, 'picClass': 'Heart,Mandala', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210421, 'picExpireDate': 20310421, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 88, 'picAssets': {'picNpic': {'md5': 'HNtVVDUevlrzR922mGQYBw==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq.npic?ver=HNtVVDUevlrzR922mGQYBw=='}, 'picThumbnail': {'md5': 'Xy3TgF58ItgL0cFosQS1TA==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_thumbnail.png?ver=Xy3TgF58ItgL0cFosQS1TA=='}, 'picColorImg': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow=='}, 'picFrameImg': {'md5': 'gdFtZsowaW9qDtY2phLt1w==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_frame.png?ver=gdFtZsowaW9qDtY2phLt1w=='}, 'picColorfulThumbnail': {'md5': '3R+Wv8rw29351o//w0uCow==', 'url': 'color/1.0/pics/pic_avibtlgCLq/pic_avibtlgCLq_color.png?ver=3R+Wv8rw29351o//w0uCow==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Ra3ugE3NMY', 'picType': 0, 'picClass': 'Bird,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210309, 'picExpireDate': 20310309, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 87, 'picAssets': {'picNpic': {'md5': 'iqhDO9D6/IQn8ZlTPLivag==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY.npic?ver=iqhDO9D6/IQn8ZlTPLivag=='}, 'picThumbnail': {'md5': 'v7VQxW8GPLYR+lm2WAINXA==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_thumbnail.png?ver=v7VQxW8GPLYR+lm2WAINXA=='}, 'picColorImg': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ=='}, 'picFrameImg': {'md5': 'VjD4VbCc1uIXIAxvHVcOdQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_frame.png?ver=VjD4VbCc1uIXIAxvHVcOdQ=='}, 'picColorfulThumbnail': {'md5': '+dFVlQ+5Sc17lhg86pP7lQ==', 'url': 'color/1.0/pics/pic_Ra3ugE3NMY/pic_Ra3ugE3NMY_color.png?ver=+dFVlQ+5Sc17lhg86pP7lQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__cBmGLj6UI', 'picType': 0, 'picClass': 'Flower,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210408, 'picExpireDate': 20310408, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 86, 'picAssets': {'picNpic': {'md5': 'kAqvram+3/+rv/aD751qMg==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI.npic?ver=kAqvram+3/+rv/aD751qMg=='}, 'picThumbnail': {'md5': 'L/QisWFRFjq+Yq7LJ8gkQA==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_thumbnail.png?ver=L/QisWFRFjq+Yq7LJ8gkQA=='}, 'picColorImg': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q=='}, 'picFrameImg': {'md5': 'T7iWp8wUnh3kfOR4k/tKrQ==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_frame.png?ver=T7iWp8wUnh3kfOR4k/tKrQ=='}, 'picColorfulThumbnail': {'md5': 'djttRbvxcrfjknboi0UZ6Q==', 'url': 'color/1.0/pics/pic__cBmGLj6UI/pic__cBmGLj6UI_color.png?ver=djttRbvxcrfjknboi0UZ6Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_n-HtNpFdMH', 'picType': 0, 'picClass': 'Nature,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210311, 'picExpireDate': 20310311, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 85, 'picAssets': {'picNpic': {'md5': 'XEWyo0AGBce+AOveWkhd4g==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH.npic?ver=XEWyo0AGBce+AOveWkhd4g=='}, 'picThumbnail': {'md5': 'fPNhBHvtQQnWjhy5+uVo5w==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_thumbnail.png?ver=fPNhBHvtQQnWjhy5+uVo5w=='}, 'picColorImg': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA=='}, 'picFrameImg': {'md5': 'CxYrh+px6aJF6hKGUwfaQA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_frame.png?ver=CxYrh+px6aJF6hKGUwfaQA=='}, 'picColorfulThumbnail': {'md5': 'I8ldIYsrSyqDOZuCiOzbiA==', 'url': 'color/1.0/pics/pic_n-HtNpFdMH/pic_n-HtNpFdMH_color.png?ver=I8ldIYsrSyqDOZuCiOzbiA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_vsSePM9l_P', 'picType': 0, 'picClass': 'Mandala,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 84, 'picAssets': {'picNpic': {'md5': 'NT/QlawKWpl+w41bAJBF5w==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P.npic?ver=NT/QlawKWpl+w41bAJBF5w=='}, 'picThumbnail': {'md5': 'ZTQ5gmYL7Nx7UL2Jyc/Rng==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_thumbnail.png?ver=ZTQ5gmYL7Nx7UL2Jyc/Rng=='}, 'picColorImg': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q=='}, 'picFrameImg': {'md5': '0DdhUuvA6pOKu+t1EA+igw==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_frame.png?ver=0DdhUuvA6pOKu+t1EA+igw=='}, 'picColorfulThumbnail': {'md5': 'AS6wxSSv19ppSelTX08O+Q==', 'url': 'color/1.0/pics/pic_vsSePM9l_P/pic_vsSePM9l_P_color.png?ver=AS6wxSSv19ppSelTX08O+Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_i7Rlbb8ELC', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210313, 'picExpireDate': 20310313, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 83, 'picAssets': {'picNpic': {'md5': 'rbomHr5XJuJSaxHftgfzIw==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC.npic?ver=rbomHr5XJuJSaxHftgfzIw=='}, 'picThumbnail': {'md5': '1WshVEQKgQUK0N3S/kVDjA==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_thumbnail.png?ver=1WshVEQKgQUK0N3S/kVDjA=='}, 'picColorImg': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q=='}, 'picFrameImg': {'md5': 'NM7qCBVH7aSPrUMbfmjHjg==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_frame.png?ver=NM7qCBVH7aSPrUMbfmjHjg=='}, 'picColorfulThumbnail': {'md5': 'd/7QCVoD1ZSF+Bbj4O0C5Q==', 'url': 'color/1.0/pics/pic_i7Rlbb8ELC/pic_i7Rlbb8ELC_color.png?ver=d/7QCVoD1ZSF+Bbj4O0C5Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_PuVAr1yxd7', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210224, 'picExpireDate': 20310224, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 82, 'picAssets': {'picNpic': {'md5': 'uZk0iDnGrtpADWl6UE2j5g==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7.npic?ver=uZk0iDnGrtpADWl6UE2j5g=='}, 'picThumbnail': {'md5': 'LyXdzBm9DoD5kJaKr+bOBg==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_thumbnail.png?ver=LyXdzBm9DoD5kJaKr+bOBg=='}, 'picColorImg': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w=='}, 'picFrameImg': {'md5': 'bac+zB0gJbKxrpAUcwYCRQ==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_frame.png?ver=bac+zB0gJbKxrpAUcwYCRQ=='}, 'picColorfulThumbnail': {'md5': '75oRYQ2puLFqx9yUCuux9w==', 'url': 'color/1.0/pics/pic_PuVAr1yxd7/pic_PuVAr1yxd7_color.png?ver=75oRYQ2puLFqx9yUCuux9w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_rNXUnVXJTs', 'picType': 0, 'picClass': 'Heart,Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210205, 'picExpireDate': 20310205, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 81, 'picAssets': {'picNpic': {'md5': 'x9IkqBgO8G+D0fpymOEvhA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs.npic?ver=x9IkqBgO8G+D0fpymOEvhA=='}, 'picThumbnail': {'md5': 'leNrV9dOG6TQAHu1kFfN/A==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_thumbnail.png?ver=leNrV9dOG6TQAHu1kFfN/A=='}, 'picColorImg': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA=='}, 'picFrameImg': {'md5': 'j+qutUAda86puqR7/CZ8Ug==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_frame.png?ver=j+qutUAda86puqR7/CZ8Ug=='}, 'picColorfulThumbnail': {'md5': 'fyIm3pYKL0w4NX5/U6KDNA==', 'url': 'color/1.0/pics/pic_rNXUnVXJTs/pic_rNXUnVXJTs_color.png?ver=fyIm3pYKL0w4NX5/U6KDNA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_74fJQ-CKo2', 'picType': 1, 'picClass': 'Special,Panda,Animal,Love,Heart', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210207, 'picExpireDate': 20310207, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 80, 'picAssets': {'picNpic': {'md5': 'Oj0pui4iFc1uvfcumFWt1A==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2.npic?ver=Oj0pui4iFc1uvfcumFWt1A=='}, 'picThumbnail': {'md5': 'Bb7Hkw6SubINCgwz1O+Hlw==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_thumbnail.png?ver=Bb7Hkw6SubINCgwz1O+Hlw=='}, 'picColorImg': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg=='}, 'picFrameImg': {'md5': 'hk/u5BnQE387xqlVkRHrig==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_frame.png?ver=hk/u5BnQE387xqlVkRHrig=='}, 'picColorfulThumbnail': {'md5': 'jZXOJewegtNPAlkAnIqXRg==', 'url': 'color/1.0/pics/pic_74fJQ-CKo2/pic_74fJQ-CKo2_color.jpg?ver=jZXOJewegtNPAlkAnIqXRg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VBzscIu9th', 'picType': 0, 'picClass': 'Place,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210124, 'picExpireDate': 20310124, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 79, 'picAssets': {'picNpic': {'md5': 'wOIvRio3PEW44+cjseiAIQ==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th.npic?ver=wOIvRio3PEW44+cjseiAIQ=='}, 'picThumbnail': {'md5': 'bOWUnOZkF0gZnIUodGfH7g==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_thumbnail.png?ver=bOWUnOZkF0gZnIUodGfH7g=='}, 'picColorImg': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg=='}, 'picFrameImg': {'md5': 'iXJlB1VDsQQPHnHowIi6fg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_frame.png?ver=iXJlB1VDsQQPHnHowIi6fg=='}, 'picColorfulThumbnail': {'md5': 'bFkx5yDHhvI+DjPaAbjZMg==', 'url': 'color/1.0/pics/pic_VBzscIu9th/pic_VBzscIu9th_color.png?ver=bFkx5yDHhvI+DjPaAbjZMg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_4lUlDHFTvI', 'picType': 0, 'picClass': 'Flower,Unicorn,Fantasy', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210305, 'picExpireDate': 20310305, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 78, 'picAssets': {'picNpic': {'md5': 'truQAU0bhKzGWYVe2foJKw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI.npic?ver=truQAU0bhKzGWYVe2foJKw=='}, 'picThumbnail': {'md5': 'gs8dPA4dm6EGrnffHLeFhg==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_thumbnail.png?ver=gs8dPA4dm6EGrnffHLeFhg=='}, 'picColorImg': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw=='}, 'picFrameImg': {'md5': 'tawoU2RQc59NJWeG1d31fA==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_frame.png?ver=tawoU2RQc59NJWeG1d31fA=='}, 'picColorfulThumbnail': {'md5': '/7ZyuWmcjEGjRy65NqINkw==', 'url': 'color/1.0/pics/pic_4lUlDHFTvI/pic_4lUlDHFTvI_color.png?ver=/7ZyuWmcjEGjRy65NqINkw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_jZD_C-LhkG', 'picType': 0, 'picClass': 'Nature,Other', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210409, 'picExpireDate': 20310409, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 77, 'picAssets': {'picNpic': {'md5': 'LzSnTTcMRddYfywVrNh/vA==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG.npic?ver=LzSnTTcMRddYfywVrNh/vA=='}, 'picThumbnail': {'md5': 'NtZa1gjMq1Hoz3ghkm6vhQ==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_thumbnail.png?ver=NtZa1gjMq1Hoz3ghkm6vhQ=='}, 'picColorImg': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w=='}, 'picFrameImg': {'md5': 'XEjlWiULpQxXH0cbw8sFcg==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_frame.png?ver=XEjlWiULpQxXH0cbw8sFcg=='}, 'picColorfulThumbnail': {'md5': 'H6V7BxC9vJ7w5dkFMT1Z5w==', 'url': 'color/1.0/pics/pic_jZD_C-LhkG/pic_jZD_C-LhkG_color.png?ver=H6V7BxC9vJ7w5dkFMT1Z5w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-LqX_7mqTe', 'picType': 1, 'picClass': 'Special,Place,Nature,Life', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210328, 'picExpireDate': 20310328, 'picUnlockType': '1', 'picUnlockNumber': '1', 'picJigsawId': '', 'picOrder': 76, 'picAssets': {'picNpic': {'md5': 'f+52ndGdAOHx9Tsl7KeSdQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe.npic?ver=f+52ndGdAOHx9Tsl7KeSdQ=='}, 'picThumbnail': {'md5': 'LleFBninQTVfhPRRUaM07A==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_thumbnail.png?ver=LleFBninQTVfhPRRUaM07A=='}, 'picColorImg': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA=='}, 'picFrameImg': {'md5': 'Nfiu1Shw1Ol9GbG0tFm+wQ==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_frame.png?ver=Nfiu1Shw1Ol9GbG0tFm+wQ=='}, 'picColorfulThumbnail': {'md5': 'XHE4nbd3qiH9ydpxtIeRVA==', 'url': 'color/1.0/pics/pic_-LqX_7mqTe/pic_-LqX_7mqTe_color.jpg?ver=XHE4nbd3qiH9ydpxtIeRVA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_wem7GFRsae', 'picType': 0, 'picClass': 'Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210331, 'picExpireDate': 20310331, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 75, 'picAssets': {'picNpic': {'md5': 'NQgdaJgEAwdmUPlHuiTApw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae.npic?ver=NQgdaJgEAwdmUPlHuiTApw=='}, 'picThumbnail': {'md5': 'GfFNUvc6VvWqrH7ZxezIqw==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_thumbnail.png?ver=GfFNUvc6VvWqrH7ZxezIqw=='}, 'picColorImg': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA=='}, 'picFrameImg': {'md5': 'FoFPaDPC1MiTVPx7GAEo+Q==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_frame.png?ver=FoFPaDPC1MiTVPx7GAEo+Q=='}, 'picColorfulThumbnail': {'md5': 'j/VFj6RdIdorRXMn8Sz1UA==', 'url': 'color/1.0/pics/pic_wem7GFRsae/pic_wem7GFRsae_color.png?ver=j/VFj6RdIdorRXMn8Sz1UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_d0UylyLz3K', 'picType': 0, 'picClass': 'Other,Love,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210306, 'picExpireDate': 20310306, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 74, 'picAssets': {'picNpic': {'md5': 'tosE+uTBJexpPrwMaU2OpQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K.npic?ver=tosE+uTBJexpPrwMaU2OpQ=='}, 'picThumbnail': {'md5': 'hkBDHDnpxoiBJiVTqZbcNQ==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_thumbnail.png?ver=hkBDHDnpxoiBJiVTqZbcNQ=='}, 'picColorImg': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg=='}, 'picFrameImg': {'md5': 'IrWwKp2WNYGmOSLQLGTKtA==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_frame.png?ver=IrWwKp2WNYGmOSLQLGTKtA=='}, 'picColorfulThumbnail': {'md5': '3BRLRZ2HGy/wI/Jdv1Rwjg==', 'url': 'color/1.0/pics/pic_d0UylyLz3K/pic_d0UylyLz3K_color.png?ver=3BRLRZ2HGy/wI/Jdv1Rwjg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b_NjZ5OYCy', 'picType': 0, 'picClass': 'Bird,Animal,Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 16, 'picAssets': {'picNpic': {'md5': '80ll7+pzA9R9I8YVies25Q==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy.npic?ver=80ll7+pzA9R9I8YVies25Q=='}, 'picThumbnail': {'md5': 'VkJpBYoyymJGiXaee6wM2A==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_thumbnail.png?ver=VkJpBYoyymJGiXaee6wM2A=='}, 'picColorImg': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ=='}, 'picFrameImg': {'md5': 'SWNSCbTtf4uRApvFjKuhfQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_frame.png?ver=SWNSCbTtf4uRApvFjKuhfQ=='}, 'picColorfulThumbnail': {'md5': 'WpTHnv4hBzlXt/hT7HFVRQ==', 'url': 'color/1.0/pics/pic_b_NjZ5OYCy/pic_b_NjZ5OYCy_color.png?ver=WpTHnv4hBzlXt/hT7HFVRQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic__IsW-bANvo', 'picType': 0, 'picClass': 'Cat,Animal', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 15, 'picAssets': {'picNpic': {'md5': 'bw1Uw5FIceG+m5XQDqJDUg==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo.npic?ver=bw1Uw5FIceG+m5XQDqJDUg=='}, 'picThumbnail': {'md5': 'sbNtzeknjMG6LBaTp+UefA==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_thumbnail.png?ver=sbNtzeknjMG6LBaTp+UefA=='}, 'picColorImg': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q=='}, 'picFrameImg': {'md5': 'sNvxYOVQdzV7zcim+GjMVQ==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_frame.png?ver=sNvxYOVQdzV7zcim+GjMVQ=='}, 'picColorfulThumbnail': {'md5': '+x9XyCkvJdedwnWD0joH4Q==', 'url': 'color/1.0/pics/pic__IsW-bANvo/pic__IsW-bANvo_color.png?ver=+x9XyCkvJdedwnWD0joH4Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_aijg_2kec7', 'picType': 0, 'picClass': 'Flower', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 14, 'picAssets': {'picNpic': {'md5': '2ZRafGR8N1ikL3Y+6nnfIQ==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7.npic?ver=2ZRafGR8N1ikL3Y+6nnfIQ=='}, 'picThumbnail': {'md5': 'ZDjqeKyRYRQxYG1MiNtazw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_thumbnail.png?ver=ZDjqeKyRYRQxYG1MiNtazw=='}, 'picColorImg': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g=='}, 'picFrameImg': {'md5': 'EB6DPtvrS/kD6ErMBYitZw==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_frame.png?ver=EB6DPtvrS/kD6ErMBYitZw=='}, 'picColorfulThumbnail': {'md5': '+6X0jQ1XH0yXGVFGZAP20g==', 'url': 'color/1.0/pics/pic_aijg_2kec7/pic_aijg_2kec7_color.png?ver=+6X0jQ1XH0yXGVFGZAP20g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3w3tLbZ6z', 'picType': 0, 'picClass': 'Nature', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 13, 'picAssets': {'picNpic': {'md5': 'rrW689JOHcvlvLYJVjLKjQ==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z.npic?ver=rrW689JOHcvlvLYJVjLKjQ=='}, 'picThumbnail': {'md5': 'VPcx2gBpjW1vy4i5jb+pFg==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_thumbnail.png?ver=VPcx2gBpjW1vy4i5jb+pFg=='}, 'picColorImg': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA=='}, 'picFrameImg': {'md5': 'PYT+5om02cW650KC+F29bw==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_frame.png?ver=PYT+5om02cW650KC+F29bw=='}, 'picColorfulThumbnail': {'md5': 'hNaIXTACe2EELdcYZon0AA==', 'url': 'color/1.0/pics/pic_F3w3tLbZ6z/pic_F3w3tLbZ6z_color.png?ver=hNaIXTACe2EELdcYZon0AA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VsKRD15C7o', 'picType': 0, 'picClass': 'Woman,Character', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210406, 'picExpireDate': 20310406, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': 'wlqdRKGDcKn9wj1OblhyUA==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o.npic?ver=wlqdRKGDcKn9wj1OblhyUA=='}, 'picThumbnail': {'md5': 'gzu2FUaDNUb5Syie8MEycg==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_thumbnail.png?ver=gzu2FUaDNUb5Syie8MEycg=='}, 'picColorImg': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g=='}, 'picFrameImg': {'md5': 'My0HJw6K2GhfEo7ewIkTZQ==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_frame.png?ver=My0HJw6K2GhfEo7ewIkTZQ=='}, 'picColorfulThumbnail': {'md5': '+dzUcFwUJtEHHJKgSLkA3g==', 'url': 'color/1.0/pics/pic_VsKRD15C7o/pic_VsKRD15C7o_color.png?ver=+dzUcFwUJtEHHJKgSLkA3g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7SVfrn9e9V', 'picType': 0, 'picClass': 'Message', 'picUnlockDate': '20210617', 'picVipUnlockDate': 20210617, 'picExpireDate': 20310615, 'picUnlockType': '', 'picUnlockNumber': '', 'picJigsawId': '', 'picOrder': 12, 'picAssets': {'picNpic': {'md5': '6e+vy2qQM7N+Bmh82c2/Cg==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V.npic?ver=6e+vy2qQM7N+Bmh82c2/Cg=='}, 'picThumbnail': {'md5': '/JYv428xP6Qw8QgBtVs4/g==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_thumbnail.png?ver=/JYv428xP6Qw8QgBtVs4/g=='}, 'picColorImg': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA=='}, 'picFrameImg': {'md5': 'K5cVdAAmMmGtDyi+UxYn7A==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_frame.png?ver=K5cVdAAmMmGtDyi+UxYn7A=='}, 'picColorfulThumbnail': {'md5': 'c6ie9HZJRxTFhvXoXhMuHA==', 'url': 'color/1.0/pics/pic_7SVfrn9e9V/pic_7SVfrn9e9V_color.png?ver=c6ie9HZJRxTFhvXoXhMuHA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'ap_birdheart_200</t>
         </is>
       </c>
     </row>
@@ -5112,7 +5112,7 @@
       </c>
       <c r="L94" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297337', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 20036, 'rowType': 'Books', 'titleKey': 'Gothic Queens', 'descKey': 'The Fantasy Art of Anne Stokes.', 'rowOrder': 3000, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-20036/featrue-20036_g4oq1CnH8B.jpg?ver=MOCj85ErMUNLplfNHiXl7g==', 'detailPicMd5': 'MOCj85ErMUNLplfNHiXl7g==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210715, 'expireDate': 20250831, 'authorHeadPicPath': 'color/1.0/feature/-20036/featrue-20036_f4bzVV6ksX.png?ver=+KUHGGTG8GEqkH+R3PHobQ==', 'authorHeadPicMd5': '+KUHGGTG8GEqkH+R3PHobQ==', 'authorName': 'Anne Stokes', 'showPicRow': 1, 'pics': [{'picName': 'pic_inqLW6G17x', 'picType': 1, 'picUnlockDate': 20210724, 'picVipUnlockDate': 20210721, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': '6me9K6m+8gw6SjpKccKnFA==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x.npic?ver=6me9K6m+8gw6SjpKccKnFA=='}, 'picThumbnail': {'md5': 'pG+5aNTPGTKqWXVvLwRHaw==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_thumbnail.png?ver=pG+5aNTPGTKqWXVvLwRHaw=='}, 'picColorImg': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg=='}, 'picFrameImg': {'md5': '424j1kKS0TZ7ORQE9Cehwg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_frame.png?ver=424j1kKS0TZ7ORQE9Cehwg=='}, 'picColorfulThumbnail': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_OA5bB_gBUs', 'picType': 1, 'picUnlockDate': 20210723, 'picVipUnlockDate': 20210720, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '8VI/YZBKKSBPS8j8WCmx/w==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs.npic?ver=8VI/YZBKKSBPS8j8WCmx/w=='}, 'picThumbnail': {'md5': '8jrpea5KIzWpgPbVVUPnbg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_thumbnail.png?ver=8jrpea5KIzWpgPbVVUPnbg=='}, 'picColorImg': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg=='}, 'picFrameImg': {'md5': 'ABbCXpHPtt2M9QH6xotyHw==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_frame.png?ver=ABbCXpHPtt2M9QH6xotyHw=='}, 'picColorfulThumbnail': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XebwVI_EPm', 'picType': 1, 'picUnlockDate': 20210722, 'picVipUnlockDate': 20210719, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'AREroyzZDvatVRmHz7E8dg==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm.npic?ver=AREroyzZDvatVRmHz7E8dg=='}, 'picThumbnail': {'md5': '+5dWEQai4DLdNCyCjyMDRQ==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_thumbnail.png?ver=+5dWEQai4DLdNCyCjyMDRQ=='}, 'picColorImg': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw=='}, 'picFrameImg': {'md5': 'wWwj2v/KlrLe/37h/LgXRA==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_frame.png?ver=wWwj2v/KlrLe/37h/LgXRA=='}, 'picColorfulThumbnail': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hgaUBucdNq', 'picType': 1, 'picUnlockDate': 20210721, 'picVipUnlockDate': 20210718, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'VVV4R3e4J2PWV1qpCEaymA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq.npic?ver=VVV4R3e4J2PWV1qpCEaymA=='}, 'picThumbnail': {'md5': '+WXHukRsEV7FXSq3xFQ6lg==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_thumbnail.png?ver=+WXHukRsEV7FXSq3xFQ6lg=='}, 'picColorImg': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ=='}, 'picFrameImg': {'md5': 'WRzPzCFG90h3Y/zTermbxA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_frame.png?ver=WRzPzCFG90h3Y/zTermbxA=='}, 'picColorfulThumbnail': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IDsbYN5dTs', 'picType': 1, 'picUnlockDate': 20210720, 'picVipUnlockDate': 20210717, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'hxtD/lb3f1nTCDQq8kJgpw==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs.npic?ver=hxtD/lb3f1nTCDQq8kJgpw=='}, 'picThumbnail': {'md5': 'AkrBdkZb2Sm7iDIOcngmkg==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_thumbnail.png?ver=AkrBdkZb2Sm7iDIOcngmkg=='}, 'picColorImg': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA=='}, 'picFrameImg': {'md5': 'heC6Z06HqD4/pTOZGspIeA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_frame.png?ver=heC6Z06HqD4/pTOZGspIeA=='}, 'picColorfulThumbnail': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_W5cfH-La0d', 'picType': 1, 'picUnlockDate': 20210719, 'picVipUnlockDate': 20210716, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': '4BVFaT+0KKIEpbHuWjsGYA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d.npic?ver=4BVFaT+0KKIEpbHuWjsGYA=='}, 'picThumbnail': {'md5': 'E7kZ24HYkU6wp/6d/GH6nw==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_thumbnail.png?ver=E7kZ24HYkU6wp/6d/GH6nw=='}, 'picColorImg': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA=='}, 'picFrameImg': {'md5': '0JXRrRKdCPjsVQU3fFohqg==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_frame.png?ver=0JXRrRKdCPjsVQU3fFohqg=='}, 'picColorfulThumbnail': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_H2ahnLFC9c', 'picType': 1, 'picUnlockDate': 20210718, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'iy3s+kEjkUyrTaC1Cq1hbw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c.npic?ver=iy3s+kEjkUyrTaC1Cq1hbw=='}, 'picThumbnail': {'md5': 'dOOQFdDj/3bHelpl+aqUPQ==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_thumbnail.png?ver=dOOQFdDj/3bHelpl+aqUPQ=='}, 'picColorImg': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw=='}, 'picFrameImg': {'md5': 'lUBa7hYgnmv9URei2fuDCA==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_frame.png?ver=lUBa7hYgnmv9URei2fuDCA=='}, 'picColorfulThumbnail': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3U_WIBSsD_', 'picType': 1, 'picUnlockDate': 20210717, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iYqfaQRAa15tIFoiAHNNSA==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD_.npic?ver=iYqfaQRAa15tIFoiAHNNSA=='}, 'picThumbnail': {'md5': 'Lvt+78CTOI8WPWYAugkNmg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__thumbnail.png?ver=Lvt+78CTOI8WPWYAugkNmg=='}, 'picColorImg': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg=='}, 'picFrameImg': {'md5': 'IzjlK1tDO2TDZbnX+axH6A==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__frame.png?ver=IzjlK1tDO2TDZbnX+axH6A=='}, 'picColorfulThumbnail': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_gleud9bb7D', 'picType': 1, 'picUnlockDate': 20210716, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'n4vbNr063IpUVlZsHRebrA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D.npic?ver=n4vbNr063IpUVlZsHRebrA=='}, 'picThumbnail': {'md5': '/EaylKyt+p4fvV0vL5P0+g==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_thumbnail.png?ver=/EaylKyt+p4fvV0vL5P0+g=='}, 'picColorImg': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ=='}, 'picFrameImg': {'md5': 'Wp3+NgVKRi/Mzqb3eURgFA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_frame.png?ver=Wp3+NgVKRi/Mzqb3eURgFA=='}, 'picColorfulThumbnail': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_pGzY8qgdpA', 'picType': 1, 'picUnlockDate': 20210715, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'hudKviQn/tAKRoVbELEr8A==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA.npic?ver=hudKviQn/tAKRoVbELEr8A=='}, 'picThumbnail': {'md5': 'uAxhCYeoVPqG9mJGBdJSWA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_thumbnail.png?ver=uAxhCYeoVPqG9mJGBdJSWA=='}, 'picColorImg': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ=='}, 'picFrameImg': {'md5': 'iRgnUuqYNAO4lvX5u0l5tA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_frame.png?ver=iRgnUuqYNAO4lvX5u0l5tA=='}, 'picColorfulThumbnail': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF</t>
+          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1628161341', 'apiName': 'getFeatureConfig', 'data': {'featureLength': 10, 'featureList': [{'featureId': 20036, 'rowType': 'Books', 'titleKey': 'Gothic Queens', 'descKey': 'The Fantasy Art of Anne Stokes.', 'rowOrder': 3000, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-20036/featrue-20036_g4oq1CnH8B.jpg?ver=MOCj85ErMUNLplfNHiXl7g==', 'detailPicMd5': 'MOCj85ErMUNLplfNHiXl7g==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210715, 'expireDate': 20250831, 'authorHeadPicPath': 'color/1.0/feature/-20036/featrue-20036_f4bzVV6ksX.png?ver=+KUHGGTG8GEqkH+R3PHobQ==', 'authorHeadPicMd5': '+KUHGGTG8GEqkH+R3PHobQ==', 'authorName': 'Anne Stokes', 'showPicRow': 1, 'pics': [{'picName': 'pic_inqLW6G17x', 'picType': 1, 'picUnlockDate': 20210724, 'picVipUnlockDate': 20210721, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': '6me9K6m+8gw6SjpKccKnFA==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x.npic?ver=6me9K6m+8gw6SjpKccKnFA=='}, 'picThumbnail': {'md5': 'pG+5aNTPGTKqWXVvLwRHaw==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_thumbnail.png?ver=pG+5aNTPGTKqWXVvLwRHaw=='}, 'picColorImg': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg=='}, 'picFrameImg': {'md5': '424j1kKS0TZ7ORQE9Cehwg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_frame.png?ver=424j1kKS0TZ7ORQE9Cehwg=='}, 'picColorfulThumbnail': {'md5': 'SBxWxOlvLGWAhO6x1mjWcg==', 'url': 'color/1.0/pics/pic_inqLW6G17x/pic_inqLW6G17x_color.jpg?ver=SBxWxOlvLGWAhO6x1mjWcg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_OA5bB_gBUs', 'picType': 1, 'picUnlockDate': 20210723, 'picVipUnlockDate': 20210720, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '8VI/YZBKKSBPS8j8WCmx/w==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs.npic?ver=8VI/YZBKKSBPS8j8WCmx/w=='}, 'picThumbnail': {'md5': '8jrpea5KIzWpgPbVVUPnbg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_thumbnail.png?ver=8jrpea5KIzWpgPbVVUPnbg=='}, 'picColorImg': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg=='}, 'picFrameImg': {'md5': 'ABbCXpHPtt2M9QH6xotyHw==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_frame.png?ver=ABbCXpHPtt2M9QH6xotyHw=='}, 'picColorfulThumbnail': {'md5': 'x3ZCgaupsevb2gghANCjqg==', 'url': 'color/1.0/pics/pic_OA5bB_gBUs/pic_OA5bB_gBUs_color.jpg?ver=x3ZCgaupsevb2gghANCjqg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XebwVI_EPm', 'picType': 1, 'picUnlockDate': 20210722, 'picVipUnlockDate': 20210719, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'AREroyzZDvatVRmHz7E8dg==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm.npic?ver=AREroyzZDvatVRmHz7E8dg=='}, 'picThumbnail': {'md5': '+5dWEQai4DLdNCyCjyMDRQ==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_thumbnail.png?ver=+5dWEQai4DLdNCyCjyMDRQ=='}, 'picColorImg': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw=='}, 'picFrameImg': {'md5': 'wWwj2v/KlrLe/37h/LgXRA==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_frame.png?ver=wWwj2v/KlrLe/37h/LgXRA=='}, 'picColorfulThumbnail': {'md5': 'OWEd3l3yP1W2eDOk4KPERw==', 'url': 'color/1.0/pics/pic_XebwVI_EPm/pic_XebwVI_EPm_color.jpg?ver=OWEd3l3yP1W2eDOk4KPERw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_hgaUBucdNq', 'picType': 1, 'picUnlockDate': 20210721, 'picVipUnlockDate': 20210718, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'VVV4R3e4J2PWV1qpCEaymA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq.npic?ver=VVV4R3e4J2PWV1qpCEaymA=='}, 'picThumbnail': {'md5': '+WXHukRsEV7FXSq3xFQ6lg==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_thumbnail.png?ver=+WXHukRsEV7FXSq3xFQ6lg=='}, 'picColorImg': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ=='}, 'picFrameImg': {'md5': 'WRzPzCFG90h3Y/zTermbxA==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_frame.png?ver=WRzPzCFG90h3Y/zTermbxA=='}, 'picColorfulThumbnail': {'md5': 'xKrsWLxFpCPPcsTMHZ4fSQ==', 'url': 'color/1.0/pics/pic_hgaUBucdNq/pic_hgaUBucdNq_color.jpg?ver=xKrsWLxFpCPPcsTMHZ4fSQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IDsbYN5dTs', 'picType': 1, 'picUnlockDate': 20210720, 'picVipUnlockDate': 20210717, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'hxtD/lb3f1nTCDQq8kJgpw==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs.npic?ver=hxtD/lb3f1nTCDQq8kJgpw=='}, 'picThumbnail': {'md5': 'AkrBdkZb2Sm7iDIOcngmkg==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_thumbnail.png?ver=AkrBdkZb2Sm7iDIOcngmkg=='}, 'picColorImg': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA=='}, 'picFrameImg': {'md5': 'heC6Z06HqD4/pTOZGspIeA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_frame.png?ver=heC6Z06HqD4/pTOZGspIeA=='}, 'picColorfulThumbnail': {'md5': 'ikD646ICEKIIzPEhBGmDpA==', 'url': 'color/1.0/pics/pic_IDsbYN5dTs/pic_IDsbYN5dTs_color.jpg?ver=ikD646ICEKIIzPEhBGmDpA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_W5cfH-La0d', 'picType': 1, 'picUnlockDate': 20210719, 'picVipUnlockDate': 20210716, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': '4BVFaT+0KKIEpbHuWjsGYA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d.npic?ver=4BVFaT+0KKIEpbHuWjsGYA=='}, 'picThumbnail': {'md5': 'E7kZ24HYkU6wp/6d/GH6nw==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_thumbnail.png?ver=E7kZ24HYkU6wp/6d/GH6nw=='}, 'picColorImg': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA=='}, 'picFrameImg': {'md5': '0JXRrRKdCPjsVQU3fFohqg==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_frame.png?ver=0JXRrRKdCPjsVQU3fFohqg=='}, 'picColorfulThumbnail': {'md5': 'bR6i/sePehZc9pwtMIsOlA==', 'url': 'color/1.0/pics/pic_W5cfH-La0d/pic_W5cfH-La0d_color.jpg?ver=bR6i/sePehZc9pwtMIsOlA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_H2ahnLFC9c', 'picType': 1, 'picUnlockDate': 20210718, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'iy3s+kEjkUyrTaC1Cq1hbw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c.npic?ver=iy3s+kEjkUyrTaC1Cq1hbw=='}, 'picThumbnail': {'md5': 'dOOQFdDj/3bHelpl+aqUPQ==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_thumbnail.png?ver=dOOQFdDj/3bHelpl+aqUPQ=='}, 'picColorImg': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw=='}, 'picFrameImg': {'md5': 'lUBa7hYgnmv9URei2fuDCA==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_frame.png?ver=lUBa7hYgnmv9URei2fuDCA=='}, 'picColorfulThumbnail': {'md5': 'YsvnDiZTYasAxuUZkD+Wdw==', 'url': 'color/1.0/pics/pic_H2ahnLFC9c/pic_H2ahnLFC9c_color.jpg?ver=YsvnDiZTYasAxuUZkD+Wdw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_3U_WIBSsD_', 'picType': 1, 'picUnlockDate': 20210717, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'iYqfaQRAa15tIFoiAHNNSA==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD_.npic?ver=iYqfaQRAa15tIFoiAHNNSA=='}, 'picThumbnail': {'md5': 'Lvt+78CTOI8WPWYAugkNmg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__thumbnail.png?ver=Lvt+78CTOI8WPWYAugkNmg=='}, 'picColorImg': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg=='}, 'picFrameImg': {'md5': 'IzjlK1tDO2TDZbnX+axH6A==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__frame.png?ver=IzjlK1tDO2TDZbnX+axH6A=='}, 'picColorfulThumbnail': {'md5': 'u74/re2cagElUtBC1MFNQg==', 'url': 'color/1.0/pics/pic_3U_WIBSsD_/pic_3U_WIBSsD__color.jpg?ver=u74/re2cagElUtBC1MFNQg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_gleud9bb7D', 'picType': 1, 'picUnlockDate': 20210716, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'n4vbNr063IpUVlZsHRebrA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D.npic?ver=n4vbNr063IpUVlZsHRebrA=='}, 'picThumbnail': {'md5': '/EaylKyt+p4fvV0vL5P0+g==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_thumbnail.png?ver=/EaylKyt+p4fvV0vL5P0+g=='}, 'picColorImg': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ=='}, 'picFrameImg': {'md5': 'Wp3+NgVKRi/Mzqb3eURgFA==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_frame.png?ver=Wp3+NgVKRi/Mzqb3eURgFA=='}, 'picColorfulThumbnail': {'md5': 'ydQhZqwpjxC0tmoXuv9KIQ==', 'url': 'color/1.0/pics/pic_gleud9bb7D/pic_gleud9bb7D_color.jpg?ver=ydQhZqwpjxC0tmoXuv9KIQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_pGzY8qgdpA', 'picType': 1, 'picUnlockDate': 20210715, 'picVipUnlockDate': 20210715, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'hudKviQn/tAKRoVbELEr8A==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA.npic?ver=hudKviQn/tAKRoVbELEr8A=='}, 'picThumbnail': {'md5': 'uAxhCYeoVPqG9mJGBdJSWA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_thumbnail.png?ver=uAxhCYeoVPqG9mJGBdJSWA=='}, 'picColorImg': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ=='}, 'picFrameImg': {'md5': 'iRgnUuqYNAO4lvX5u0l5tA==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_frame.png?ver=iRgnUuqYNAO4lvX5u0l5tA=='}, 'picColorfulThumbnail': {'md5': 'cSOdKEMegmJaDgbGiorNfQ==', 'url': 'color/1.0/pics/pic_pGzY8qgdpA/pic_pGzY8qgdpA_color.jpg?ver=cSOdKEMegmJaDgbGiorNfQ==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 0}, {'featureId': 17933, 'rowType': 'Books', 'titleKey': 'Mindful Mandala', 'descKey': 'Arrange whatever pieces come your way.', 'rowOrder': 2800, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-17933/featrue-17933_NZv9KZnVUR.jpg?ver=eaV2YPpWsmMzRvMu8p4Y+A==', 'detailPicMd5': 'eaV2YPpWsmMzRvMu8p4Y+A==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210612, 'expireDate': 20310630, 'authorHeadPicPath': 'color/1.0/feature/-17933/featrue-17933_mSw5cfTj_q.png?ver=XAQ/f1PISUXUsXVb9xZmfQ==', 'authorHeadPicMd5': 'XAQ/f1PISUXUsXVb9xZmfQ==', 'authorName': 'Lottie', 'showPicRow': 1, 'pics': [{'picName': 'pic_NlZjXsy6Ho', 'picType': 1, 'picUnlockDate': 20210621, 'picVipUnlockDate': 20210618, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 10, 'picAssets': {'picNpic': {'md5': 'HLiuagrL8pq6rgvBmR3nqw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho.npic?ver=HLiuagrL8pq6rgvBmR3nqw=='}, 'picThumbnail': {'md5': 'k70X08TStNPHU3JhfP68EQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_thumbnail.png?ver=k70X08TStNPHU3JhfP68EQ=='}, 'picColorImg': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw=='}, 'picFrameImg': {'md5': 'l6XzLwNApb/Qf4aqSAj5eQ==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_frame.png?ver=l6XzLwNApb/Qf4aqSAj5eQ=='}, 'picColorfulThumbnail': {'md5': 'hA12i/TDK0dVbJ/DuZR8lw==', 'url': 'color/1.0/pics/pic_NlZjXsy6Ho/pic_NlZjXsy6Ho_color.jpg?ver=hA12i/TDK0dVbJ/DuZR8lw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Enl7vwYkJ2', 'picType': 1, 'picUnlockDate': 20210620, 'picVipUnlockDate': 20210617, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 9, 'picAssets': {'picNpic': {'md5': '9jTtXzFq0+0CqJVZYSBsjQ==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2.npic?ver=9jTtXzFq0+0CqJVZYSBsjQ=='}, 'picThumbnail': {'md5': 'dC19UzZoOcdzNIpUU26epw==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_thumbnail.png?ver=dC19UzZoOcdzNIpUU26epw=='}, 'picColorImg': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg=='}, 'picFrameImg': {'md5': 'cuIzgGxG355WYdEbz05JZg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_frame.png?ver=cuIzgGxG355WYdEbz05JZg=='}, 'picColorfulThumbnail': {'md5': 'OpED1vf8qlv1554cm0bYDg==', 'url': 'color/1.0/pics/pic_Enl7vwYkJ2/pic_Enl7vwYkJ2_color.jpg?ver=OpED1vf8qlv1554cm0bYDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ge_o73bE8L', 'picType': 1, 'picUnlockDate': 20210619, 'picVipUnlockDate': 20210616, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'LuDaqCFjf8U0O0k3QwOEPQ==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L.npic?ver=LuDaqCFjf8U0O0k3QwOEPQ=='}, 'picThumbnail': {'md5': 'SrDoL+hjt7kvCcI7X+Yodw==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_thumbnail.png?ver=SrDoL+hjt7kvCcI7X+Yodw=='}, 'picColorImg': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA=='}, 'picFrameImg': {'md5': 'sPVwvT1Nokwe3fdOFix0aA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_frame.png?ver=sPVwvT1Nokwe3fdOFix0aA=='}, 'picColorfulThumbnail': {'md5': 'RHPtkp/EYtkomQ8EOzpRnA==', 'url': 'color/1.0/pics/pic_ge_o73bE8L/pic_ge_o73bE8L_color.jpg?ver=RHPtkp/EYtkomQ8EOzpRnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_BJSLCqimlR', 'picType': 1, 'picUnlockDate': 20210618, 'picVipUnlockDate': 20210615, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'gWCWGwVAl3etJHauaqiBhg==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR.npic?ver=gWCWGwVAl3etJHauaqiBhg=='}, 'picThumbnail': {'md5': 'aXKc12AmbijJT08kDpM+zA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_thumbnail.png?ver=aXKc12AmbijJT08kDpM+zA=='}, 'picColorImg': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA=='}, 'picFrameImg': {'md5': '0LHsNpK6IHbv1BS/SnWcvw==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_frame.png?ver=0LHsNpK6IHbv1BS/SnWcvw=='}, 'picColorfulThumbnail': {'md5': 'uex9EWlDCbpRCwvqjRfGTA==', 'url': 'color/1.0/pics/pic_BJSLCqimlR/pic_BJSLCqimlR_color.jpg?ver=uex9EWlDCbpRCwvqjRfGTA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_CR_Lv_OQ1o', 'picType': 1, 'picUnlockDate': 20210617, 'picVipUnlockDate': 20210614, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': '+iyScYK1xQaWRNRKMZrKdg==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o.npic?ver=+iyScYK1xQaWRNRKMZrKdg=='}, 'picThumbnail': {'md5': 'Ivd3v0Ql032fyGr0wQHW3A==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_thumbnail.png?ver=Ivd3v0Ql032fyGr0wQHW3A=='}, 'picColorImg': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug=='}, 'picFrameImg': {'md5': 'aFveJdl5wQyu4/3RbDVO6w==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_frame.png?ver=aFveJdl5wQyu4/3RbDVO6w=='}, 'picColorfulThumbnail': {'md5': 'p5AEkb/xxTsYWMpw/bOIug==', 'url': 'color/1.0/pics/pic_CR_Lv_OQ1o/pic_CR_Lv_OQ1o_color.jpg?ver=p5AEkb/xxTsYWMpw/bOIug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_08BuOW1-BX', 'picType': 1, 'picUnlockDate': 20210616, 'picVipUnlockDate': 20210613, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'g38JmyUXWlLJgDsiW4DP0w==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX.npic?ver=g38JmyUXWlLJgDsiW4DP0w=='}, 'picThumbnail': {'md5': 'Uavx3yg8kcYE17nsuloyZQ==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_thumbnail.png?ver=Uavx3yg8kcYE17nsuloyZQ=='}, 'picColorImg': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg=='}, 'picFrameImg': {'md5': 'LFEAZef33QeJaRNJu5jehg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_frame.png?ver=LFEAZef33QeJaRNJu5jehg=='}, 'picColorfulThumbnail': {'md5': 'xVdQK2I/c62dRTiXml6Iwg==', 'url': 'color/1.0/pics/pic_08BuOW1-BX/pic_08BuOW1-BX_color.jpg?ver=xVdQK2I/c62dRTiXml6Iwg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IT245fRIc0', 'picType': 1, 'picUnlockDate': 20210615, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': '4vUa8RgpkRPInWGyK5wikA==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0.npic?ver=4vUa8RgpkRPInWGyK5wikA=='}, 'picThumbnail': {'md5': 'erLUvXGS1H/GR0SQGjmNtQ==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_thumbnail.png?ver=erLUvXGS1H/GR0SQGjmNtQ=='}, 'picColorImg': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q=='}, 'picFrameImg': {'md5': '4NvPeGYsMyxS7zp/oEIpng==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_frame.png?ver=4NvPeGYsMyxS7zp/oEIpng=='}, 'picColorfulThumbnail': {'md5': '/ESwmGY8iTml5HwkScuf9Q==', 'url': 'color/1.0/pics/pic_IT245fRIc0/pic_IT245fRIc0_color.jpg?ver=/ESwmGY8iTml5HwkScuf9Q==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_fmH1TAArNr', 'picType': 1, 'picUnlockDate': 20210614, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'YzsJtqAvkIb6bYlPGb/5cA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr.npic?ver=YzsJtqAvkIb6bYlPGb/5cA=='}, 'picThumbnail': {'md5': 'jL4Q4OtDQktuAhZtOdykuQ==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_thumbnail.png?ver=jL4Q4OtDQktuAhZtOdykuQ=='}, 'picColorImg': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA=='}, 'picFrameImg': {'md5': '6rRy8LN7+ht0rTL4Crqvgw==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_frame.png?ver=6rRy8LN7+ht0rTL4Crqvgw=='}, 'picColorfulThumbnail': {'md5': 'c3Q6fWSv/jauec19YiMdnA==', 'url': 'color/1.0/pics/pic_fmH1TAArNr/pic_fmH1TAArNr_color.jpg?ver=c3Q6fWSv/jauec19YiMdnA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GmjEZDPryJ', 'picType': 1, 'picUnlockDate': 20210613, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': '/PgOCG9FLffknNhn+464HQ==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ.npic?ver=/PgOCG9FLffknNhn+464HQ=='}, 'picThumbnail': {'md5': 'wIHvTVa672GtQHaRYCwS6Q==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_thumbnail.png?ver=wIHvTVa672GtQHaRYCwS6Q=='}, 'picColorImg': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg=='}, 'picFrameImg': {'md5': 'PkBJr4OP0F9hZyXdYNnn3g==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_frame.png?ver=PkBJr4OP0F9hZyXdYNnn3g=='}, 'picColorfulThumbnail': {'md5': 'E/VgoeXaUwWU+1dHbe5mCg==', 'url': 'color/1.0/pics/pic_GmjEZDPryJ/pic_GmjEZDPryJ_color.jpg?ver=E/VgoeXaUwWU+1dHbe5mCg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_efdjB0vNuK', 'picType': 1, 'picUnlockDate': 20210612, 'picVipUnlockDate': 20210612, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': '12vXk608/VBh0Zo3rUBfcQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK.npic?ver=12vXk608/VBh0Zo3rUBfcQ=='}, 'picThumbnail': {'md5': 'pkUiJah3b1gnbjJe+P/2QQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_thumbnail.png?ver=pkUiJah3b1gnbjJe+P/2QQ=='}, 'picColorImg': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw=='}, 'picFrameImg': {'md5': 'ecYtHbSlKFIPNCi9AVYobQ==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_frame.png?ver=ecYtHbSlKFIPNCi9AVYobQ=='}, 'picColorfulThumbnail': {'md5': 'K+eZK+KjPuhj/YeWwgafbw==', 'url': 'color/1.0/pics/pic_efdjB0vNuK/pic_efdjB0vNuK_color.jpg?ver=K+eZK+KjPuhj/YeWwgafbw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 1}, {'featureId': 16110, 'rowType': 'Books', 'titleKey': 'Soulful Country Homes', 'descKey': 'There is nothing like staying at home for real comfort.', 'rowOrder': 2500, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-16110/featrue-16110_kvnHgZWfBH.jpg?ver=2RXgNWJS7SioF9Kn51Z2oA==', 'detailPicMd5': '2RXgNWJS7SioF9Kn51Z2oA==', 'isShowProcess': 1, 'outerLink': None, 'unlockDate': 20210515, 'expireDate': 23000630, 'authorHeadPicPath': 'color/1.0/feature/-16110/featrue-16110_fuoDFNNRHg.png?ver=uxp1pT7obk5NGUz4acSLUA==', 'authorHeadPicMd5': 'uxp1pT7obk5NGUz4acSLUA==', 'authorName': 'Vikki Jones', 'showPicRow': 1, 'pics': [{'picName': 'pic_IuYr-zS-hB', 'picType': 1, 'picUnlockDate': 20210522, 'picVipUnlockDate': 20210521, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': 'H3VOhX5sZ6EcNHj8wC+mtw==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB.npic?ver=H3VOhX5sZ6EcNHj8wC+mtw=='}, 'picThumbnail': {'md5': 'X0x2eASE2E4kO6bRfCs1oQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_thumbnail.png?ver=X0x2eASE2E4kO6bRfCs1oQ=='}, 'picColorImg': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ=='}, 'picFrameImg': {'md5': 'a66skv8T0xEfFK5caxI0Hg==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_frame.png?ver=a66skv8T0xEfFK5caxI0Hg=='}, 'picColorfulThumbnail': {'md5': '3t3GOKTszVfjnIq9BLRdMQ==', 'url': 'color/1.0/pics/pic_IuYr-zS-hB/pic_IuYr-zS-hB_color.jpg?ver=3t3GOKTszVfjnIq9BLRdMQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_w-cd8NeZgy', 'picType': 1, 'picUnlockDate': 20210521, 'picVipUnlockDate': 20210520, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'lu/Is2rchlVBOIqVXWBQaA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy.npic?ver=lu/Is2rchlVBOIqVXWBQaA=='}, 'picThumbnail': {'md5': 's3JpLmM9RoLEKARt/JYfrA==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_thumbnail.png?ver=s3JpLmM9RoLEKARt/JYfrA=='}, 'picColorImg': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ=='}, 'picFrameImg': {'md5': 'PZa/ueGYZnU74XsJNz+Zzw==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_frame.png?ver=PZa/ueGYZnU74XsJNz+Zzw=='}, 'picColorfulThumbnail': {'md5': 'TjgJeZ4qn6ZPiOxlrzQBgQ==', 'url': 'color/1.0/pics/pic_w-cd8NeZgy/pic_w-cd8NeZgy_color.jpg?ver=TjgJeZ4qn6ZPiOxlrzQBgQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_KKcMK85B2C', 'picType': 1, 'picUnlockDate': 20210520, 'picVipUnlockDate': 20210519, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'E7DcGr+NzgwkaDc2b4uvlw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C.npic?ver=E7DcGr+NzgwkaDc2b4uvlw=='}, 'picThumbnail': {'md5': 'aof+q5Laqs/QDKAFtiNHSQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_thumbnail.png?ver=aof+q5Laqs/QDKAFtiNHSQ=='}, 'picColorImg': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ=='}, 'picFrameImg': {'md5': 'QiW5VMD+cJewWeUdk4tiVw==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_frame.png?ver=QiW5VMD+cJewWeUdk4tiVw=='}, 'picColorfulThumbnail': {'md5': 'IbvTAv+IQdOOtJSBCY5zYQ==', 'url': 'color/1.0/pics/pic_KKcMK85B2C/pic_KKcMK85B2C_color.jpg?ver=IbvTAv+IQdOOtJSBCY5zYQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_E6aKwjTn6_', 'picType': 1, 'picUnlockDate': 20210519, 'picVipUnlockDate': 20210518, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 5, 'picAssets': {'picNpic': {'md5': 'WRokgZLGrQV2dgmx4RT9+w==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6_.npic?ver=WRokgZLGrQV2dgmx4RT9+w=='}, 'picThumbnail': {'md5': 'E+0hOISIF2amLE7Rgz79EA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__thumbnail.png?ver=E+0hOISIF2amLE7Rgz79EA=='}, 'picColorImg': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug=='}, 'picFrameImg': {'md5': 'eii8bvr+9o8zJIKnjD6vOA==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__frame.png?ver=eii8bvr+9o8zJIKnjD6vOA=='}, 'picColorfulThumbnail': {'md5': 'Exlf0+rLF0aLwYY9bAh6ug==', 'url': 'color/1.0/pics/pic_E6aKwjTn6_/pic_E6aKwjTn6__color.jpg?ver=Exlf0+rLF0aLwYY9bAh6ug==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_7PLWdm-Uor', 'picType': 1, 'picUnlockDate': 20210518, 'picVipUnlockDate': 20210517, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 4, 'picAssets': {'picNpic': {'md5': 'u2qwHD2vK0T6gjLldNMq2g==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor.npic?ver=u2qwHD2vK0T6gjLldNMq2g=='}, 'picThumbnail': {'md5': 'ZceHwYMGTUiOCj7+vzb7vQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_thumbnail.png?ver=ZceHwYMGTUiOCj7+vzb7vQ=='}, 'picColorImg': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA=='}, 'picFrameImg': {'md5': '8Xj94lGV4e2cMyNXyWN4TQ==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_frame.png?ver=8Xj94lGV4e2cMyNXyWN4TQ=='}, 'picColorfulThumbnail': {'md5': 'zvmiSbSMl+6iSm5BUwB4UA==', 'url': 'color/1.0/pics/pic_7PLWdm-Uor/pic_7PLWdm-Uor_color.jpg?ver=zvmiSbSMl+6iSm5BUwB4UA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qp6_Lu81WM', 'picType': 1, 'picUnlockDate': 20210517, 'picVipUnlockDate': 20210516, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 3, 'picAssets': {'picNpic': {'md5': 'QYvCkY1Vu9ARu7u9wJAxlg==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM.npic?ver=QYvCkY1Vu9ARu7u9wJAxlg=='}, 'picThumbnail': {'md5': 'uRarEk3nOuyd8VmErpFC+g==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_thumbnail.png?ver=uRarEk3nOuyd8VmErpFC+g=='}, 'picColorImg': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA=='}, 'picFrameImg': {'md5': 'ATfDfO73jJDSKQjBNNZmBA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_frame.png?ver=ATfDfO73jJDSKQjBNNZmBA=='}, 'picColorfulThumbnail': {'md5': 'mQgd8BS15NxP1hiWmvkuvA==', 'url': 'color/1.0/pics/pic_Qp6_Lu81WM/pic_Qp6_Lu81WM_color.jpg?ver=mQgd8BS15NxP1hiWmvkuvA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xWxId2QLB5', 'picType': 1, 'picUnlockDate': 20210516, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 2, 'picAssets': {'picNpic': {'md5': 'cU1Wlk2hl21netfgY6cs7A==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5.npic?ver=cU1Wlk2hl21netfgY6cs7A=='}, 'picThumbnail': {'md5': 'U6A6meJ8KY3+yci3JIg8Lw==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_thumbnail.png?ver=U6A6meJ8KY3+yci3JIg8Lw=='}, 'picColorImg': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w=='}, 'picFrameImg': {'md5': 'nqFq7lIUatCfi+dcueQ74Q==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_frame.png?ver=nqFq7lIUatCfi+dcueQ74Q=='}, 'picColorfulThumbnail': {'md5': '9dSotdk5RLKTkv7ThCn9/w==', 'url': 'color/1.0/pics/pic_xWxId2QLB5/pic_xWxId2QLB5_color.jpg?ver=9dSotdk5RLKTkv7ThCn9/w==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_iJjudXnywv', 'picType': 1, 'picUnlockDate': 20210515, 'picVipUnlockDate': 20210515, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 1, 'picAssets': {'picNpic': {'md5': 'Ize/B+QMb57htedXJj47zg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv.npic?ver=Ize/B+QMb57htedXJj47zg=='}, 'picThumbnail': {'md5': 'odoxVXkpO038KvB0rkUHIg==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_thumbnail.png?ver=odoxVXkpO038KvB0rkUHIg=='}, 'picColorImg': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw=='}, 'picFrameImg': {'md5': 'pUZn/a8ywy1LY2Koq97t/w==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_frame.png?ver=pUZn/a8ywy1LY2Koq97t/w=='}, 'picColorfulThumbnail': {'md5': 'mt4ALeRU4Ru8Wn499GwTBw==', 'url': 'color/1.0/pics/pic_iJjudXnywv/pic_iJjudXnywv_color.jpg?ver=mt4ALeRU4Ru8Wn499GwTBw==&amp;x-oss-process=style/colorTHN'}}}], 'offset': 2}, {'featureId': 14563, 'rowType': 'Books', 'titleKey': 'Sweet Love', 'descKey': 'Romance is the glamour that turns the dust of everyday life into a golden haze.', 'rowOrder': 2200, 'listPicPath': None, 'listPicMd5': None, 'listPicHeight': 0.5, 'detailPicPath': 'color/1.0/feature/-14563/featrue-14563_Fqk7QqKYBk.png?ver=eYCjsR6kh2me9tqiDvg39Q==', 'detailPicMd5': 'eYCjsR6kh2me9tqiDvg39Q==', 'isShowProcess': 1, 'outerLink': '', 'unlockDate': 20210420, 'expireDate': 20310430, 'authorHeadPicPath': 'color/1.0/feature/-14563/featrue-14563_7j-DO2Pol1.png?ver=poTWueVO9Qb6dKxQIzm4CA==', 'authorHeadPicMd5': 'poTWueVO9Qb6dKxQIzm4CA==', 'authorName': 'Aurelie', 'showPicRow': 1, 'pics': [{'picName': 'pic_x6SC4wZqd1', 'picType': 1, 'picUnlockDate': 20210511, 'picVipUnlockDate': 20210505, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 8, 'picAssets': {'picNpic': {'md5': '3bnl6MAxq3+Tj+aGnnxMVw==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1.npic?ver=3bnl6MAxq3+Tj+aGnnxMVw=='}, 'picThumbnail': {'md5': 'cl8BuoI3jMGI79glc8ChOQ==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_thumbnail.png?ver=cl8BuoI3jMGI79glc8ChOQ=='}, 'picColorImg': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA=='}, 'picFrameImg': {'md5': '5/oqe2JQiaj0lZzyxQTL6Q==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_frame.png?ver=5/oqe2JQiaj0lZzyxQTL6Q=='}, 'picColorfulThumbnail': {'md5': '/R1lPs+hCnGxemqS7u7FUA==', 'url': 'color/1.0/pics/pic_x6SC4wZqd1/pic_x6SC4wZqd1_color.jpg?ver=/R1lPs+hCnGxemqS7u7FUA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_WzAoEFSL0Q', 'picType': 1, 'picUnlockDate': 20210508, 'picVipUnlockDate': 20210502, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 7, 'picAssets': {'picNpic': {'md5': 'QHuJOvRWPvsYCpYOEzLT9A==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q.npic?ver=QHuJOvRWPvsYCpYOEzLT9A=='}, 'picThumbnail': {'md5': 'd6xThzQ/lkcOBxepA+VmLw==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_thumbnail.png?ver=d6xThzQ/lkcOBxepA+VmLw=='}, 'picColorImg': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg=='}, 'picFrameImg': {'md5': 'SZsFlUdiPnpKfrxNB3I4QQ==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_frame.png?ver=SZsFlUdiPnpKfrxNB3I4QQ=='}, 'picColorfulThumbnail': {'md5': 'dznbNfvySd1WSjJc7gEKSg==', 'url': 'color/1.0/pics/pic_WzAoEFSL0Q/pic_WzAoEFSL0Q_color.jpg?ver=dznbNfvySd1WSjJc7gEKSg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_kO_b3nF1ok', 'picType': 1, 'picUnlockDate': 20210505, 'picVipUnlockDate': 20210429, 'picExpireDate': 23000131, 'picUnlockType': '1', 'picUnlockNumber': '0', 'picOrder': 6, 'picAssets': {'picNpic': {'md5': 'vhPdlGYSFPhLWguZy11nLw==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok.npic?ver=vhPdlGYSFPhLWguZy11nLw=='}, 'picThumbnail': {'md5': 'gZdqh95iQGo+PDryaOO6Ng==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_thumbnail.png?ver=gZdqh95iQGo+PDryaOO6Ng=='}, 'picColorImg': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_color.jpg?ver=b5i+H7X0k6caXKRoy4e8OQ=='}, 'picFrameImg': {'md5': 'GqUNe350DyqFpewA7ytKDA==', 'url': 'color/1.0/pics/pic_kO_b3nF1ok/pic_kO_b3nF1ok_frame.png?ver=GqUNe350DyqFpewA7ytKDA=='}, 'picColorfulThumbnail': {'md5': 'b5i+H7X0k6caXKRoy4e8OQ==', 'url': 'color/1.0/pics/pic_kO_b3nF</t>
         </is>
       </c>
     </row>
@@ -5446,7 +5446,7 @@
       </c>
       <c r="L101" t="inlineStr">
         <is>
-          <t>{'errorCode': -1, 'errorMsg': {}, 'utcTime': '1627297345', 'apiName': 'getDailyList', 'data': {'picLength': 32, 'picList': [{'picName': 'pic_1uSloHRyvI', 'picType': 0, 'picUnlockDate': 20210617, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'gI35V5NrcNZkrdZxlGc2pg==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI.npic?ver=gI35V5NrcNZkrdZxlGc2pg=='}, 'picThumbnail': {'md5': 'Cpqqqwc5siZWAX+puXQEAA==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_thumbnail.png?ver=Cpqqqwc5siZWAX+puXQEAA=='}, 'picColorImg': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng=='}, 'picFrameImg': {'md5': 'OEcR4OjPuFD27rQd0kaktQ==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_frame.png?ver=OEcR4OjPuFD27rQd0kaktQ=='}, 'picColorfulThumbnail': {'md5': 'MSjYLxczk0d55E6p7wP1ng==', 'url': 'color/1.0/pics/pic_1uSloHRyvI/pic_1uSloHRyvI_color.png?ver=MSjYLxczk0d55E6p7wP1ng==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_m9PW9xK8Xg', 'picType': 0, 'picUnlockDate': 20210616, 'picExpireDate': 20310615, 'picAssets': {'picNpic': {'md5': 'p7kOR/x1sxaxnz6hph8YzQ==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg.npic?ver=p7kOR/x1sxaxnz6hph8YzQ=='}, 'picThumbnail': {'md5': 'VMgnyogZefGbcyrOjVePSg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_thumbnail.png?ver=VMgnyogZefGbcyrOjVePSg=='}, 'picColorImg': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg=='}, 'picFrameImg': {'md5': 'N91DnU8mdU9RH8OS6R9MYw==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_frame.png?ver=N91DnU8mdU9RH8OS6R9MYw=='}, 'picColorfulThumbnail': {'md5': 'cpU5vmxhjfiouIeFhUrRsg==', 'url': 'color/1.0/pics/pic_m9PW9xK8Xg/pic_m9PW9xK8Xg_color.png?ver=cpU5vmxhjfiouIeFhUrRsg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_0YkGeG_O7B', 'picType': 0, 'picUnlockDate': 20210615, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': '6s/oO2Ogn0eISWSUEGu/lA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B.npic?ver=6s/oO2Ogn0eISWSUEGu/lA=='}, 'picThumbnail': {'md5': 'MqFAoNp7ow0BjGGUB3vqYA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_thumbnail.png?ver=MqFAoNp7ow0BjGGUB3vqYA=='}, 'picColorImg': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA=='}, 'picFrameImg': {'md5': 'O2RFpxNaGiqZvTqKP+yJig==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_frame.png?ver=O2RFpxNaGiqZvTqKP+yJig=='}, 'picColorfulThumbnail': {'md5': 'Cngyelh+4UF7zwbnLZvOhA==', 'url': 'color/1.0/pics/pic_0YkGeG_O7B/pic_0YkGeG_O7B_color.png?ver=Cngyelh+4UF7zwbnLZvOhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_I2ytq6PwwL', 'picType': 0, 'picUnlockDate': 20210614, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'MXeNxClIYivWPWdEK+EpfA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL.npic?ver=MXeNxClIYivWPWdEK+EpfA=='}, 'picThumbnail': {'md5': 'lqXEHxCrCI8OV+RIEoVahA==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_thumbnail.png?ver=lqXEHxCrCI8OV+RIEoVahA=='}, 'picColorImg': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw=='}, 'picFrameImg': {'md5': 'kMGXnWdgXYT+3ZCwGpX5Gg==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_frame.png?ver=kMGXnWdgXYT+3ZCwGpX5Gg=='}, 'picColorfulThumbnail': {'md5': 'Ejm1CAXFQ0DF81VcoIy/Mw==', 'url': 'color/1.0/pics/pic_I2ytq6PwwL/pic_I2ytq6PwwL_color.png?ver=Ejm1CAXFQ0DF81VcoIy/Mw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_dADzCrD4lG', 'picType': 0, 'picUnlockDate': 20210613, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'ZjmnELRQsiqy4CJBoeNM8A==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG.npic?ver=ZjmnELRQsiqy4CJBoeNM8A=='}, 'picThumbnail': {'md5': '/3V6IPVUCGcdEWM7qzL42Q==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_thumbnail.png?ver=/3V6IPVUCGcdEWM7qzL42Q=='}, 'picColorImg': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw=='}, 'picFrameImg': {'md5': 'fgcZr1jr0/knA61rBl7O4g==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_frame.png?ver=fgcZr1jr0/knA61rBl7O4g=='}, 'picColorfulThumbnail': {'md5': 'PMFOsyd+cLcfNQbUWaLnFw==', 'url': 'color/1.0/pics/pic_dADzCrD4lG/pic_dADzCrD4lG_color.png?ver=PMFOsyd+cLcfNQbUWaLnFw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Aynpv1uL-i', 'picType': 0, 'picUnlockDate': 20210612, 'picExpireDate': 20310610, 'picAssets': {'picNpic': {'md5': 'V4Fh/WJ4+LpykAeYnwyL9g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i.npic?ver=V4Fh/WJ4+LpykAeYnwyL9g=='}, 'picThumbnail': {'md5': 'Q0n1AZGXC48/9NS923ws/g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_thumbnail.png?ver=Q0n1AZGXC48/9NS923ws/g=='}, 'picColorImg': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g=='}, 'picFrameImg': {'md5': '1qGnnvtLW26/noQjGjNLRQ==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_frame.png?ver=1qGnnvtLW26/noQjGjNLRQ=='}, 'picColorfulThumbnail': {'md5': 'yfe5JnO+VynD5PFzHRrr0g==', 'url': 'color/1.0/pics/pic_Aynpv1uL-i/pic_Aynpv1uL-i_color.png?ver=yfe5JnO+VynD5PFzHRrr0g==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_EvzgyoSkkB', 'picType': 0, 'picUnlockDate': 20210611, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'MWqVcUKEBe3b8nw6Qx8Yqw==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB.npic?ver=MWqVcUKEBe3b8nw6Qx8Yqw=='}, 'picThumbnail': {'md5': 'KVVRcUUUcmbAx9AXotgQcg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_thumbnail.png?ver=KVVRcUUUcmbAx9AXotgQcg=='}, 'picColorImg': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A=='}, 'picFrameImg': {'md5': 'f4bBY0bu4QchMMqNb3F6mg==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_frame.png?ver=f4bBY0bu4QchMMqNb3F6mg=='}, 'picColorfulThumbnail': {'md5': 'dYSqf7nW84OlKbyvvyF5/A==', 'url': 'color/1.0/pics/pic_EvzgyoSkkB/pic_EvzgyoSkkB_color.png?ver=dYSqf7nW84OlKbyvvyF5/A==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_zHiNi_IStI', 'picType': 0, 'picUnlockDate': 20210610, 'picExpireDate': 20310607, 'picAssets': {'picNpic': {'md5': 'wLhqf/8P+5T4J0xqlLTVLA==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI.npic?ver=wLhqf/8P+5T4J0xqlLTVLA=='}, 'picThumbnail': {'md5': '/SGL2tY8BQTK/6T938TxUQ==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_thumbnail.png?ver=/SGL2tY8BQTK/6T938TxUQ=='}, 'picColorImg': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg=='}, 'picFrameImg': {'md5': 'H4nEc5Z6U7UHyBaBpVKb3g==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_frame.png?ver=H4nEc5Z6U7UHyBaBpVKb3g=='}, 'picColorfulThumbnail': {'md5': 'izF3N0Vv2ZNSjAlYenBWDg==', 'url': 'color/1.0/pics/pic_zHiNi_IStI/pic_zHiNi_IStI_color.png?ver=izF3N0Vv2ZNSjAlYenBWDg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_DWD4YnR0IH', 'picType': 0, 'picUnlockDate': 20210609, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '5e8V1Iue0bjLMTeI+XwDqA==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH.npic?ver=5e8V1Iue0bjLMTeI+XwDqA=='}, 'picThumbnail': {'md5': 'vSBBE3dg1dBlSosfqJ0EFg==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_thumbnail.png?ver=vSBBE3dg1dBlSosfqJ0EFg=='}, 'picColorImg': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw=='}, 'picFrameImg': {'md5': 'bEdsKt3gUizumge502Ly4g==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_frame.png?ver=bEdsKt3gUizumge502Ly4g=='}, 'picColorfulThumbnail': {'md5': 'sJ0bPulhG5u6gpB3WN8hDw==', 'url': 'color/1.0/pics/pic_DWD4YnR0IH/pic_DWD4YnR0IH_color.png?ver=sJ0bPulhG5u6gpB3WN8hDw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ngX_xNuBcN', 'picType': 0, 'picUnlockDate': 20210608, 'picExpireDate': 20310604, 'picAssets': {'picNpic': {'md5': '0H7fzPp0ura9kBX7laX3ow==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN.npic?ver=0H7fzPp0ura9kBX7laX3ow=='}, 'picThumbnail': {'md5': '4VL4k3Ch6aH4BEY2vecwig==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_thumbnail.png?ver=4VL4k3Ch6aH4BEY2vecwig=='}, 'picColorImg': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA=='}, 'picFrameImg': {'md5': 'gW+x/taDaQgP1U27pyjquw==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_frame.png?ver=gW+x/taDaQgP1U27pyjquw=='}, 'picColorfulThumbnail': {'md5': 'f18dqdp/sSksrO7lgkneCA==', 'url': 'color/1.0/pics/pic_ngX_xNuBcN/pic_ngX_xNuBcN_color.png?ver=f18dqdp/sSksrO7lgkneCA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_Qo1UobQuZL', 'picType': 0, 'picUnlockDate': 20210607, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'mCODZVF0fur8kNGX38cfGQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL.npic?ver=mCODZVF0fur8kNGX38cfGQ=='}, 'picThumbnail': {'md5': 'VBq69RnN9ldc2HzUemBE+g==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_thumbnail.png?ver=VBq69RnN9ldc2HzUemBE+g=='}, 'picColorImg': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ=='}, 'picFrameImg': {'md5': 'ZhtyyNtqqJF3Jg4INXh2Hw==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_frame.png?ver=ZhtyyNtqqJF3Jg4INXh2Hw=='}, 'picColorfulThumbnail': {'md5': 'Xn7HPafgywKk9nOcpZ6MJQ==', 'url': 'color/1.0/pics/pic_Qo1UobQuZL/pic_Qo1UobQuZL_color.png?ver=Xn7HPafgywKk9nOcpZ6MJQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xqQ_1w643Y', 'picType': 0, 'picUnlockDate': 20210606, 'picExpireDate': 20310603, 'picAssets': {'picNpic': {'md5': 'dCzdSkU3yBz4tsrxo+QPnw==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y.npic?ver=dCzdSkU3yBz4tsrxo+QPnw=='}, 'picThumbnail': {'md5': 'vwuwTGXFgjHeUmNQgz5Hng==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_thumbnail.png?ver=vwuwTGXFgjHeUmNQgz5Hng=='}, 'picColorImg': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA=='}, 'picFrameImg': {'md5': '9VHfoy+gGOBP2zxCy0RWeg==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_frame.png?ver=9VHfoy+gGOBP2zxCy0RWeg=='}, 'picColorfulThumbnail': {'md5': '6KgKY+0d0cY3O0Vn3JGuYA==', 'url': 'color/1.0/pics/pic_xqQ_1w643Y/pic_xqQ_1w643Y_color.png?ver=6KgKY+0d0cY3O0Vn3JGuYA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_F3bdnWXNtH', 'picType': 0, 'picUnlockDate': 20210605, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': 'YEfe8xHJjAKVLRhw1sR0qQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH.npic?ver=YEfe8xHJjAKVLRhw1sR0qQ=='}, 'picThumbnail': {'md5': '3hBfjcB6Iue+1gNXpTjBuw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_thumbnail.png?ver=3hBfjcB6Iue+1gNXpTjBuw=='}, 'picColorImg': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw=='}, 'picFrameImg': {'md5': 'Uhnu5IxVyL3ryIqATMJvaQ==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_frame.png?ver=Uhnu5IxVyL3ryIqATMJvaQ=='}, 'picColorfulThumbnail': {'md5': 'T9sclx11gqDtnvrwwZeZhw==', 'url': 'color/1.0/pics/pic_F3bdnWXNtH/pic_F3bdnWXNtH_color.png?ver=T9sclx11gqDtnvrwwZeZhw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b0HN_Qg76p', 'picType': 0, 'picUnlockDate': 20210604, 'picExpireDate': 20310531, 'picAssets': {'picNpic': {'md5': '0y5izm/4OsS9UDmPy09LVA==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p.npic?ver=0y5izm/4OsS9UDmPy09LVA=='}, 'picThumbnail': {'md5': 'f8+T+H5SDJiQKXMRVp9zCQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_thumbnail.png?ver=f8+T+H5SDJiQKXMRVp9zCQ=='}, 'picColorImg': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ=='}, 'picFrameImg': {'md5': 'Yp8pc1RfU9LRfcK3J4K0tg==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_frame.png?ver=Yp8pc1RfU9LRfcK3J4K0tg=='}, 'picColorfulThumbnail': {'md5': 'sHOn/NfwZ2+Mh5rQC+8BNQ==', 'url': 'color/1.0/pics/pic_b0HN_Qg76p/pic_b0HN_Qg76p_color.png?ver=sHOn/NfwZ2+Mh5rQC+8BNQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_9So4R_quMM', 'picType': 0, 'picUnlockDate': 20210603, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'P2KR/FTPs6Ax/KndFjS4Og==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM.npic?ver=P2KR/FTPs6Ax/KndFjS4Og=='}, 'picThumbnail': {'md5': 'XVO5fcSGCNxMd6cKQfx0lg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_thumbnail.png?ver=XVO5fcSGCNxMd6cKQfx0lg=='}, 'picColorImg': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA=='}, 'picFrameImg': {'md5': 'xwjbIfdFaM8XInbCJXVazg==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_frame.png?ver=xwjbIfdFaM8XInbCJXVazg=='}, 'picColorfulThumbnail': {'md5': 'kNJBYZ4TBn6vGMSoAdR4lA==', 'url': 'color/1.0/pics/pic_9So4R_quMM/pic_9So4R_quMM_color.png?ver=kNJBYZ4TBn6vGMSoAdR4lA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_-tl9gmhWsd', 'picType': 0, 'picUnlockDate': 20210602, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'X9Ru5sGEYO5E76tv5lHXcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd.npic?ver=X9Ru5sGEYO5E76tv5lHXcA=='}, 'picThumbnail': {'md5': 'upCaMe8Bx5438nS3+JdBLg==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_thumbnail.png?ver=upCaMe8Bx5438nS3+JdBLg=='}, 'picColorImg': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA=='}, 'picFrameImg': {'md5': 'jgyaxWWEKJD88gn6QWBw5Q==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_frame.png?ver=jgyaxWWEKJD88gn6QWBw5Q=='}, 'picColorfulThumbnail': {'md5': 'dFJ5zAj88TVkfjffZHzMcA==', 'url': 'color/1.0/pics/pic_-tl9gmhWsd/pic_-tl9gmhWsd_color.png?ver=dFJ5zAj88TVkfjffZHzMcA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_erH3T3qiKQ', 'picType': 0, 'picUnlockDate': 20210601, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '5vhB/sDVW+jTKKi1DXPi2w==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ.npic?ver=5vhB/sDVW+jTKKi1DXPi2w=='}, 'picThumbnail': {'md5': 'zP/UdzS9IE+vWpxr4xtF5g==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_thumbnail.png?ver=zP/UdzS9IE+vWpxr4xtF5g=='}, 'picColorImg': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ=='}, 'picFrameImg': {'md5': 'uZ6Ho2MiDLJtrhTeoeqiuw==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_frame.png?ver=uZ6Ho2MiDLJtrhTeoeqiuw=='}, 'picColorfulThumbnail': {'md5': 'bkDS+AvdhApVMNFj1uSMxQ==', 'url': 'color/1.0/pics/pic_erH3T3qiKQ/pic_erH3T3qiKQ_color.png?ver=bkDS+AvdhApVMNFj1uSMxQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_GPSJ2Gatvo', 'picType': 0, 'picUnlockDate': 20210531, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': '0fAD38kM73SvBCmIfMmmgQ==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo.npic?ver=0fAD38kM73SvBCmIfMmmgQ=='}, 'picThumbnail': {'md5': 'FtucrmbB2mn/dTuMwfokcg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_thumbnail.png?ver=FtucrmbB2mn/dTuMwfokcg=='}, 'picColorImg': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg=='}, 'picFrameImg': {'md5': 'sutvSXU4P8c2nSMTXn9XgA==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_frame.png?ver=sutvSXU4P8c2nSMTXn9XgA=='}, 'picColorfulThumbnail': {'md5': 'nQkgimPCkFuKjJ725PwHgg==', 'url': 'color/1.0/pics/pic_GPSJ2Gatvo/pic_GPSJ2Gatvo_color.png?ver=nQkgimPCkFuKjJ725PwHgg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_b-8GE53bE', 'picType': 0, 'picUnlockDate': 20210530, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'ZL9Adt6gfyCmPmYavMG5Ag==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE.npic?ver=ZL9Adt6gfyCmPmYavMG5Ag=='}, 'picThumbnail': {'md5': 'GPJSfVtAsiEl6dwVUzWRkw==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_thumbnail.png?ver=GPJSfVtAsiEl6dwVUzWRkw=='}, 'picColorImg': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ=='}, 'picFrameImg': {'md5': 'HN8FtYzagysJOEpSfB1L4g==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_frame.png?ver=HN8FtYzagysJOEpSfB1L4g=='}, 'picColorfulThumbnail': {'md5': 'cAw9NlBDahu9eTerbaiSdQ==', 'url': 'color/1.0/pics/pic_b-8GE53bE/pic_b-8GE53bE_color.png?ver=cAw9NlBDahu9eTerbaiSdQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_XA0-0U88A', 'picType': 0, 'picUnlockDate': 20210529, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': 'wWQGionAMl7PpiVMQlY/bw==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A.npic?ver=wWQGionAMl7PpiVMQlY/bw=='}, 'picThumbnail': {'md5': '14HHIg95PLwaHj6RWu6VWA==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_thumbnail.png?ver=14HHIg95PLwaHj6RWu6VWA=='}, 'picColorImg': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ=='}, 'picFrameImg': {'md5': 'zUKqVMtkQuHPS8sg92qJMg==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_frame.png?ver=zUKqVMtkQuHPS8sg92qJMg=='}, 'picColorfulThumbnail': {'md5': '7MsLfgBgbBvLBAGI7JMgFQ==', 'url': 'color/1.0/pics/pic_XA0-0U88A/pic_XA0-0U88A_color.png?ver=7MsLfgBgbBvLBAGI7JMgFQ==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_VjfYqyi8hw', 'picType': 0, 'picUnlockDate': 20210528, 'picExpireDate': 20310528, 'picAssets': {'picNpic': {'md5': 'IjRJF4NGp43l5RJjJ+bijg==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw.npic?ver=IjRJF4NGp43l5RJjJ+bijg=='}, 'picThumbnail': {'md5': 'eeZJCd6MbhVnXrvEHcuQ2g==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_thumbnail.png?ver=eeZJCd6MbhVnXrvEHcuQ2g=='}, 'picColorImg': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw=='}, 'picFrameImg': {'md5': 'RmrEl/3Y6yT+YG4cZ1bf/w==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_frame.png?ver=RmrEl/3Y6yT+YG4cZ1bf/w=='}, 'picColorfulThumbnail': {'md5': 'J0hMcVjvwXarY47nHLLCcw==', 'url': 'color/1.0/pics/pic_VjfYqyi8hw/pic_VjfYqyi8hw_color.png?ver=J0hMcVjvwXarY47nHLLCcw==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_xKWm3YX7GW', 'picType': 0, 'picUnlockDate': 20210527, 'picExpireDate': 20310527, 'picAssets': {'picNpic': {'md5': 'PbYPwJnoihBu6NHlbCA22A==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW.npic?ver=PbYPwJnoihBu6NHlbCA22A=='}, 'picThumbnail': {'md5': '2BGt2aQw0xWiH1V4rzTBqQ==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_thumbnail.png?ver=2BGt2aQw0xWiH1V4rzTBqQ=='}, 'picColorImg': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg=='}, 'picFrameImg': {'md5': 'srxFDyyab0ZvZsSYoEJR0Q==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_frame.png?ver=srxFDyyab0ZvZsSYoEJR0Q=='}, 'picColorfulThumbnail': {'md5': 'mmtpwc+UUDS8lDsTBtePvg==', 'url': 'color/1.0/pics/pic_xKWm3YX7GW/pic_xKWm3YX7GW_color.png?ver=mmtpwc+UUDS8lDsTBtePvg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_eM3wzbc2Ys', 'picType': 0, 'picUnlockDate': 20210526, 'picExpireDate': 20310526, 'picAssets': {'picNpic': {'md5': 'OEqiue8bORRH9WJzNH4F9w==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys.npic?ver=OEqiue8bORRH9WJzNH4F9w=='}, 'picThumbnail': {'md5': 'uR+3+fjQhr82gyCU+7CSow==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_thumbnail.png?ver=uR+3+fjQhr82gyCU+7CSow=='}, 'picColorImg': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA=='}, 'picFrameImg': {'md5': 'mENeJf6TvDJsj7UUHoZ2Gw==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_frame.png?ver=mENeJf6TvDJsj7UUHoZ2Gw=='}, 'picColorfulThumbnail': {'md5': 'EfDGvrjf27WOis5ESp4huA==', 'url': 'color/1.0/pics/pic_eM3wzbc2Ys/pic_eM3wzbc2Ys_color.png?ver=EfDGvrjf27WOis5ESp4huA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_mfiGz8dQn5', 'picType': 0, 'picUnlockDate': 20210525, 'picExpireDate': 20310525, 'picAssets': {'picNpic': {'md5': '5y02nxlq51txCcYTIHh7Gg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5.npic?ver=5y02nxlq51txCcYTIHh7Gg=='}, 'picThumbnail': {'md5': 'GrWhv6H4U9IXgstOkgoHAg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_thumbnail.png?ver=GrWhv6H4U9IXgstOkgoHAg=='}, 'picColorImg': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg=='}, 'picFrameImg': {'md5': 'zLsgwKjRVyXoe5tq/PeOIQ==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_frame.png?ver=zLsgwKjRVyXoe5tq/PeOIQ=='}, 'picColorfulThumbnail': {'md5': 'XsobqC73EiRWiEOMX96ONg==', 'url': 'color/1.0/pics/pic_mfiGz8dQn5/pic_mfiGz8dQn5_color.png?ver=XsobqC73EiRWiEOMX96ONg==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_IZy6o2a_4', 'picType': 0, 'picUnlockDate': 20210524, 'picExpireDate': 20310524, 'picAssets': {'picNpic': {'md5': 'AKXuXT/xEAdFat+jueYzZA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4.npic?ver=AKXuXT/xEAdFat+jueYzZA=='}, 'picThumbnail': {'md5': 'zmA2pAPsbuz3+B/AuaZCXg==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_thumbnail.png?ver=zmA2pAPsbuz3+B/AuaZCXg=='}, 'picColorImg': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA=='}, 'picFrameImg': {'md5': 'pLP6qP/KzPwHqho/UyTB6A==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_frame.png?ver=pLP6qP/KzPwHqho/UyTB6A=='}, 'picColorfulThumbnail': {'md5': 'mQ3yTpZ6W8Ps5Y1TYnYUhA==', 'url': 'color/1.0/pics/pic_IZy6o2a_4/pic_IZy6o2a_4_color.png?ver=mQ3yTpZ6W8Ps5Y1TYnYUhA==&amp;x-oss-process=style/colorTHN'}}}, {'picName': 'pic_ndcMy5Cp21', 'picType': 0, 'picUnlockDate': 20210523, 'picExpireDate': 20310523, 'picAssets': {'picNpic': {'md5': 'W24ES5TW/Jv+nj3WC690Hg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21.npic?ver=W24ES5TW/Jv+nj3WC690Hg=='}, 'picThumbnail': {'md5': 'IJxNOO7FuYA/Q+NSHaifkg==', 'url': 'color/1.0/pics/pic_ndcMy5Cp21/pic_ndcMy5Cp21_thumbnail.png?ver=IJxNOO7FuYA/Q+NSHaifkg=='}, 'picColorImg'